--- a/excel/finished/7高炉/7高炉参数月报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数月报表.xlsx
@@ -8,31 +8,87 @@
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId2"/>
-    <sheet name="_tag_month_all" sheetId="2" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="_tag_month_all" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>高炉参数月报</t>
   </si>
   <si>
     <t xml:space="preserve">   项目
-日期</t>
-  </si>
-  <si>
-    <t>操作指标</t>
+时间</t>
   </si>
   <si>
     <t>炉顶煤气温度，℃</t>
   </si>
   <si>
     <t>炉顶煤气分析成分</t>
+  </si>
+  <si>
+    <t>风量
+m3/min</t>
+  </si>
+  <si>
+    <t>冷风压力
+KPa</t>
+  </si>
+  <si>
+    <t>热风压力
+Kpa</t>
+  </si>
+  <si>
+    <t>富氧量
+m3/h</t>
+  </si>
+  <si>
+    <t>富氧率
+%</t>
+  </si>
+  <si>
+    <t>风温
+℃</t>
+  </si>
+  <si>
+    <t>热负荷MJx10/h</t>
+  </si>
+  <si>
+    <t>水温差  ℃</t>
+  </si>
+  <si>
+    <t>炉顶压力
+Kpa</t>
+  </si>
+  <si>
+    <t>全压差
+Kpa</t>
+  </si>
+  <si>
+    <t>风湿
+g/m3</t>
+  </si>
+  <si>
+    <t>料速</t>
+  </si>
+  <si>
+    <t>喷煤量
+t/h</t>
+  </si>
+  <si>
+    <t>煤气利用率
+%</t>
+  </si>
+  <si>
+    <t>大焦比 kg/t</t>
+  </si>
+  <si>
+    <t>小焦比 kg/t</t>
   </si>
   <si>
     <t>煤比
@@ -43,72 +99,19 @@
 kg/t</t>
   </si>
   <si>
-    <t>煤气利用率
-%</t>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>CCT2</t>
+  </si>
+  <si>
+    <t>W4</t>
   </si>
   <si>
     <t>炉底中心温度
 ℃</t>
   </si>
   <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>水温差</t>
-  </si>
-  <si>
-    <t>料速</t>
-  </si>
-  <si>
-    <t>风量
-m3/min</t>
-  </si>
-  <si>
-    <t>富氧量
-m3/h</t>
-  </si>
-  <si>
-    <t>富氧率
-%</t>
-  </si>
-  <si>
-    <t>风温
-℃</t>
-  </si>
-  <si>
-    <t>冷风压力
-Kpa</t>
-  </si>
-  <si>
-    <t>热风压力
-Kpa</t>
-  </si>
-  <si>
-    <t>炉顶压力
-Kpa</t>
-  </si>
-  <si>
-    <t>全压差
-Kpa</t>
-  </si>
-  <si>
-    <t>风湿
-g/m3</t>
-  </si>
-  <si>
-    <t>喷煤量
-t/h</t>
-  </si>
-  <si>
-    <t>CCT</t>
-  </si>
-  <si>
-    <t>CCT2</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
     <t>Z值</t>
   </si>
   <si>
@@ -133,7 +136,7 @@
 ℃</t>
   </si>
   <si>
-    <t>炉腹煤气指数
+    <t>炉腹煤气指数 
 m3/min</t>
   </si>
   <si>
@@ -218,39 +221,54 @@
     <t>点名</t>
   </si>
   <si>
+    <t>BF7_L2C_BD_ColdBlastFlow_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_ColdWindPress2_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_HotBlastPress_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_OxygenFlow_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_OxygenEnrichmentRate_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_HotBlastTemp_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_WT6_Q_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BD_All_TempDiff_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_TP_TopPress_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_PressDiff_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_BH_1d_avg</t>
+  </si>
+  <si>
     <t>BF7_L2M_ChargeRate_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_BD_ColdBlastFlow_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_OxygenFlow_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2M_OxygenEnrichmentRate_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_HotBlastTemp_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_ColdWindPress2_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_HotBlastPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_TP_TopPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2M_PressDiff_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_BH_1d_avg</t>
-  </si>
-  <si>
     <t>BF7_L2C_BD_PCI_1d_avg</t>
   </si>
   <si>
+    <t>BF7_L2C_BD_topgasn_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BX_CoalRate_1d_cur</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BX_FuelRate_1d_cur</t>
+  </si>
+  <si>
     <t>BF7_L2C_BD_CCTCenterTemp_1d_avg</t>
   </si>
   <si>
@@ -260,6 +278,9 @@
     <t>BF7_L2M_PCT_1d_avg</t>
   </si>
   <si>
+    <t>BF7_L2C_BH_T0157_1d_avg</t>
+  </si>
+  <si>
     <t>BF7_L2C_BD_CentralAirFinger_1d_avg</t>
   </si>
   <si>
@@ -308,28 +329,22 @@
     <t>BF7_L2C_BD_topgasN2_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2M_CoalRate_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2M_FuelRate_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_topgasn_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BH_T0157_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_WT6_Q_1d_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2M_BD_All_TempDiff_1d_avg</t>
-  </si>
-  <si>
     <t>平均</t>
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>BF7_L2C_MES_CON_PCI_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_MES_CON_FR_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BX_CokeRate_1d_cur</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BX_NTCokeRate_1d_cur</t>
   </si>
 </sst>
 </file>
@@ -337,14 +352,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +381,18 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -404,88 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -501,17 +446,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,14 +462,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +497,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +602,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,31 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,97 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,42 +782,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -798,6 +825,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color auto="1"/>
@@ -812,19 +863,6 @@
       <diagonal style="medium">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -894,21 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -966,62 +989,34 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,45 +1032,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1062,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1114,25 +1085,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,309 +1103,293 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1793,318 +1739,327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.10833333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.10833333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="9.66666666666667" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="9.44166666666667" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.88333333333333" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7"/>
-    <col min="10" max="10" width="9" style="8"/>
-    <col min="11" max="32" width="9" style="7"/>
-    <col min="33" max="34" width="8.66666666666667" style="7" customWidth="1"/>
-    <col min="35" max="35" width="11.1083333333333" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9.775" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="9" style="15"/>
+    <col min="8" max="9" width="9" style="17"/>
+    <col min="10" max="11" width="9" style="18"/>
+    <col min="12" max="13" width="9" style="17"/>
+    <col min="14" max="14" width="9" style="18"/>
+    <col min="15" max="16" width="9" style="17"/>
+    <col min="17" max="23" width="9" style="15"/>
+    <col min="24" max="27" width="9" style="17"/>
+    <col min="28" max="28" width="9" style="18"/>
+    <col min="29" max="30" width="9" style="15"/>
+    <col min="31" max="31" width="9" style="17"/>
+    <col min="32" max="34" width="9" style="15"/>
+    <col min="35" max="36" width="9" style="15" customWidth="1"/>
+    <col min="37" max="37" width="9.88333333333333" style="17" customWidth="1"/>
+    <col min="38" max="39" width="9" style="17"/>
+    <col min="40" max="40" width="8.66666666666667" style="17" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:36">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="26.25" spans="1:38">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="str">
-        <f>IF(_metadata!B7="","",_metadata!B7)</f>
-        <v/>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:38">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:40">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="42" t="s">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+    </row>
+    <row r="3" ht="36.75" spans="1:40">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="49" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="F3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="50" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:38">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="53"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="77.4" hidden="1" customHeight="1" spans="1:38">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="77.4" hidden="1" customHeight="1" spans="1:40">
+      <c r="A4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="AC4" s="3" t="s">
@@ -2113,4831 +2068,5085 @@
       <c r="AD4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="5" t="s">
         <v>71</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AH4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AM4" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="AN4" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:38">
-      <c r="A5" s="18">
+    <row r="5" spans="1:40">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="28" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="29" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" s="30" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="21" t="str">
+      <c r="E5" s="31" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="32" t="str">
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="31" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="23" t="str">
+      <c r="H5" s="32" t="str">
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="20" t="str">
+      <c r="I5" s="32" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="20" t="str">
+      <c r="J5" s="43" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="37" t="str">
+      <c r="K5" s="43" t="str">
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="19" t="str">
+      <c r="L5" s="32" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="M5" s="32" t="str">
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="20" t="str">
+      <c r="N5" s="43" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="20" t="str">
-        <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
-        <v/>
-      </c>
-      <c r="P5" s="21" t="str">
+      <c r="O5" s="32" t="str">
+        <f>IF(_tag_month_all!N2="","",_tag_month_all!N2*100)</f>
+        <v/>
+      </c>
+      <c r="P5" s="32" t="str">
+        <f>IF(_tag_month_all!AL2="","",_tag_month_all!AL2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="31" t="str">
+        <f>IF(_tag_month_all!AM2="","",_tag_month_all!AM2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="31" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="21" t="str">
+      <c r="S5" s="31" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="21" t="str">
+      <c r="T5" s="31" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="21" t="str">
+      <c r="U5" s="31" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="19" t="str">
+      <c r="V5" s="31" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="20" t="str">
+      <c r="W5" s="31" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="20" t="str">
+      <c r="X5" s="32" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="21" t="str">
+      <c r="Y5" s="32" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="20" t="str">
+      <c r="Z5" s="32" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="20" t="str">
+      <c r="AA5" s="32" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="20" t="str">
+      <c r="AB5" s="43" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="20" t="str">
+      <c r="AC5" s="31" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="20" t="str">
+      <c r="AD5" s="31" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="20" t="str">
+      <c r="AE5" s="32" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="20" t="str">
+      <c r="AF5" s="31" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="21" t="str">
+      <c r="AG5" s="31" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="21" t="str">
+      <c r="AH5" s="31" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="20" t="str">
+      <c r="AI5" s="31" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="20" t="str">
+      <c r="AJ5" s="31" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="21" t="str">
-        <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2*100)</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="20" t="str">
+      <c r="AK5" s="32" t="str">
+        <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
+        <v/>
+      </c>
+      <c r="AL5" s="32" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-      <c r="AK5" s="21" t="str">
+      <c r="AM5" s="32" t="str">
         <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AL5" s="21" t="str">
+      <c r="AN5" s="32" t="str">
         <f>IF(_tag_month_all!AK2="","",_tag_month_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:38">
-      <c r="A6" s="18">
+    <row r="6" spans="1:40">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="28" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="29" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="30" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="21" t="str">
+      <c r="E6" s="31" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="32" t="str">
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="31" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="23" t="str">
+      <c r="H6" s="32" t="str">
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" s="32" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="20" t="str">
+      <c r="J6" s="43" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="37" t="str">
+      <c r="K6" s="43" t="str">
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="32" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="32" t="str">
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="43" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="20" t="str">
-        <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
-        <v/>
-      </c>
-      <c r="P6" s="21" t="str">
+      <c r="O6" s="32" t="str">
+        <f>IF(_tag_month_all!N3="","",_tag_month_all!N3*100)</f>
+        <v/>
+      </c>
+      <c r="P6" s="32" t="str">
+        <f>IF(_tag_month_all!AL3="","",_tag_month_all!AL3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="31" t="str">
+        <f>IF(_tag_month_all!AM3="","",_tag_month_all!AM3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="31" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="21" t="str">
+      <c r="S6" s="31" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="21" t="str">
+      <c r="T6" s="31" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="21" t="str">
+      <c r="U6" s="31" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="V6" s="31" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="20" t="str">
+      <c r="W6" s="31" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="20" t="str">
+      <c r="X6" s="32" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="21" t="str">
+      <c r="Y6" s="32" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="20" t="str">
+      <c r="Z6" s="32" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="20" t="str">
+      <c r="AA6" s="32" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="AB6" s="43" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="20" t="str">
+      <c r="AC6" s="31" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="20" t="str">
+      <c r="AD6" s="31" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="20" t="str">
+      <c r="AE6" s="32" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="20" t="str">
+      <c r="AF6" s="31" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="21" t="str">
+      <c r="AG6" s="31" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="21" t="str">
+      <c r="AH6" s="31" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="20" t="str">
+      <c r="AI6" s="31" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="20" t="str">
+      <c r="AJ6" s="31" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="21" t="str">
-        <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3*100)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="20" t="str">
+      <c r="AK6" s="32" t="str">
+        <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="32" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-      <c r="AK6" s="21" t="str">
+      <c r="AM6" s="32" t="str">
         <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AL6" s="21" t="str">
+      <c r="AN6" s="32" t="str">
         <f>IF(_tag_month_all!AK3="","",_tag_month_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="18">
+    <row r="7" spans="1:40">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="28" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="25" t="str">
+      <c r="C7" s="29" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="25" t="str">
+      <c r="D7" s="30" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="26" t="str">
+      <c r="E7" s="31" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="32" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="31" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="32" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="32" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="25" t="str">
+      <c r="J7" s="43" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="38" t="str">
+      <c r="K7" s="43" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="24" t="str">
+      <c r="L7" s="32" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="27" t="str">
+      <c r="M7" s="32" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="25" t="str">
+      <c r="N7" s="43" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="25" t="str">
-        <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
-        <v/>
-      </c>
-      <c r="P7" s="26" t="str">
+      <c r="O7" s="32" t="str">
+        <f>IF(_tag_month_all!N4="","",_tag_month_all!N4*100)</f>
+        <v/>
+      </c>
+      <c r="P7" s="32" t="str">
+        <f>IF(_tag_month_all!AL4="","",_tag_month_all!AL4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="31" t="str">
+        <f>IF(_tag_month_all!AM4="","",_tag_month_all!AM4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="31" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="S7" s="31" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="21" t="str">
+      <c r="T7" s="31" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="26" t="str">
+      <c r="U7" s="31" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="24" t="str">
+      <c r="V7" s="31" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="W7" s="31" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="X7" s="32" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="26" t="str">
+      <c r="Y7" s="32" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="25" t="str">
+      <c r="Z7" s="32" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="25" t="str">
+      <c r="AA7" s="32" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="25" t="str">
+      <c r="AB7" s="43" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="25" t="str">
+      <c r="AC7" s="31" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="25" t="str">
+      <c r="AD7" s="31" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="25" t="str">
+      <c r="AE7" s="32" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="25" t="str">
+      <c r="AF7" s="31" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="26" t="str">
+      <c r="AG7" s="31" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="26" t="str">
+      <c r="AH7" s="31" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="25" t="str">
+      <c r="AI7" s="31" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="25" t="str">
+      <c r="AJ7" s="31" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="26" t="str">
-        <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4*100)</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="25" t="str">
+      <c r="AK7" s="32" t="str">
+        <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
+        <v/>
+      </c>
+      <c r="AL7" s="32" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AK7" s="26" t="str">
+      <c r="AM7" s="32" t="str">
         <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AL7" s="26" t="str">
+      <c r="AN7" s="32" t="str">
         <f>IF(_tag_month_all!AK4="","",_tag_month_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="18">
+    <row r="8" spans="1:40">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="28" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="25" t="str">
+      <c r="C8" s="29" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="30" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="32" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="31" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="29" t="str">
+      <c r="H8" s="32" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="32" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="25" t="str">
+      <c r="J8" s="43" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="38" t="str">
+      <c r="K8" s="43" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="24" t="str">
+      <c r="L8" s="32" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="27" t="str">
+      <c r="M8" s="32" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="25" t="str">
+      <c r="N8" s="43" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="25" t="str">
-        <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
-        <v/>
-      </c>
-      <c r="P8" s="26" t="str">
+      <c r="O8" s="32" t="str">
+        <f>IF(_tag_month_all!N5="","",_tag_month_all!N5*100)</f>
+        <v/>
+      </c>
+      <c r="P8" s="32" t="str">
+        <f>IF(_tag_month_all!AL5="","",_tag_month_all!AL5)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="31" t="str">
+        <f>IF(_tag_month_all!AM5="","",_tag_month_all!AM5)</f>
+        <v/>
+      </c>
+      <c r="R8" s="31" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="26" t="str">
+      <c r="S8" s="31" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="21" t="str">
+      <c r="T8" s="31" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="U8" s="31" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="24" t="str">
+      <c r="V8" s="31" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="25" t="str">
+      <c r="W8" s="31" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="25" t="str">
+      <c r="X8" s="32" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="26" t="str">
+      <c r="Y8" s="32" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="25" t="str">
+      <c r="Z8" s="32" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="25" t="str">
+      <c r="AA8" s="32" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="25" t="str">
+      <c r="AB8" s="43" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="25" t="str">
+      <c r="AC8" s="31" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="25" t="str">
+      <c r="AD8" s="31" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="25" t="str">
+      <c r="AE8" s="32" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="25" t="str">
+      <c r="AF8" s="31" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="26" t="str">
+      <c r="AG8" s="31" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="26" t="str">
+      <c r="AH8" s="31" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="25" t="str">
+      <c r="AI8" s="31" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="25" t="str">
+      <c r="AJ8" s="31" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="26" t="str">
-        <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5*100)</f>
-        <v/>
-      </c>
-      <c r="AJ8" s="25" t="str">
+      <c r="AK8" s="32" t="str">
+        <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
+        <v/>
+      </c>
+      <c r="AL8" s="32" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AK8" s="26" t="str">
+      <c r="AM8" s="32" t="str">
         <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AL8" s="26" t="str">
+      <c r="AN8" s="32" t="str">
         <f>IF(_tag_month_all!AK5="","",_tag_month_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="18">
+    <row r="9" spans="1:40">
+      <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="28" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="25" t="str">
+      <c r="C9" s="29" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="30" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="31" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="32" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="31" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="32" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="32" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="25" t="str">
+      <c r="J9" s="43" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="43" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="24" t="str">
+      <c r="L9" s="32" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="32" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="25" t="str">
+      <c r="N9" s="43" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="25" t="str">
-        <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
-        <v/>
-      </c>
-      <c r="P9" s="26" t="str">
+      <c r="O9" s="32" t="str">
+        <f>IF(_tag_month_all!N6="","",_tag_month_all!N6*100)</f>
+        <v/>
+      </c>
+      <c r="P9" s="32" t="str">
+        <f>IF(_tag_month_all!AL6="","",_tag_month_all!AL6)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="31" t="str">
+        <f>IF(_tag_month_all!AM6="","",_tag_month_all!AM6)</f>
+        <v/>
+      </c>
+      <c r="R9" s="31" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="26" t="str">
+      <c r="S9" s="31" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="21" t="str">
+      <c r="T9" s="31" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="U9" s="31" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="24" t="str">
+      <c r="V9" s="31" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="25" t="str">
+      <c r="W9" s="31" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="25" t="str">
+      <c r="X9" s="32" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="26" t="str">
+      <c r="Y9" s="32" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="25" t="str">
+      <c r="Z9" s="32" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="25" t="str">
+      <c r="AA9" s="32" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="25" t="str">
+      <c r="AB9" s="43" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="25" t="str">
+      <c r="AC9" s="31" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="25" t="str">
+      <c r="AD9" s="31" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="25" t="str">
+      <c r="AE9" s="32" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="25" t="str">
+      <c r="AF9" s="31" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="26" t="str">
+      <c r="AG9" s="31" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="26" t="str">
+      <c r="AH9" s="31" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="25" t="str">
+      <c r="AI9" s="31" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="25" t="str">
+      <c r="AJ9" s="31" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="26" t="str">
-        <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6*100)</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="25" t="str">
+      <c r="AK9" s="32" t="str">
+        <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
+        <v/>
+      </c>
+      <c r="AL9" s="32" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AK9" s="26" t="str">
+      <c r="AM9" s="32" t="str">
         <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AL9" s="26" t="str">
+      <c r="AN9" s="32" t="str">
         <f>IF(_tag_month_all!AK6="","",_tag_month_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="18">
+    <row r="10" spans="1:40">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="28" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="25" t="str">
+      <c r="C10" s="29" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="30" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="26" t="str">
+      <c r="E10" s="31" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="32" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="31" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="32" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="32" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="25" t="str">
+      <c r="J10" s="43" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="43" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="24" t="str">
+      <c r="L10" s="32" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="32" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="25" t="str">
+      <c r="N10" s="43" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="25" t="str">
-        <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
-        <v/>
-      </c>
-      <c r="P10" s="26" t="str">
+      <c r="O10" s="32" t="str">
+        <f>IF(_tag_month_all!N7="","",_tag_month_all!N7*100)</f>
+        <v/>
+      </c>
+      <c r="P10" s="32" t="str">
+        <f>IF(_tag_month_all!AL7="","",_tag_month_all!AL7)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="31" t="str">
+        <f>IF(_tag_month_all!AM7="","",_tag_month_all!AM7)</f>
+        <v/>
+      </c>
+      <c r="R10" s="31" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="26" t="str">
+      <c r="S10" s="31" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="21" t="str">
+      <c r="T10" s="31" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="26" t="str">
+      <c r="U10" s="31" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="24" t="str">
+      <c r="V10" s="31" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="25" t="str">
+      <c r="W10" s="31" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="25" t="str">
+      <c r="X10" s="32" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="26" t="str">
+      <c r="Y10" s="32" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="25" t="str">
+      <c r="Z10" s="32" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="25" t="str">
+      <c r="AA10" s="32" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="25" t="str">
+      <c r="AB10" s="43" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="25" t="str">
+      <c r="AC10" s="31" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="25" t="str">
+      <c r="AD10" s="31" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="25" t="str">
+      <c r="AE10" s="32" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="25" t="str">
+      <c r="AF10" s="31" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="26" t="str">
+      <c r="AG10" s="31" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="26" t="str">
+      <c r="AH10" s="31" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="25" t="str">
+      <c r="AI10" s="31" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="25" t="str">
+      <c r="AJ10" s="31" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="26" t="str">
-        <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7*100)</f>
-        <v/>
-      </c>
-      <c r="AJ10" s="25" t="str">
+      <c r="AK10" s="32" t="str">
+        <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
+        <v/>
+      </c>
+      <c r="AL10" s="32" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AK10" s="26" t="str">
+      <c r="AM10" s="32" t="str">
         <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AL10" s="26" t="str">
+      <c r="AN10" s="32" t="str">
         <f>IF(_tag_month_all!AK7="","",_tag_month_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="18">
+    <row r="11" spans="1:40">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="28" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="29" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="30" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="26" t="str">
+      <c r="E11" s="31" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="32" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="31" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="32" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="32" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="J11" s="43" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="43" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="24" t="str">
+      <c r="L11" s="32" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="27" t="str">
+      <c r="M11" s="32" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="25" t="str">
+      <c r="N11" s="43" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="25" t="str">
-        <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
-        <v/>
-      </c>
-      <c r="P11" s="26" t="str">
+      <c r="O11" s="32" t="str">
+        <f>IF(_tag_month_all!N8="","",_tag_month_all!N8*100)</f>
+        <v/>
+      </c>
+      <c r="P11" s="32" t="str">
+        <f>IF(_tag_month_all!AL8="","",_tag_month_all!AL8)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="31" t="str">
+        <f>IF(_tag_month_all!AM8="","",_tag_month_all!AM8)</f>
+        <v/>
+      </c>
+      <c r="R11" s="31" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="26" t="str">
+      <c r="S11" s="31" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="21" t="str">
+      <c r="T11" s="31" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="26" t="str">
+      <c r="U11" s="31" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="24" t="str">
+      <c r="V11" s="31" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="25" t="str">
+      <c r="W11" s="31" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="25" t="str">
+      <c r="X11" s="32" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="26" t="str">
+      <c r="Y11" s="32" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="25" t="str">
+      <c r="Z11" s="32" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="25" t="str">
+      <c r="AA11" s="32" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="25" t="str">
+      <c r="AB11" s="43" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="25" t="str">
+      <c r="AC11" s="31" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="25" t="str">
+      <c r="AD11" s="31" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="25" t="str">
+      <c r="AE11" s="32" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="25" t="str">
+      <c r="AF11" s="31" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="26" t="str">
+      <c r="AG11" s="31" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="26" t="str">
+      <c r="AH11" s="31" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="25" t="str">
+      <c r="AI11" s="31" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="25" t="str">
+      <c r="AJ11" s="31" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="26" t="str">
-        <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8*100)</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="25" t="str">
+      <c r="AK11" s="32" t="str">
+        <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
+        <v/>
+      </c>
+      <c r="AL11" s="32" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AK11" s="26" t="str">
+      <c r="AM11" s="32" t="str">
         <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AL11" s="26" t="str">
+      <c r="AN11" s="32" t="str">
         <f>IF(_tag_month_all!AK8="","",_tag_month_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="18">
+    <row r="12" spans="1:40">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="28" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="29" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="30" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="26" t="str">
+      <c r="E12" s="31" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="32" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="31" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="32" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str">
+      <c r="I12" s="32" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="43" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="38" t="str">
+      <c r="K12" s="43" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="24" t="str">
+      <c r="L12" s="32" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="32" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="25" t="str">
+      <c r="N12" s="43" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="25" t="str">
-        <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
-        <v/>
-      </c>
-      <c r="P12" s="26" t="str">
+      <c r="O12" s="32" t="str">
+        <f>IF(_tag_month_all!N9="","",_tag_month_all!N9*100)</f>
+        <v/>
+      </c>
+      <c r="P12" s="32" t="str">
+        <f>IF(_tag_month_all!AL9="","",_tag_month_all!AL9)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="31" t="str">
+        <f>IF(_tag_month_all!AM9="","",_tag_month_all!AM9)</f>
+        <v/>
+      </c>
+      <c r="R12" s="31" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="26" t="str">
+      <c r="S12" s="31" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="21" t="str">
+      <c r="T12" s="31" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="26" t="str">
+      <c r="U12" s="31" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="24" t="str">
+      <c r="V12" s="31" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="25" t="str">
+      <c r="W12" s="31" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="25" t="str">
+      <c r="X12" s="32" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="26" t="str">
+      <c r="Y12" s="32" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="25" t="str">
+      <c r="Z12" s="32" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="25" t="str">
+      <c r="AA12" s="32" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="25" t="str">
+      <c r="AB12" s="43" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="25" t="str">
+      <c r="AC12" s="31" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="25" t="str">
+      <c r="AD12" s="31" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="25" t="str">
+      <c r="AE12" s="32" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="25" t="str">
+      <c r="AF12" s="31" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="26" t="str">
+      <c r="AG12" s="31" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="26" t="str">
+      <c r="AH12" s="31" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="25" t="str">
+      <c r="AI12" s="31" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="25" t="str">
+      <c r="AJ12" s="31" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="26" t="str">
-        <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9*100)</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="25" t="str">
+      <c r="AK12" s="32" t="str">
+        <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
+        <v/>
+      </c>
+      <c r="AL12" s="32" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AK12" s="26" t="str">
+      <c r="AM12" s="32" t="str">
         <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AL12" s="26" t="str">
+      <c r="AN12" s="32" t="str">
         <f>IF(_tag_month_all!AK9="","",_tag_month_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="18">
+    <row r="13" spans="1:40">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="28" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="30" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="26" t="str">
+      <c r="E13" s="31" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="32" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="31" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="32" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="25" t="str">
+      <c r="I13" s="32" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="25" t="str">
+      <c r="J13" s="43" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="43" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="24" t="str">
+      <c r="L13" s="32" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="27" t="str">
+      <c r="M13" s="32" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="25" t="str">
+      <c r="N13" s="43" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="25" t="str">
-        <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
-        <v/>
-      </c>
-      <c r="P13" s="26" t="str">
+      <c r="O13" s="32" t="str">
+        <f>IF(_tag_month_all!N10="","",_tag_month_all!N10*100)</f>
+        <v/>
+      </c>
+      <c r="P13" s="32" t="str">
+        <f>IF(_tag_month_all!AL10="","",_tag_month_all!AL10)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="31" t="str">
+        <f>IF(_tag_month_all!AM10="","",_tag_month_all!AM10)</f>
+        <v/>
+      </c>
+      <c r="R13" s="31" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="26" t="str">
+      <c r="S13" s="31" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="T13" s="31" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="26" t="str">
+      <c r="U13" s="31" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="24" t="str">
+      <c r="V13" s="31" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="25" t="str">
+      <c r="W13" s="31" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="25" t="str">
+      <c r="X13" s="32" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="26" t="str">
+      <c r="Y13" s="32" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="25" t="str">
+      <c r="Z13" s="32" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="25" t="str">
+      <c r="AA13" s="32" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="25" t="str">
+      <c r="AB13" s="43" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="25" t="str">
+      <c r="AC13" s="31" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="25" t="str">
+      <c r="AD13" s="31" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="25" t="str">
+      <c r="AE13" s="32" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="25" t="str">
+      <c r="AF13" s="31" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="26" t="str">
+      <c r="AG13" s="31" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="26" t="str">
+      <c r="AH13" s="31" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="25" t="str">
+      <c r="AI13" s="31" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="25" t="str">
+      <c r="AJ13" s="31" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="26" t="str">
-        <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10*100)</f>
-        <v/>
-      </c>
-      <c r="AJ13" s="25" t="str">
+      <c r="AK13" s="32" t="str">
+        <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
+        <v/>
+      </c>
+      <c r="AL13" s="32" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AK13" s="26" t="str">
+      <c r="AM13" s="32" t="str">
         <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AL13" s="26" t="str">
+      <c r="AN13" s="32" t="str">
         <f>IF(_tag_month_all!AK10="","",_tag_month_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="18">
+    <row r="14" spans="1:40">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="28" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="29" t="str">
+      <c r="H14" s="32" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="32" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="25" t="str">
+      <c r="J14" s="43" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="38" t="str">
+      <c r="K14" s="43" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="24" t="str">
+      <c r="L14" s="32" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="32" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="25" t="str">
+      <c r="N14" s="43" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="25" t="str">
-        <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
-        <v/>
-      </c>
-      <c r="P14" s="26" t="str">
+      <c r="O14" s="32" t="str">
+        <f>IF(_tag_month_all!N11="","",_tag_month_all!N11*100)</f>
+        <v/>
+      </c>
+      <c r="P14" s="32" t="str">
+        <f>IF(_tag_month_all!AL11="","",_tag_month_all!AL11)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="31" t="str">
+        <f>IF(_tag_month_all!AM11="","",_tag_month_all!AM11)</f>
+        <v/>
+      </c>
+      <c r="R14" s="31" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="26" t="str">
+      <c r="S14" s="31" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="T14" s="31" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="26" t="str">
+      <c r="U14" s="31" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="24" t="str">
+      <c r="V14" s="31" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="25" t="str">
+      <c r="W14" s="31" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="25" t="str">
+      <c r="X14" s="32" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="26" t="str">
+      <c r="Y14" s="32" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="25" t="str">
+      <c r="Z14" s="32" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="25" t="str">
+      <c r="AA14" s="32" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="25" t="str">
+      <c r="AB14" s="43" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="25" t="str">
+      <c r="AC14" s="31" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="25" t="str">
+      <c r="AD14" s="31" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="25" t="str">
+      <c r="AE14" s="32" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="25" t="str">
+      <c r="AF14" s="31" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="26" t="str">
+      <c r="AG14" s="31" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="26" t="str">
+      <c r="AH14" s="31" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="25" t="str">
+      <c r="AI14" s="31" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="25" t="str">
+      <c r="AJ14" s="31" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="26" t="str">
-        <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11*100)</f>
-        <v/>
-      </c>
-      <c r="AJ14" s="25" t="str">
+      <c r="AK14" s="32" t="str">
+        <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
+        <v/>
+      </c>
+      <c r="AL14" s="32" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AK14" s="26" t="str">
+      <c r="AM14" s="32" t="str">
         <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AL14" s="26" t="str">
+      <c r="AN14" s="32" t="str">
         <f>IF(_tag_month_all!AK11="","",_tag_month_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="18">
+    <row r="15" spans="1:40">
+      <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="28" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="29" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="30" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="26" t="str">
+      <c r="E15" s="31" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="32" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="31" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="32" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="25" t="str">
+      <c r="I15" s="32" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="25" t="str">
+      <c r="J15" s="43" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="38" t="str">
+      <c r="K15" s="43" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="24" t="str">
+      <c r="L15" s="32" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="27" t="str">
+      <c r="M15" s="32" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="25" t="str">
+      <c r="N15" s="43" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="25" t="str">
-        <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="26" t="str">
+      <c r="O15" s="32" t="str">
+        <f>IF(_tag_month_all!N12="","",_tag_month_all!N12*100)</f>
+        <v/>
+      </c>
+      <c r="P15" s="32" t="str">
+        <f>IF(_tag_month_all!AL12="","",_tag_month_all!AL12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="31" t="str">
+        <f>IF(_tag_month_all!AM12="","",_tag_month_all!AM12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="31" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="26" t="str">
+      <c r="S15" s="31" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="T15" s="31" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="U15" s="31" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="24" t="str">
+      <c r="V15" s="31" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="25" t="str">
+      <c r="W15" s="31" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="25" t="str">
+      <c r="X15" s="32" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="26" t="str">
+      <c r="Y15" s="32" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="25" t="str">
+      <c r="Z15" s="32" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="25" t="str">
+      <c r="AA15" s="32" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="25" t="str">
+      <c r="AB15" s="43" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="25" t="str">
+      <c r="AC15" s="31" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="25" t="str">
+      <c r="AD15" s="31" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="25" t="str">
+      <c r="AE15" s="32" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="25" t="str">
+      <c r="AF15" s="31" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="26" t="str">
+      <c r="AG15" s="31" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="26" t="str">
+      <c r="AH15" s="31" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="25" t="str">
+      <c r="AI15" s="31" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="25" t="str">
+      <c r="AJ15" s="31" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="26" t="str">
-        <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12*100)</f>
-        <v/>
-      </c>
-      <c r="AJ15" s="25" t="str">
+      <c r="AK15" s="32" t="str">
+        <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
+        <v/>
+      </c>
+      <c r="AL15" s="32" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AK15" s="26" t="str">
+      <c r="AM15" s="32" t="str">
         <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AL15" s="26" t="str">
+      <c r="AN15" s="32" t="str">
         <f>IF(_tag_month_all!AK12="","",_tag_month_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="18">
+    <row r="16" spans="1:40">
+      <c r="A16" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="28" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="29" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="30" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="26" t="str">
+      <c r="E16" s="31" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="32" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="31" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="29" t="str">
+      <c r="H16" s="32" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="32" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="25" t="str">
+      <c r="J16" s="43" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="38" t="str">
+      <c r="K16" s="43" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="24" t="str">
+      <c r="L16" s="32" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="27" t="str">
+      <c r="M16" s="32" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="25" t="str">
+      <c r="N16" s="43" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="25" t="str">
-        <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
-        <v/>
-      </c>
-      <c r="P16" s="26" t="str">
+      <c r="O16" s="32" t="str">
+        <f>IF(_tag_month_all!N13="","",_tag_month_all!N13*100)</f>
+        <v/>
+      </c>
+      <c r="P16" s="32" t="str">
+        <f>IF(_tag_month_all!AL13="","",_tag_month_all!AL13)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="31" t="str">
+        <f>IF(_tag_month_all!AM13="","",_tag_month_all!AM13)</f>
+        <v/>
+      </c>
+      <c r="R16" s="31" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="26" t="str">
+      <c r="S16" s="31" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="T16" s="31" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="26" t="str">
+      <c r="U16" s="31" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="24" t="str">
+      <c r="V16" s="31" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="25" t="str">
+      <c r="W16" s="31" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="X16" s="32" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="26" t="str">
+      <c r="Y16" s="32" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="25" t="str">
+      <c r="Z16" s="32" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="25" t="str">
+      <c r="AA16" s="32" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="25" t="str">
+      <c r="AB16" s="43" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="25" t="str">
+      <c r="AC16" s="31" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="25" t="str">
+      <c r="AD16" s="31" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="25" t="str">
+      <c r="AE16" s="32" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="25" t="str">
+      <c r="AF16" s="31" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="26" t="str">
+      <c r="AG16" s="31" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="26" t="str">
+      <c r="AH16" s="31" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="25" t="str">
+      <c r="AI16" s="31" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="25" t="str">
+      <c r="AJ16" s="31" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="26" t="str">
-        <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13*100)</f>
-        <v/>
-      </c>
-      <c r="AJ16" s="25" t="str">
+      <c r="AK16" s="32" t="str">
+        <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
+        <v/>
+      </c>
+      <c r="AL16" s="32" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AK16" s="26" t="str">
+      <c r="AM16" s="32" t="str">
         <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AL16" s="26" t="str">
+      <c r="AN16" s="32" t="str">
         <f>IF(_tag_month_all!AK13="","",_tag_month_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="18">
+    <row r="17" spans="1:40">
+      <c r="A17" s="27">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="28" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="29" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="25" t="str">
+      <c r="D17" s="30" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="26" t="str">
+      <c r="E17" s="31" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="32" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="31" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="29" t="str">
+      <c r="H17" s="32" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="32" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="25" t="str">
+      <c r="J17" s="43" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="38" t="str">
+      <c r="K17" s="43" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="24" t="str">
+      <c r="L17" s="32" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="M17" s="32" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="25" t="str">
+      <c r="N17" s="43" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="25" t="str">
-        <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
+      <c r="O17" s="32" t="str">
+        <f>IF(_tag_month_all!N14="","",_tag_month_all!N14*100)</f>
+        <v/>
+      </c>
+      <c r="P17" s="32" t="str">
+        <f>IF(_tag_month_all!AL14="","",_tag_month_all!AL14)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="31" t="str">
+        <f>IF(_tag_month_all!AM14="","",_tag_month_all!AM14)</f>
+        <v/>
+      </c>
+      <c r="R17" s="31" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="26" t="str">
+      <c r="S17" s="31" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="21" t="str">
+      <c r="T17" s="31" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="U17" s="31" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="24" t="str">
+      <c r="V17" s="31" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="25" t="str">
+      <c r="W17" s="31" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="25" t="str">
+      <c r="X17" s="32" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="26" t="str">
+      <c r="Y17" s="32" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="25" t="str">
+      <c r="Z17" s="32" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="25" t="str">
+      <c r="AA17" s="32" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="25" t="str">
+      <c r="AB17" s="43" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="25" t="str">
+      <c r="AC17" s="31" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="25" t="str">
+      <c r="AD17" s="31" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="25" t="str">
+      <c r="AE17" s="32" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="25" t="str">
+      <c r="AF17" s="31" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="26" t="str">
+      <c r="AG17" s="31" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="26" t="str">
+      <c r="AH17" s="31" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="25" t="str">
+      <c r="AI17" s="31" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="25" t="str">
+      <c r="AJ17" s="31" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="26" t="str">
-        <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14*100)</f>
-        <v/>
-      </c>
-      <c r="AJ17" s="25" t="str">
+      <c r="AK17" s="32" t="str">
+        <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
+        <v/>
+      </c>
+      <c r="AL17" s="32" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AK17" s="26" t="str">
+      <c r="AM17" s="32" t="str">
         <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AL17" s="26" t="str">
+      <c r="AN17" s="32" t="str">
         <f>IF(_tag_month_all!AK14="","",_tag_month_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="18">
+    <row r="18" spans="1:40">
+      <c r="A18" s="27">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="28" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="29" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="30" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="26" t="str">
+      <c r="E18" s="31" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="32" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="31" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="29" t="str">
+      <c r="H18" s="32" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="32" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="25" t="str">
+      <c r="J18" s="43" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="38" t="str">
+      <c r="K18" s="43" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="24" t="str">
+      <c r="L18" s="32" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="27" t="str">
+      <c r="M18" s="32" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="25" t="str">
+      <c r="N18" s="43" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="25" t="str">
-        <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
+      <c r="O18" s="32" t="str">
+        <f>IF(_tag_month_all!N15="","",_tag_month_all!N15*100)</f>
+        <v/>
+      </c>
+      <c r="P18" s="32" t="str">
+        <f>IF(_tag_month_all!AL15="","",_tag_month_all!AL15)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="31" t="str">
+        <f>IF(_tag_month_all!AM15="","",_tag_month_all!AM15)</f>
+        <v/>
+      </c>
+      <c r="R18" s="31" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="26" t="str">
+      <c r="S18" s="31" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="T18" s="31" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="26" t="str">
+      <c r="U18" s="31" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="24" t="str">
+      <c r="V18" s="31" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="25" t="str">
+      <c r="W18" s="31" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="25" t="str">
+      <c r="X18" s="32" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="26" t="str">
+      <c r="Y18" s="32" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="25" t="str">
+      <c r="Z18" s="32" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="25" t="str">
+      <c r="AA18" s="32" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="25" t="str">
+      <c r="AB18" s="43" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="25" t="str">
+      <c r="AC18" s="31" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="25" t="str">
+      <c r="AD18" s="31" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="25" t="str">
+      <c r="AE18" s="32" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="25" t="str">
+      <c r="AF18" s="31" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="26" t="str">
+      <c r="AG18" s="31" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="26" t="str">
+      <c r="AH18" s="31" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="25" t="str">
+      <c r="AI18" s="31" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="25" t="str">
+      <c r="AJ18" s="31" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="26" t="str">
-        <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15*100)</f>
-        <v/>
-      </c>
-      <c r="AJ18" s="25" t="str">
+      <c r="AK18" s="32" t="str">
+        <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
+        <v/>
+      </c>
+      <c r="AL18" s="32" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AK18" s="26" t="str">
+      <c r="AM18" s="32" t="str">
         <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AL18" s="26" t="str">
+      <c r="AN18" s="32" t="str">
         <f>IF(_tag_month_all!AK15="","",_tag_month_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="18">
+    <row r="19" spans="1:40">
+      <c r="A19" s="27">
         <v>15</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="28" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="29" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="30" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="26" t="str">
+      <c r="E19" s="31" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="27" t="str">
+      <c r="F19" s="32" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="31" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="29" t="str">
+      <c r="H19" s="32" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="32" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="25" t="str">
+      <c r="J19" s="43" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="38" t="str">
+      <c r="K19" s="43" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="24" t="str">
+      <c r="L19" s="32" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="27" t="str">
+      <c r="M19" s="32" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="25" t="str">
+      <c r="N19" s="43" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="25" t="str">
-        <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
+      <c r="O19" s="32" t="str">
+        <f>IF(_tag_month_all!N16="","",_tag_month_all!N16*100)</f>
+        <v/>
+      </c>
+      <c r="P19" s="32" t="str">
+        <f>IF(_tag_month_all!AL16="","",_tag_month_all!AL16)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="31" t="str">
+        <f>IF(_tag_month_all!AM16="","",_tag_month_all!AM16)</f>
+        <v/>
+      </c>
+      <c r="R19" s="31" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="26" t="str">
+      <c r="S19" s="31" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="21" t="str">
+      <c r="T19" s="31" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="26" t="str">
+      <c r="U19" s="31" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="24" t="str">
+      <c r="V19" s="31" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="25" t="str">
+      <c r="W19" s="31" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="25" t="str">
+      <c r="X19" s="32" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="26" t="str">
+      <c r="Y19" s="32" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="25" t="str">
+      <c r="Z19" s="32" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="25" t="str">
+      <c r="AA19" s="32" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="25" t="str">
+      <c r="AB19" s="43" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="25" t="str">
+      <c r="AC19" s="31" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="25" t="str">
+      <c r="AD19" s="31" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="25" t="str">
+      <c r="AE19" s="32" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="25" t="str">
+      <c r="AF19" s="31" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="26" t="str">
+      <c r="AG19" s="31" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="26" t="str">
+      <c r="AH19" s="31" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="25" t="str">
+      <c r="AI19" s="31" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="25" t="str">
+      <c r="AJ19" s="31" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="26" t="str">
-        <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16*100)</f>
-        <v/>
-      </c>
-      <c r="AJ19" s="25" t="str">
+      <c r="AK19" s="32" t="str">
+        <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
+        <v/>
+      </c>
+      <c r="AL19" s="32" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AK19" s="26" t="str">
+      <c r="AM19" s="32" t="str">
         <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AL19" s="26" t="str">
+      <c r="AN19" s="32" t="str">
         <f>IF(_tag_month_all!AK16="","",_tag_month_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="18">
+    <row r="20" spans="1:40">
+      <c r="A20" s="27">
         <v>16</v>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="28" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="25" t="str">
+      <c r="C20" s="29" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="30" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="31" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="32" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="31" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="29" t="str">
+      <c r="H20" s="32" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="32" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="25" t="str">
+      <c r="J20" s="43" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="38" t="str">
+      <c r="K20" s="43" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="24" t="str">
+      <c r="L20" s="32" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="27" t="str">
+      <c r="M20" s="32" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="25" t="str">
+      <c r="N20" s="43" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="25" t="str">
-        <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
-        <v/>
-      </c>
-      <c r="P20" s="26" t="str">
+      <c r="O20" s="32" t="str">
+        <f>IF(_tag_month_all!N17="","",_tag_month_all!N17*100)</f>
+        <v/>
+      </c>
+      <c r="P20" s="32" t="str">
+        <f>IF(_tag_month_all!AL17="","",_tag_month_all!AL17)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="31" t="str">
+        <f>IF(_tag_month_all!AM17="","",_tag_month_all!AM17)</f>
+        <v/>
+      </c>
+      <c r="R20" s="31" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="26" t="str">
+      <c r="S20" s="31" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="T20" s="31" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="26" t="str">
+      <c r="U20" s="31" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="24" t="str">
+      <c r="V20" s="31" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="25" t="str">
+      <c r="W20" s="31" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="25" t="str">
+      <c r="X20" s="32" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="26" t="str">
+      <c r="Y20" s="32" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="25" t="str">
+      <c r="Z20" s="32" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="25" t="str">
+      <c r="AA20" s="32" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="25" t="str">
+      <c r="AB20" s="43" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="25" t="str">
+      <c r="AC20" s="31" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="25" t="str">
+      <c r="AD20" s="31" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="25" t="str">
+      <c r="AE20" s="32" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="25" t="str">
+      <c r="AF20" s="31" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="26" t="str">
+      <c r="AG20" s="31" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="26" t="str">
+      <c r="AH20" s="31" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="25" t="str">
+      <c r="AI20" s="31" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="25" t="str">
+      <c r="AJ20" s="31" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="26" t="str">
-        <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17*100)</f>
-        <v/>
-      </c>
-      <c r="AJ20" s="25" t="str">
+      <c r="AK20" s="32" t="str">
+        <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
+        <v/>
+      </c>
+      <c r="AL20" s="32" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AK20" s="26" t="str">
+      <c r="AM20" s="32" t="str">
         <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AL20" s="26" t="str">
+      <c r="AN20" s="32" t="str">
         <f>IF(_tag_month_all!AK17="","",_tag_month_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="18">
+    <row r="21" spans="1:40">
+      <c r="A21" s="27">
         <v>17</v>
       </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="28" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="25" t="str">
+      <c r="C21" s="29" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="25" t="str">
+      <c r="D21" s="30" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="26" t="str">
+      <c r="E21" s="31" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="27" t="str">
+      <c r="F21" s="32" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="31" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="29" t="str">
+      <c r="H21" s="32" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="32" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="25" t="str">
+      <c r="J21" s="43" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="38" t="str">
+      <c r="K21" s="43" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="24" t="str">
+      <c r="L21" s="32" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="27" t="str">
+      <c r="M21" s="32" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="25" t="str">
+      <c r="N21" s="43" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="25" t="str">
-        <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
-        <v/>
-      </c>
-      <c r="P21" s="26" t="str">
+      <c r="O21" s="32" t="str">
+        <f>IF(_tag_month_all!N18="","",_tag_month_all!N18*100)</f>
+        <v/>
+      </c>
+      <c r="P21" s="32" t="str">
+        <f>IF(_tag_month_all!AL18="","",_tag_month_all!AL18)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="31" t="str">
+        <f>IF(_tag_month_all!AM18="","",_tag_month_all!AM18)</f>
+        <v/>
+      </c>
+      <c r="R21" s="31" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="26" t="str">
+      <c r="S21" s="31" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="T21" s="31" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="26" t="str">
+      <c r="U21" s="31" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="24" t="str">
+      <c r="V21" s="31" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="25" t="str">
+      <c r="W21" s="31" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="25" t="str">
+      <c r="X21" s="32" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="26" t="str">
+      <c r="Y21" s="32" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="25" t="str">
+      <c r="Z21" s="32" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="25" t="str">
+      <c r="AA21" s="32" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="25" t="str">
+      <c r="AB21" s="43" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="25" t="str">
+      <c r="AC21" s="31" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="25" t="str">
+      <c r="AD21" s="31" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="25" t="str">
+      <c r="AE21" s="32" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="25" t="str">
+      <c r="AF21" s="31" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="26" t="str">
+      <c r="AG21" s="31" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="26" t="str">
+      <c r="AH21" s="31" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="25" t="str">
+      <c r="AI21" s="31" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="25" t="str">
+      <c r="AJ21" s="31" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="26" t="str">
-        <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18*100)</f>
-        <v/>
-      </c>
-      <c r="AJ21" s="25" t="str">
+      <c r="AK21" s="32" t="str">
+        <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
+        <v/>
+      </c>
+      <c r="AL21" s="32" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AK21" s="26" t="str">
+      <c r="AM21" s="32" t="str">
         <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AL21" s="26" t="str">
+      <c r="AN21" s="32" t="str">
         <f>IF(_tag_month_all!AK18="","",_tag_month_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="18">
+    <row r="22" spans="1:40">
+      <c r="A22" s="27">
         <v>18</v>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="28" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="25" t="str">
+      <c r="C22" s="29" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="25" t="str">
+      <c r="D22" s="30" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="26" t="str">
+      <c r="E22" s="31" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="27" t="str">
+      <c r="F22" s="32" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="31" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="29" t="str">
+      <c r="H22" s="32" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="32" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="25" t="str">
+      <c r="J22" s="43" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="38" t="str">
+      <c r="K22" s="43" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="24" t="str">
+      <c r="L22" s="32" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="27" t="str">
+      <c r="M22" s="32" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="25" t="str">
+      <c r="N22" s="43" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="25" t="str">
-        <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
-        <v/>
-      </c>
-      <c r="P22" s="26" t="str">
+      <c r="O22" s="32" t="str">
+        <f>IF(_tag_month_all!N19="","",_tag_month_all!N19*100)</f>
+        <v/>
+      </c>
+      <c r="P22" s="32" t="str">
+        <f>IF(_tag_month_all!AL19="","",_tag_month_all!AL19)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="31" t="str">
+        <f>IF(_tag_month_all!AM19="","",_tag_month_all!AM19)</f>
+        <v/>
+      </c>
+      <c r="R22" s="31" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="26" t="str">
+      <c r="S22" s="31" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="T22" s="31" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="26" t="str">
+      <c r="U22" s="31" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="24" t="str">
+      <c r="V22" s="31" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="25" t="str">
+      <c r="W22" s="31" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="25" t="str">
+      <c r="X22" s="32" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="26" t="str">
+      <c r="Y22" s="32" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="25" t="str">
+      <c r="Z22" s="32" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="25" t="str">
+      <c r="AA22" s="32" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="25" t="str">
+      <c r="AB22" s="43" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="25" t="str">
+      <c r="AC22" s="31" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="25" t="str">
+      <c r="AD22" s="31" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="25" t="str">
+      <c r="AE22" s="32" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="25" t="str">
+      <c r="AF22" s="31" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="26" t="str">
+      <c r="AG22" s="31" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="26" t="str">
+      <c r="AH22" s="31" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="25" t="str">
+      <c r="AI22" s="31" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="25" t="str">
+      <c r="AJ22" s="31" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="26" t="str">
-        <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19*100)</f>
-        <v/>
-      </c>
-      <c r="AJ22" s="25" t="str">
+      <c r="AK22" s="32" t="str">
+        <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
+        <v/>
+      </c>
+      <c r="AL22" s="32" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AK22" s="26" t="str">
+      <c r="AM22" s="32" t="str">
         <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AL22" s="26" t="str">
+      <c r="AN22" s="32" t="str">
         <f>IF(_tag_month_all!AK19="","",_tag_month_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="18">
+    <row r="23" spans="1:40">
+      <c r="A23" s="27">
         <v>19</v>
       </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="28" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="25" t="str">
+      <c r="C23" s="29" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="30" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="26" t="str">
+      <c r="E23" s="31" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="27" t="str">
+      <c r="F23" s="32" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="31" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="29" t="str">
+      <c r="H23" s="32" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="25" t="str">
+      <c r="I23" s="32" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="25" t="str">
+      <c r="J23" s="43" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="38" t="str">
+      <c r="K23" s="43" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="24" t="str">
+      <c r="L23" s="32" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="27" t="str">
+      <c r="M23" s="32" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="25" t="str">
+      <c r="N23" s="43" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="25" t="str">
-        <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
-        <v/>
-      </c>
-      <c r="P23" s="26" t="str">
+      <c r="O23" s="32" t="str">
+        <f>IF(_tag_month_all!N20="","",_tag_month_all!N20*100)</f>
+        <v/>
+      </c>
+      <c r="P23" s="32" t="str">
+        <f>IF(_tag_month_all!AL20="","",_tag_month_all!AL20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="31" t="str">
+        <f>IF(_tag_month_all!AM20="","",_tag_month_all!AM20)</f>
+        <v/>
+      </c>
+      <c r="R23" s="31" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="26" t="str">
+      <c r="S23" s="31" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="21" t="str">
+      <c r="T23" s="31" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="U23" s="31" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="24" t="str">
+      <c r="V23" s="31" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="25" t="str">
+      <c r="W23" s="31" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="25" t="str">
+      <c r="X23" s="32" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="26" t="str">
+      <c r="Y23" s="32" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="25" t="str">
+      <c r="Z23" s="32" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="25" t="str">
+      <c r="AA23" s="32" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="25" t="str">
+      <c r="AB23" s="43" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="25" t="str">
+      <c r="AC23" s="31" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="25" t="str">
+      <c r="AD23" s="31" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="25" t="str">
+      <c r="AE23" s="32" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="25" t="str">
+      <c r="AF23" s="31" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="26" t="str">
+      <c r="AG23" s="31" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="26" t="str">
+      <c r="AH23" s="31" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="25" t="str">
+      <c r="AI23" s="31" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="25" t="str">
+      <c r="AJ23" s="31" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="26" t="str">
-        <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20*100)</f>
-        <v/>
-      </c>
-      <c r="AJ23" s="25" t="str">
+      <c r="AK23" s="32" t="str">
+        <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
+        <v/>
+      </c>
+      <c r="AL23" s="32" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AK23" s="26" t="str">
+      <c r="AM23" s="32" t="str">
         <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AL23" s="26" t="str">
+      <c r="AN23" s="32" t="str">
         <f>IF(_tag_month_all!AK20="","",_tag_month_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="18">
+    <row r="24" spans="1:40">
+      <c r="A24" s="27">
         <v>20</v>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="28" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="25" t="str">
+      <c r="C24" s="29" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="30" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="26" t="str">
+      <c r="E24" s="31" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="32" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="31" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="29" t="str">
+      <c r="H24" s="32" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="25" t="str">
+      <c r="I24" s="32" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="25" t="str">
+      <c r="J24" s="43" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="38" t="str">
+      <c r="K24" s="43" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="24" t="str">
+      <c r="L24" s="32" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="27" t="str">
+      <c r="M24" s="32" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="25" t="str">
+      <c r="N24" s="43" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="25" t="str">
-        <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
-        <v/>
-      </c>
-      <c r="P24" s="26" t="str">
+      <c r="O24" s="32" t="str">
+        <f>IF(_tag_month_all!N21="","",_tag_month_all!N21*100)</f>
+        <v/>
+      </c>
+      <c r="P24" s="32" t="str">
+        <f>IF(_tag_month_all!AL21="","",_tag_month_all!AL21)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="31" t="str">
+        <f>IF(_tag_month_all!AM21="","",_tag_month_all!AM21)</f>
+        <v/>
+      </c>
+      <c r="R24" s="31" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="26" t="str">
+      <c r="S24" s="31" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="T24" s="31" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="26" t="str">
+      <c r="U24" s="31" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="24" t="str">
+      <c r="V24" s="31" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="25" t="str">
+      <c r="W24" s="31" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="25" t="str">
+      <c r="X24" s="32" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="26" t="str">
+      <c r="Y24" s="32" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="25" t="str">
+      <c r="Z24" s="32" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="25" t="str">
+      <c r="AA24" s="32" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="25" t="str">
+      <c r="AB24" s="43" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="25" t="str">
+      <c r="AC24" s="31" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="25" t="str">
+      <c r="AD24" s="31" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="25" t="str">
+      <c r="AE24" s="32" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="25" t="str">
+      <c r="AF24" s="31" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="26" t="str">
+      <c r="AG24" s="31" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="26" t="str">
+      <c r="AH24" s="31" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="25" t="str">
+      <c r="AI24" s="31" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="25" t="str">
+      <c r="AJ24" s="31" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="26" t="str">
-        <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21*100)</f>
-        <v/>
-      </c>
-      <c r="AJ24" s="25" t="str">
+      <c r="AK24" s="32" t="str">
+        <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
+        <v/>
+      </c>
+      <c r="AL24" s="32" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AK24" s="26" t="str">
+      <c r="AM24" s="32" t="str">
         <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AL24" s="26" t="str">
+      <c r="AN24" s="32" t="str">
         <f>IF(_tag_month_all!AK21="","",_tag_month_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="18">
+    <row r="25" spans="1:40">
+      <c r="A25" s="27">
         <v>21</v>
       </c>
-      <c r="B25" s="24" t="str">
+      <c r="B25" s="28" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="25" t="str">
+      <c r="C25" s="29" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="30" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="26" t="str">
+      <c r="E25" s="31" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="27" t="str">
+      <c r="F25" s="32" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="31" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="29" t="str">
+      <c r="H25" s="32" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="25" t="str">
+      <c r="I25" s="32" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="25" t="str">
+      <c r="J25" s="43" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="38" t="str">
+      <c r="K25" s="43" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="24" t="str">
+      <c r="L25" s="32" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="32" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="25" t="str">
+      <c r="N25" s="43" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="25" t="str">
-        <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
-        <v/>
-      </c>
-      <c r="P25" s="26" t="str">
+      <c r="O25" s="32" t="str">
+        <f>IF(_tag_month_all!N22="","",_tag_month_all!N22*100)</f>
+        <v/>
+      </c>
+      <c r="P25" s="32" t="str">
+        <f>IF(_tag_month_all!AL22="","",_tag_month_all!AL22)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="31" t="str">
+        <f>IF(_tag_month_all!AM22="","",_tag_month_all!AM22)</f>
+        <v/>
+      </c>
+      <c r="R25" s="31" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="26" t="str">
+      <c r="S25" s="31" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="21" t="str">
+      <c r="T25" s="31" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="26" t="str">
+      <c r="U25" s="31" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="24" t="str">
+      <c r="V25" s="31" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="25" t="str">
+      <c r="W25" s="31" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="25" t="str">
+      <c r="X25" s="32" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="26" t="str">
+      <c r="Y25" s="32" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="25" t="str">
+      <c r="Z25" s="32" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="25" t="str">
+      <c r="AA25" s="32" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="25" t="str">
+      <c r="AB25" s="43" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="25" t="str">
+      <c r="AC25" s="31" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="25" t="str">
+      <c r="AD25" s="31" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="25" t="str">
+      <c r="AE25" s="32" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="25" t="str">
+      <c r="AF25" s="31" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="26" t="str">
+      <c r="AG25" s="31" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="26" t="str">
+      <c r="AH25" s="31" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="25" t="str">
+      <c r="AI25" s="31" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="25" t="str">
+      <c r="AJ25" s="31" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="26" t="str">
-        <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22*100)</f>
-        <v/>
-      </c>
-      <c r="AJ25" s="25" t="str">
+      <c r="AK25" s="32" t="str">
+        <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
+        <v/>
+      </c>
+      <c r="AL25" s="32" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AK25" s="26" t="str">
+      <c r="AM25" s="32" t="str">
         <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AL25" s="26" t="str">
+      <c r="AN25" s="32" t="str">
         <f>IF(_tag_month_all!AK22="","",_tag_month_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="18">
+    <row r="26" spans="1:40">
+      <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="24" t="str">
+      <c r="B26" s="28" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="25" t="str">
+      <c r="C26" s="29" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="30" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="26" t="str">
+      <c r="E26" s="31" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="27" t="str">
+      <c r="F26" s="32" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="31" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="29" t="str">
+      <c r="H26" s="32" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="32" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="25" t="str">
+      <c r="J26" s="43" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="38" t="str">
+      <c r="K26" s="43" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="24" t="str">
+      <c r="L26" s="32" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="27" t="str">
+      <c r="M26" s="32" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="25" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="25" t="str">
-        <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
-        <v/>
-      </c>
-      <c r="P26" s="26" t="str">
+      <c r="O26" s="32" t="str">
+        <f>IF(_tag_month_all!N23="","",_tag_month_all!N23*100)</f>
+        <v/>
+      </c>
+      <c r="P26" s="32" t="str">
+        <f>IF(_tag_month_all!AL23="","",_tag_month_all!AL23)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="31" t="str">
+        <f>IF(_tag_month_all!AM23="","",_tag_month_all!AM23)</f>
+        <v/>
+      </c>
+      <c r="R26" s="31" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="26" t="str">
+      <c r="S26" s="31" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="21" t="str">
+      <c r="T26" s="31" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="26" t="str">
+      <c r="U26" s="31" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="24" t="str">
+      <c r="V26" s="31" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="25" t="str">
+      <c r="W26" s="31" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="25" t="str">
+      <c r="X26" s="32" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="26" t="str">
+      <c r="Y26" s="32" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="25" t="str">
+      <c r="Z26" s="32" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="25" t="str">
+      <c r="AA26" s="32" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="25" t="str">
+      <c r="AB26" s="43" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="25" t="str">
+      <c r="AC26" s="31" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="25" t="str">
+      <c r="AD26" s="31" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="25" t="str">
+      <c r="AE26" s="32" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="25" t="str">
+      <c r="AF26" s="31" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="26" t="str">
+      <c r="AG26" s="31" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="26" t="str">
+      <c r="AH26" s="31" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="25" t="str">
+      <c r="AI26" s="31" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="25" t="str">
+      <c r="AJ26" s="31" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="26" t="str">
-        <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23*100)</f>
-        <v/>
-      </c>
-      <c r="AJ26" s="25" t="str">
+      <c r="AK26" s="32" t="str">
+        <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
+        <v/>
+      </c>
+      <c r="AL26" s="32" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AK26" s="26" t="str">
+      <c r="AM26" s="32" t="str">
         <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AL26" s="26" t="str">
+      <c r="AN26" s="32" t="str">
         <f>IF(_tag_month_all!AK23="","",_tag_month_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="18">
+    <row r="27" spans="1:40">
+      <c r="A27" s="27">
         <v>23</v>
       </c>
-      <c r="B27" s="24" t="str">
+      <c r="B27" s="28" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="25" t="str">
+      <c r="C27" s="29" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="30" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="26" t="str">
+      <c r="E27" s="31" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="27" t="str">
+      <c r="F27" s="32" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="31" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="29" t="str">
+      <c r="H27" s="32" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="32" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="25" t="str">
+      <c r="J27" s="43" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="38" t="str">
+      <c r="K27" s="43" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="24" t="str">
+      <c r="L27" s="32" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="27" t="str">
+      <c r="M27" s="32" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="25" t="str">
+      <c r="N27" s="43" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="25" t="str">
-        <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
-        <v/>
-      </c>
-      <c r="P27" s="26" t="str">
+      <c r="O27" s="32" t="str">
+        <f>IF(_tag_month_all!N24="","",_tag_month_all!N24*100)</f>
+        <v/>
+      </c>
+      <c r="P27" s="32" t="str">
+        <f>IF(_tag_month_all!AL24="","",_tag_month_all!AL24)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="31" t="str">
+        <f>IF(_tag_month_all!AM24="","",_tag_month_all!AM24)</f>
+        <v/>
+      </c>
+      <c r="R27" s="31" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="26" t="str">
+      <c r="S27" s="31" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="21" t="str">
+      <c r="T27" s="31" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="26" t="str">
+      <c r="U27" s="31" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="24" t="str">
+      <c r="V27" s="31" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="25" t="str">
+      <c r="W27" s="31" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="25" t="str">
+      <c r="X27" s="32" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="26" t="str">
+      <c r="Y27" s="32" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="25" t="str">
+      <c r="Z27" s="32" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="25" t="str">
+      <c r="AA27" s="32" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="25" t="str">
+      <c r="AB27" s="43" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="25" t="str">
+      <c r="AC27" s="31" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="25" t="str">
+      <c r="AD27" s="31" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="25" t="str">
+      <c r="AE27" s="32" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="25" t="str">
+      <c r="AF27" s="31" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="26" t="str">
+      <c r="AG27" s="31" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="26" t="str">
+      <c r="AH27" s="31" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="25" t="str">
+      <c r="AI27" s="31" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="25" t="str">
+      <c r="AJ27" s="31" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="26" t="str">
-        <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24*100)</f>
-        <v/>
-      </c>
-      <c r="AJ27" s="25" t="str">
+      <c r="AK27" s="32" t="str">
+        <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
+        <v/>
+      </c>
+      <c r="AL27" s="32" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AK27" s="26" t="str">
+      <c r="AM27" s="32" t="str">
         <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AL27" s="26" t="str">
+      <c r="AN27" s="32" t="str">
         <f>IF(_tag_month_all!AK24="","",_tag_month_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="18">
+    <row r="28" spans="1:40">
+      <c r="A28" s="27">
         <v>24</v>
       </c>
-      <c r="B28" s="24" t="str">
+      <c r="B28" s="28" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="25" t="str">
+      <c r="C28" s="29" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="30" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="26" t="str">
+      <c r="E28" s="31" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="27" t="str">
+      <c r="F28" s="32" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="31" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="29" t="str">
+      <c r="H28" s="32" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="32" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="25" t="str">
+      <c r="J28" s="43" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="38" t="str">
+      <c r="K28" s="43" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="24" t="str">
+      <c r="L28" s="32" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="27" t="str">
+      <c r="M28" s="32" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="25" t="str">
+      <c r="N28" s="43" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="25" t="str">
-        <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
-        <v/>
-      </c>
-      <c r="P28" s="26" t="str">
+      <c r="O28" s="32" t="str">
+        <f>IF(_tag_month_all!N25="","",_tag_month_all!N25*100)</f>
+        <v/>
+      </c>
+      <c r="P28" s="32" t="str">
+        <f>IF(_tag_month_all!AL25="","",_tag_month_all!AL25)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="31" t="str">
+        <f>IF(_tag_month_all!AM25="","",_tag_month_all!AM25)</f>
+        <v/>
+      </c>
+      <c r="R28" s="31" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="26" t="str">
+      <c r="S28" s="31" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="21" t="str">
+      <c r="T28" s="31" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="26" t="str">
+      <c r="U28" s="31" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="24" t="str">
+      <c r="V28" s="31" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="25" t="str">
+      <c r="W28" s="31" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="25" t="str">
+      <c r="X28" s="32" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="26" t="str">
+      <c r="Y28" s="32" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="25" t="str">
+      <c r="Z28" s="32" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="25" t="str">
+      <c r="AA28" s="32" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="25" t="str">
+      <c r="AB28" s="43" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="25" t="str">
+      <c r="AC28" s="31" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="25" t="str">
+      <c r="AD28" s="31" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="25" t="str">
+      <c r="AE28" s="32" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="25" t="str">
+      <c r="AF28" s="31" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="26" t="str">
+      <c r="AG28" s="31" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="26" t="str">
+      <c r="AH28" s="31" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="25" t="str">
+      <c r="AI28" s="31" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="25" t="str">
+      <c r="AJ28" s="31" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="26" t="str">
-        <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25*100)</f>
-        <v/>
-      </c>
-      <c r="AJ28" s="25" t="str">
+      <c r="AK28" s="32" t="str">
+        <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
+        <v/>
+      </c>
+      <c r="AL28" s="32" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AK28" s="26" t="str">
+      <c r="AM28" s="32" t="str">
         <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AL28" s="26" t="str">
+      <c r="AN28" s="32" t="str">
         <f>IF(_tag_month_all!AK25="","",_tag_month_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="18">
+    <row r="29" s="1" customFormat="1" spans="1:40">
+      <c r="A29" s="27">
         <v>25</v>
       </c>
-      <c r="B29" s="24" t="str">
+      <c r="B29" s="28" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="25" t="str">
+      <c r="C29" s="29" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="25" t="str">
+      <c r="D29" s="30" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="26" t="str">
+      <c r="E29" s="31" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="27" t="str">
+      <c r="F29" s="32" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="31" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="29" t="str">
+      <c r="H29" s="32" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="32" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="25" t="str">
+      <c r="J29" s="43" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="38" t="str">
+      <c r="K29" s="43" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="24" t="str">
+      <c r="L29" s="32" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="27" t="str">
+      <c r="M29" s="32" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="25" t="str">
+      <c r="N29" s="43" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="25" t="str">
-        <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
-        <v/>
-      </c>
-      <c r="P29" s="26" t="str">
+      <c r="O29" s="32" t="str">
+        <f>IF(_tag_month_all!N26="","",_tag_month_all!N26*100)</f>
+        <v/>
+      </c>
+      <c r="P29" s="32" t="str">
+        <f>IF(_tag_month_all!AL26="","",_tag_month_all!AL26)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="31" t="str">
+        <f>IF(_tag_month_all!AM26="","",_tag_month_all!AM26)</f>
+        <v/>
+      </c>
+      <c r="R29" s="31" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="26" t="str">
+      <c r="S29" s="31" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="21" t="str">
+      <c r="T29" s="31" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="26" t="str">
+      <c r="U29" s="31" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="24" t="str">
+      <c r="V29" s="31" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="25" t="str">
+      <c r="W29" s="31" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="25" t="str">
+      <c r="X29" s="32" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="26" t="str">
+      <c r="Y29" s="32" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="25" t="str">
+      <c r="Z29" s="32" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="25" t="str">
+      <c r="AA29" s="32" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="25" t="str">
+      <c r="AB29" s="43" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="25" t="str">
+      <c r="AC29" s="31" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="25" t="str">
+      <c r="AD29" s="31" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="25" t="str">
+      <c r="AE29" s="32" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="25" t="str">
+      <c r="AF29" s="31" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="26" t="str">
+      <c r="AG29" s="31" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="26" t="str">
+      <c r="AH29" s="31" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="25" t="str">
+      <c r="AI29" s="31" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AH29" s="25" t="str">
+      <c r="AJ29" s="31" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="26" t="str">
-        <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26*100)</f>
-        <v/>
-      </c>
-      <c r="AJ29" s="25" t="str">
+      <c r="AK29" s="32" t="str">
+        <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
+        <v/>
+      </c>
+      <c r="AL29" s="32" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AK29" s="26" t="str">
+      <c r="AM29" s="32" t="str">
         <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
         <v/>
       </c>
-      <c r="AL29" s="26" t="str">
+      <c r="AN29" s="32" t="str">
         <f>IF(_tag_month_all!AK26="","",_tag_month_all!AK26)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="18">
+    <row r="30" s="1" customFormat="1" spans="1:40">
+      <c r="A30" s="27">
         <v>26</v>
       </c>
-      <c r="B30" s="24" t="str">
+      <c r="B30" s="28" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="25" t="str">
+      <c r="C30" s="29" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="25" t="str">
+      <c r="D30" s="30" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="26" t="str">
+      <c r="E30" s="31" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="27" t="str">
+      <c r="F30" s="32" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="31" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="29" t="str">
+      <c r="H30" s="32" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="25" t="str">
+      <c r="I30" s="32" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="25" t="str">
+      <c r="J30" s="43" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="38" t="str">
+      <c r="K30" s="43" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="24" t="str">
+      <c r="L30" s="32" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="27" t="str">
+      <c r="M30" s="32" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="25" t="str">
+      <c r="N30" s="43" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="25" t="str">
-        <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
-        <v/>
-      </c>
-      <c r="P30" s="26" t="str">
+      <c r="O30" s="32" t="str">
+        <f>IF(_tag_month_all!N27="","",_tag_month_all!N27*100)</f>
+        <v/>
+      </c>
+      <c r="P30" s="32" t="str">
+        <f>IF(_tag_month_all!AL27="","",_tag_month_all!AL27)</f>
+        <v/>
+      </c>
+      <c r="Q30" s="31" t="str">
+        <f>IF(_tag_month_all!AM27="","",_tag_month_all!AM27)</f>
+        <v/>
+      </c>
+      <c r="R30" s="31" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="26" t="str">
+      <c r="S30" s="31" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="21" t="str">
+      <c r="T30" s="31" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="26" t="str">
+      <c r="U30" s="31" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="24" t="str">
+      <c r="V30" s="31" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="25" t="str">
+      <c r="W30" s="31" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="25" t="str">
+      <c r="X30" s="32" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="26" t="str">
+      <c r="Y30" s="32" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="25" t="str">
+      <c r="Z30" s="32" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="25" t="str">
+      <c r="AA30" s="32" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="25" t="str">
+      <c r="AB30" s="43" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="25" t="str">
+      <c r="AC30" s="31" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="25" t="str">
+      <c r="AD30" s="31" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="25" t="str">
+      <c r="AE30" s="32" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="25" t="str">
+      <c r="AF30" s="31" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="26" t="str">
+      <c r="AG30" s="31" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="26" t="str">
+      <c r="AH30" s="31" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="25" t="str">
+      <c r="AI30" s="31" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AH30" s="25" t="str">
+      <c r="AJ30" s="31" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="26" t="str">
-        <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27*100)</f>
-        <v/>
-      </c>
-      <c r="AJ30" s="25" t="str">
+      <c r="AK30" s="32" t="str">
+        <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
+        <v/>
+      </c>
+      <c r="AL30" s="32" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AK30" s="26" t="str">
+      <c r="AM30" s="32" t="str">
         <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
         <v/>
       </c>
-      <c r="AL30" s="26" t="str">
+      <c r="AN30" s="32" t="str">
         <f>IF(_tag_month_all!AK27="","",_tag_month_all!AK27)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38">
-      <c r="A31" s="18">
+    <row r="31" s="1" customFormat="1" spans="1:40">
+      <c r="A31" s="27">
         <v>27</v>
       </c>
-      <c r="B31" s="24" t="str">
+      <c r="B31" s="28" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="25" t="str">
+      <c r="C31" s="29" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="25" t="str">
+      <c r="D31" s="30" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="26" t="str">
+      <c r="E31" s="31" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="27" t="str">
+      <c r="F31" s="32" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="28" t="str">
+      <c r="G31" s="31" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="29" t="str">
+      <c r="H31" s="32" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="25" t="str">
+      <c r="I31" s="32" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="25" t="str">
+      <c r="J31" s="43" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="38" t="str">
+      <c r="K31" s="43" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="24" t="str">
+      <c r="L31" s="32" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="27" t="str">
+      <c r="M31" s="32" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="25" t="str">
+      <c r="N31" s="43" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="25" t="str">
-        <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
-        <v/>
-      </c>
-      <c r="P31" s="26" t="str">
+      <c r="O31" s="32" t="str">
+        <f>IF(_tag_month_all!N28="","",_tag_month_all!N28*100)</f>
+        <v/>
+      </c>
+      <c r="P31" s="32" t="str">
+        <f>IF(_tag_month_all!AL28="","",_tag_month_all!AL28)</f>
+        <v/>
+      </c>
+      <c r="Q31" s="31" t="str">
+        <f>IF(_tag_month_all!AM28="","",_tag_month_all!AM28)</f>
+        <v/>
+      </c>
+      <c r="R31" s="31" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="26" t="str">
+      <c r="S31" s="31" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="21" t="str">
+      <c r="T31" s="31" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="26" t="str">
+      <c r="U31" s="31" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="24" t="str">
+      <c r="V31" s="31" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="25" t="str">
+      <c r="W31" s="31" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="25" t="str">
+      <c r="X31" s="32" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="26" t="str">
+      <c r="Y31" s="32" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="25" t="str">
+      <c r="Z31" s="32" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="25" t="str">
+      <c r="AA31" s="32" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="25" t="str">
+      <c r="AB31" s="43" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="25" t="str">
+      <c r="AC31" s="31" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="25" t="str">
+      <c r="AD31" s="31" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="25" t="str">
+      <c r="AE31" s="32" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="25" t="str">
+      <c r="AF31" s="31" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="26" t="str">
+      <c r="AG31" s="31" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="26" t="str">
+      <c r="AH31" s="31" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="25" t="str">
+      <c r="AI31" s="31" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AH31" s="25" t="str">
+      <c r="AJ31" s="31" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="26" t="str">
-        <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28*100)</f>
-        <v/>
-      </c>
-      <c r="AJ31" s="25" t="str">
+      <c r="AK31" s="32" t="str">
+        <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
+        <v/>
+      </c>
+      <c r="AL31" s="32" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AK31" s="26" t="str">
+      <c r="AM31" s="32" t="str">
         <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
         <v/>
       </c>
-      <c r="AL31" s="26" t="str">
+      <c r="AN31" s="32" t="str">
         <f>IF(_tag_month_all!AK28="","",_tag_month_all!AK28)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38">
-      <c r="A32" s="18">
+    <row r="32" s="1" customFormat="1" spans="1:40">
+      <c r="A32" s="27">
         <v>28</v>
       </c>
-      <c r="B32" s="24" t="str">
+      <c r="B32" s="28" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="25" t="str">
+      <c r="C32" s="29" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="25" t="str">
+      <c r="D32" s="30" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="31" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="27" t="str">
+      <c r="F32" s="32" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="31" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="29" t="str">
+      <c r="H32" s="32" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="25" t="str">
+      <c r="I32" s="32" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="25" t="str">
+      <c r="J32" s="43" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="38" t="str">
+      <c r="K32" s="43" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="24" t="str">
+      <c r="L32" s="32" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="27" t="str">
+      <c r="M32" s="32" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="25" t="str">
+      <c r="N32" s="43" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="25" t="str">
-        <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
-        <v/>
-      </c>
-      <c r="P32" s="26" t="str">
+      <c r="O32" s="32" t="str">
+        <f>IF(_tag_month_all!N29="","",_tag_month_all!N29*100)</f>
+        <v/>
+      </c>
+      <c r="P32" s="32" t="str">
+        <f>IF(_tag_month_all!AL29="","",_tag_month_all!AL29)</f>
+        <v/>
+      </c>
+      <c r="Q32" s="31" t="str">
+        <f>IF(_tag_month_all!AM29="","",_tag_month_all!AM29)</f>
+        <v/>
+      </c>
+      <c r="R32" s="31" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="26" t="str">
+      <c r="S32" s="31" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="21" t="str">
+      <c r="T32" s="31" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="26" t="str">
+      <c r="U32" s="31" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="24" t="str">
+      <c r="V32" s="31" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="25" t="str">
+      <c r="W32" s="31" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="25" t="str">
+      <c r="X32" s="32" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="26" t="str">
+      <c r="Y32" s="32" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="25" t="str">
+      <c r="Z32" s="32" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="25" t="str">
+      <c r="AA32" s="32" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="25" t="str">
+      <c r="AB32" s="43" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="25" t="str">
+      <c r="AC32" s="31" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="25" t="str">
+      <c r="AD32" s="31" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="25" t="str">
+      <c r="AE32" s="32" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="25" t="str">
+      <c r="AF32" s="31" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="26" t="str">
+      <c r="AG32" s="31" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="26" t="str">
+      <c r="AH32" s="31" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="25" t="str">
+      <c r="AI32" s="31" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AH32" s="25" t="str">
+      <c r="AJ32" s="31" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="26" t="str">
-        <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29*100)</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="25" t="str">
+      <c r="AK32" s="32" t="str">
+        <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
+        <v/>
+      </c>
+      <c r="AL32" s="32" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AK32" s="26" t="str">
+      <c r="AM32" s="32" t="str">
         <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
         <v/>
       </c>
-      <c r="AL32" s="26" t="str">
+      <c r="AN32" s="32" t="str">
         <f>IF(_tag_month_all!AK29="","",_tag_month_all!AK29)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="18">
+    <row r="33" s="1" customFormat="1" spans="1:40">
+      <c r="A33" s="27">
         <v>29</v>
       </c>
-      <c r="B33" s="24" t="str">
+      <c r="B33" s="28" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="25" t="str">
+      <c r="C33" s="29" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="25" t="str">
+      <c r="D33" s="30" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="26" t="str">
+      <c r="E33" s="31" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="27" t="str">
+      <c r="F33" s="32" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="28" t="str">
+      <c r="G33" s="31" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="29" t="str">
+      <c r="H33" s="32" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="25" t="str">
+      <c r="I33" s="32" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="25" t="str">
+      <c r="J33" s="43" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="38" t="str">
+      <c r="K33" s="43" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="24" t="str">
+      <c r="L33" s="32" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="27" t="str">
+      <c r="M33" s="32" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="25" t="str">
+      <c r="N33" s="43" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="25" t="str">
-        <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
-        <v/>
-      </c>
-      <c r="P33" s="26" t="str">
+      <c r="O33" s="32" t="str">
+        <f>IF(_tag_month_all!N30="","",_tag_month_all!N30*100)</f>
+        <v/>
+      </c>
+      <c r="P33" s="32" t="str">
+        <f>IF(_tag_month_all!AL30="","",_tag_month_all!AL30)</f>
+        <v/>
+      </c>
+      <c r="Q33" s="31" t="str">
+        <f>IF(_tag_month_all!AM30="","",_tag_month_all!AM30)</f>
+        <v/>
+      </c>
+      <c r="R33" s="31" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="26" t="str">
+      <c r="S33" s="31" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="21" t="str">
+      <c r="T33" s="31" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="26" t="str">
+      <c r="U33" s="31" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="24" t="str">
+      <c r="V33" s="31" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="25" t="str">
+      <c r="W33" s="31" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="25" t="str">
+      <c r="X33" s="32" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="26" t="str">
+      <c r="Y33" s="32" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="25" t="str">
+      <c r="Z33" s="32" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="25" t="str">
+      <c r="AA33" s="32" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="25" t="str">
+      <c r="AB33" s="43" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="25" t="str">
+      <c r="AC33" s="31" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="25" t="str">
+      <c r="AD33" s="31" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="25" t="str">
+      <c r="AE33" s="32" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="25" t="str">
+      <c r="AF33" s="31" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="26" t="str">
+      <c r="AG33" s="31" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="26" t="str">
+      <c r="AH33" s="31" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="25" t="str">
+      <c r="AI33" s="31" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AH33" s="25" t="str">
+      <c r="AJ33" s="31" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="26" t="str">
-        <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30*100)</f>
-        <v/>
-      </c>
-      <c r="AJ33" s="25" t="str">
+      <c r="AK33" s="32" t="str">
+        <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
+        <v/>
+      </c>
+      <c r="AL33" s="32" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AK33" s="26" t="str">
+      <c r="AM33" s="32" t="str">
         <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
         <v/>
       </c>
-      <c r="AL33" s="26" t="str">
+      <c r="AN33" s="32" t="str">
         <f>IF(_tag_month_all!AK30="","",_tag_month_all!AK30)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38">
-      <c r="A34" s="18">
+    <row r="34" s="1" customFormat="1" spans="1:40">
+      <c r="A34" s="27">
         <v>30</v>
       </c>
-      <c r="B34" s="24" t="str">
+      <c r="B34" s="28" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="25" t="str">
+      <c r="C34" s="29" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="25" t="str">
+      <c r="D34" s="30" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="26" t="str">
+      <c r="E34" s="31" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="27" t="str">
+      <c r="F34" s="32" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="28" t="str">
+      <c r="G34" s="31" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="29" t="str">
+      <c r="H34" s="32" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="25" t="str">
+      <c r="I34" s="32" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="25" t="str">
+      <c r="J34" s="43" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="38" t="str">
+      <c r="K34" s="43" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="24" t="str">
+      <c r="L34" s="32" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="27" t="str">
+      <c r="M34" s="32" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="25" t="str">
+      <c r="N34" s="43" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="25" t="str">
-        <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
-        <v/>
-      </c>
-      <c r="P34" s="26" t="str">
+      <c r="O34" s="32" t="str">
+        <f>IF(_tag_month_all!N31="","",_tag_month_all!N31*100)</f>
+        <v/>
+      </c>
+      <c r="P34" s="32" t="str">
+        <f>IF(_tag_month_all!AL31="","",_tag_month_all!AL31)</f>
+        <v/>
+      </c>
+      <c r="Q34" s="31" t="str">
+        <f>IF(_tag_month_all!AM31="","",_tag_month_all!AM31)</f>
+        <v/>
+      </c>
+      <c r="R34" s="31" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="26" t="str">
+      <c r="S34" s="31" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="21" t="str">
+      <c r="T34" s="31" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="26" t="str">
+      <c r="U34" s="31" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="24" t="str">
+      <c r="V34" s="31" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="25" t="str">
+      <c r="W34" s="31" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="25" t="str">
+      <c r="X34" s="32" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="26" t="str">
+      <c r="Y34" s="32" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="25" t="str">
+      <c r="Z34" s="32" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="25" t="str">
+      <c r="AA34" s="32" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="25" t="str">
+      <c r="AB34" s="43" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="25" t="str">
+      <c r="AC34" s="31" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="25" t="str">
+      <c r="AD34" s="31" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="25" t="str">
+      <c r="AE34" s="32" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="25" t="str">
+      <c r="AF34" s="31" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="26" t="str">
+      <c r="AG34" s="31" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="26" t="str">
+      <c r="AH34" s="31" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="25" t="str">
+      <c r="AI34" s="31" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AH34" s="25" t="str">
+      <c r="AJ34" s="31" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="26" t="str">
-        <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31*100)</f>
-        <v/>
-      </c>
-      <c r="AJ34" s="25" t="str">
+      <c r="AK34" s="32" t="str">
+        <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
+        <v/>
+      </c>
+      <c r="AL34" s="32" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AK34" s="26" t="str">
+      <c r="AM34" s="32" t="str">
         <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
         <v/>
       </c>
-      <c r="AL34" s="26" t="str">
+      <c r="AN34" s="32" t="str">
         <f>IF(_tag_month_all!AK31="","",_tag_month_all!AK31)</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:38">
-      <c r="A35" s="18">
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:40">
+      <c r="A35" s="27">
         <v>31</v>
       </c>
-      <c r="B35" s="24" t="str">
+      <c r="B35" s="28" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="25" t="str">
+      <c r="C35" s="29" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="25" t="str">
+      <c r="D35" s="30" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="26" t="str">
+      <c r="E35" s="31" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="30" t="str">
+      <c r="F35" s="32" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="31" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="31" t="str">
+      <c r="H35" s="32" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="25" t="str">
+      <c r="I35" s="32" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="25" t="str">
+      <c r="J35" s="43" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="39" t="str">
+      <c r="K35" s="43" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="24" t="str">
+      <c r="L35" s="32" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="30" t="str">
+      <c r="M35" s="32" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="25" t="str">
+      <c r="N35" s="43" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="25" t="str">
-        <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
-        <v/>
-      </c>
-      <c r="P35" s="26" t="str">
+      <c r="O35" s="32" t="str">
+        <f>IF(_tag_month_all!N32="","",_tag_month_all!N32*100)</f>
+        <v/>
+      </c>
+      <c r="P35" s="32" t="str">
+        <f>IF(_tag_month_all!AL32="","",_tag_month_all!AL32)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="31" t="str">
+        <f>IF(_tag_month_all!AM32="","",_tag_month_all!AM32)</f>
+        <v/>
+      </c>
+      <c r="R35" s="31" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="26" t="str">
+      <c r="S35" s="31" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="21" t="str">
+      <c r="T35" s="31" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="26" t="str">
+      <c r="U35" s="31" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="24" t="str">
+      <c r="V35" s="31" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="25" t="str">
+      <c r="W35" s="31" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="25" t="str">
+      <c r="X35" s="32" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="26" t="str">
+      <c r="Y35" s="32" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="25" t="str">
+      <c r="Z35" s="32" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="25" t="str">
+      <c r="AA35" s="32" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="25" t="str">
+      <c r="AB35" s="43" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="25" t="str">
+      <c r="AC35" s="31" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="25" t="str">
+      <c r="AD35" s="31" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="25" t="str">
+      <c r="AE35" s="32" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="25" t="str">
+      <c r="AF35" s="31" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="26" t="str">
+      <c r="AG35" s="31" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="26" t="str">
+      <c r="AH35" s="31" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="25" t="str">
+      <c r="AI35" s="31" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AH35" s="25" t="str">
+      <c r="AJ35" s="31" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="26" t="str">
-        <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32*100)</f>
-        <v/>
-      </c>
-      <c r="AJ35" s="25" t="str">
+      <c r="AK35" s="32" t="str">
+        <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
+        <v/>
+      </c>
+      <c r="AL35" s="32" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AK35" s="26" t="str">
+      <c r="AM35" s="32" t="str">
         <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
         <v/>
       </c>
-      <c r="AL35" s="26" t="str">
+      <c r="AN35" s="32" t="str">
         <f>IF(_tag_month_all!AK32="","",_tag_month_all!AK32)</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:38">
-      <c r="A36" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="33" t="str">
-        <f>IF(SUM(B4:B35)=0,"",SUM(B4:B35))</f>
-        <v/>
-      </c>
-      <c r="C36" s="34" t="str">
-        <f t="shared" ref="C36:AA36" si="0">IFERROR(AVERAGE(C4:C35),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="34" t="str">
+    <row r="36" s="14" customFormat="1" spans="1:40">
+      <c r="A36" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="34" t="str">
+        <f t="shared" ref="B36:Q36" si="0">IFERROR(AVERAGE(B5:B35),"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="35" t="str">
+      <c r="D36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="34" t="str">
+      <c r="E36" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="36" t="str">
+      <c r="F36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="36" t="str">
+      <c r="G36" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="34" t="str">
+      <c r="H36" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="34" t="str">
+      <c r="I36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="35" t="str">
+      <c r="J36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="33" t="str">
+      <c r="K36" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="34" t="str">
+      <c r="L36" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="34" t="str">
+      <c r="M36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="34" t="str">
+      <c r="N36" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O36" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6949,105 +7158,115 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="35" t="str">
-        <f t="shared" si="0"/>
+      <c r="R36" s="36" t="str">
+        <f t="shared" ref="R36:AN36" si="1">IFERROR(AVERAGE(R5:R35),"")</f>
         <v/>
       </c>
       <c r="S36" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T36" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U36" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U36" s="36" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V36" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W36" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X36" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y36" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z36" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA36" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB36" s="34" t="str">
-        <f t="shared" ref="AB36" si="1">IFERROR(AVERAGE(AB4:AB35),"")</f>
-        <v/>
-      </c>
-      <c r="AC36" s="34" t="str">
-        <f t="shared" ref="AC36:AL36" si="2">IFERROR(AVERAGE(AC4:AC35),"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD36" s="35" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE36" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF36" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AH36" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH36" s="36" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI36" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AJ36" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="35" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK36" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL36" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AM36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AN36" s="35" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
+    <row r="37" customHeight="1"/>
+    <row r="38" customHeight="1"/>
+    <row r="39" customHeight="1"/>
+    <row r="40" customHeight="1"/>
+    <row r="41" customHeight="1"/>
+    <row r="42" customHeight="1"/>
+    <row r="43" customHeight="1"/>
+    <row r="44" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7061,7 +7280,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7074,129 +7293,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77.4" customHeight="1" spans="1:37">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>78</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7204,24 +7318,140 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="16" max="16" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
+    <row r="1" s="1" customFormat="1" ht="77.4" customHeight="1" spans="1:41">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/7高炉/7高炉参数月报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数月报表.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="_tag_month_all" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="_tag_month_all" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>高炉参数月报</t>
   </si>
@@ -85,6 +85,9 @@
 %</t>
   </si>
   <si>
+    <t>全焦比</t>
+  </si>
+  <si>
     <t>大焦比 kg/t</t>
   </si>
   <si>
@@ -99,7 +102,7 @@
 kg/t</t>
   </si>
   <si>
-    <t>CCT</t>
+    <t>CCT1</t>
   </si>
   <si>
     <t>CCT2</t>
@@ -140,16 +143,16 @@
 m3/min</t>
   </si>
   <si>
-    <t>45°</t>
-  </si>
-  <si>
-    <t>135°</t>
-  </si>
-  <si>
-    <t>225°</t>
-  </si>
-  <si>
-    <t>315°</t>
+    <t>东北</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>东南</t>
   </si>
   <si>
     <t>顶温均值</t>
@@ -335,16 +338,31 @@
     <t>version</t>
   </si>
   <si>
+    <t>BF7_L2C_BD_OxygenFlow1_1d_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2C_BD_GasUtilization_1d_avg</t>
+  </si>
+  <si>
     <t>BF7_L2C_MES_CON_PCI_1d_avg</t>
   </si>
   <si>
     <t>BF7_L2C_MES_CON_FR_1d_avg</t>
   </si>
   <si>
+    <t>BF7_L2M_BoshgasFlowIndex_1d_avg</t>
+  </si>
+  <si>
     <t>BF7_L2M_BX_CokeRate_1d_cur</t>
   </si>
   <si>
     <t>BF7_L2M_BX_NTCokeRate_1d_cur</t>
+  </si>
+  <si>
+    <t>BF7_L2C_MES_CR_1d_avg</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -352,18 +370,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -379,19 +397,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="2"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -426,7 +437,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,144 +499,83 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,205 +589,205 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149876400036622"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0" tint="-0.149876400036622"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -797,109 +801,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,35 +833,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -947,43 +845,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,54 +1018,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,159 +1056,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,140 +1259,125 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1496,73 +1484,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1570,7 +1498,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1593,7 +1521,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1667,24 +1595,13 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1706,11 +1623,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1725,9 +1640,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1739,5514 +1652,5650 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.775" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="9" style="15"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="9" style="15"/>
-    <col min="8" max="9" width="9" style="17"/>
-    <col min="10" max="11" width="9" style="18"/>
-    <col min="12" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="9" style="18"/>
-    <col min="15" max="16" width="9" style="17"/>
-    <col min="17" max="23" width="9" style="15"/>
-    <col min="24" max="27" width="9" style="17"/>
-    <col min="28" max="28" width="9" style="18"/>
-    <col min="29" max="30" width="9" style="15"/>
-    <col min="31" max="31" width="9" style="17"/>
-    <col min="32" max="34" width="9" style="15"/>
-    <col min="35" max="36" width="9" style="15" customWidth="1"/>
-    <col min="37" max="37" width="9.88333333333333" style="17" customWidth="1"/>
-    <col min="38" max="39" width="9" style="17"/>
-    <col min="40" max="40" width="8.66666666666667" style="17" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.775" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12"/>
+    <col min="3" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="9" width="9" style="14"/>
+    <col min="10" max="11" width="9" style="15"/>
+    <col min="12" max="13" width="9" style="14"/>
+    <col min="14" max="14" width="9" style="15"/>
+    <col min="15" max="16" width="9" style="14"/>
+    <col min="17" max="17" width="9" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="19" max="24" width="9" style="12"/>
+    <col min="25" max="28" width="9" style="14"/>
+    <col min="29" max="29" width="9" style="15"/>
+    <col min="30" max="31" width="9" style="12"/>
+    <col min="32" max="32" width="9" style="14"/>
+    <col min="33" max="35" width="9" style="12"/>
+    <col min="36" max="37" width="9" style="12" customWidth="1"/>
+    <col min="38" max="38" width="9.88333333333333" style="14" customWidth="1"/>
+    <col min="39" max="40" width="9" style="14"/>
+    <col min="41" max="41" width="8.66666666666667" style="14" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:38">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="26.25" spans="1:39">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:40">
-      <c r="A2" s="20" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:41">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="55" t="s">
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="54"/>
     </row>
-    <row r="3" ht="36.75" spans="1:40">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+    <row r="3" ht="36.75" spans="1:41">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="52" t="s">
+      <c r="AG3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AH3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="52" t="s">
+      <c r="AI3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="52" t="s">
+      <c r="AJ3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AK3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="25" t="s">
+      <c r="AL3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="25" t="s">
+      <c r="AM3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="25" t="s">
+      <c r="AN3" s="22" t="s">
         <v>42</v>
       </c>
+      <c r="AO3" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="77.4" hidden="1" customHeight="1" spans="1:40">
-      <c r="A4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="77.4" hidden="1" customHeight="1" spans="1:41">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AI4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="AO4" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="27">
+    <row r="5" spans="1:41">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="str">
+      <c r="B5" s="25" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="26" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="27" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="31" t="str">
-        <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
-        <v/>
-      </c>
-      <c r="F5" s="32" t="str">
+      <c r="E5" s="28" t="str">
+        <f>IF(_tag_month_all!D2="","",_tag_month_all!D2*10000)</f>
+        <v/>
+      </c>
+      <c r="F5" s="29" t="str">
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="31" t="str">
+      <c r="G5" s="28" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="32" t="str">
+      <c r="H5" s="29" t="str">
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="32" t="str">
+      <c r="I5" s="29" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="43" t="str">
+      <c r="J5" s="40" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="43" t="str">
+      <c r="K5" s="40" t="str">
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="32" t="str">
+      <c r="L5" s="29" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="29" t="str">
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="43" t="str">
+      <c r="N5" s="40" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="32" t="str">
+      <c r="O5" s="29" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="32" t="str">
+      <c r="P5" s="29" t="str">
+        <f>IF(_tag_month_all!AN2="","",_tag_month_all!AN2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="29" t="str">
         <f>IF(_tag_month_all!AL2="","",_tag_month_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="31" t="str">
+      <c r="R5" s="28" t="str">
         <f>IF(_tag_month_all!AM2="","",_tag_month_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="31" t="str">
+      <c r="S5" s="28" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="31" t="str">
+      <c r="T5" s="28" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="31" t="str">
+      <c r="U5" s="28" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="31" t="str">
+      <c r="V5" s="28" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="31" t="str">
+      <c r="W5" s="28" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="31" t="str">
+      <c r="X5" s="28" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="32" t="str">
+      <c r="Y5" s="29" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="32" t="str">
+      <c r="Z5" s="29" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="32" t="str">
+      <c r="AA5" s="29" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="AA5" s="32" t="str">
+      <c r="AB5" s="29" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="43" t="str">
+      <c r="AC5" s="40" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="31" t="str">
+      <c r="AD5" s="28" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="31" t="str">
+      <c r="AE5" s="28" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="32" t="str">
+      <c r="AF5" s="29" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="31" t="str">
+      <c r="AG5" s="28" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="31" t="str">
+      <c r="AH5" s="28" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="31" t="str">
+      <c r="AI5" s="28" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="31" t="str">
+      <c r="AJ5" s="28" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="31" t="str">
+      <c r="AK5" s="28" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="32" t="str">
+      <c r="AL5" s="29" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="32" t="str">
+      <c r="AM5" s="29" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="32" t="str">
+      <c r="AN5" s="29" t="str">
         <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="32" t="str">
+      <c r="AO5" s="29" t="str">
         <f>IF(_tag_month_all!AK2="","",_tag_month_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="27">
+    <row r="6" spans="1:41">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="str">
+      <c r="B6" s="25" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="26" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="30" t="str">
+      <c r="D6" s="27" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="31" t="str">
-        <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
-        <v/>
-      </c>
-      <c r="F6" s="32" t="str">
+      <c r="E6" s="28" t="str">
+        <f>IF(_tag_month_all!D3="","",_tag_month_all!D3*10000)</f>
+        <v/>
+      </c>
+      <c r="F6" s="29" t="str">
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="31" t="str">
+      <c r="G6" s="28" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="32" t="str">
+      <c r="H6" s="29" t="str">
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="32" t="str">
+      <c r="I6" s="29" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="43" t="str">
+      <c r="J6" s="40" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="43" t="str">
+      <c r="K6" s="40" t="str">
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="32" t="str">
+      <c r="L6" s="29" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="29" t="str">
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="43" t="str">
+      <c r="N6" s="40" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="32" t="str">
+      <c r="O6" s="29" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="32" t="str">
+      <c r="P6" s="29" t="str">
+        <f>IF(_tag_month_all!AN3="","",_tag_month_all!AN3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="29" t="str">
         <f>IF(_tag_month_all!AL3="","",_tag_month_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="R6" s="28" t="str">
         <f>IF(_tag_month_all!AM3="","",_tag_month_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="31" t="str">
+      <c r="S6" s="28" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="31" t="str">
+      <c r="T6" s="28" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="31" t="str">
+      <c r="U6" s="28" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="31" t="str">
+      <c r="V6" s="28" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="31" t="str">
+      <c r="W6" s="28" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="31" t="str">
+      <c r="X6" s="28" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="32" t="str">
+      <c r="Y6" s="29" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="32" t="str">
+      <c r="Z6" s="29" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="32" t="str">
+      <c r="AA6" s="29" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="AA6" s="32" t="str">
+      <c r="AB6" s="29" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="43" t="str">
+      <c r="AC6" s="40" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="31" t="str">
+      <c r="AD6" s="28" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="31" t="str">
+      <c r="AE6" s="28" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="32" t="str">
+      <c r="AF6" s="29" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="31" t="str">
+      <c r="AG6" s="28" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="31" t="str">
+      <c r="AH6" s="28" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="31" t="str">
+      <c r="AI6" s="28" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="31" t="str">
+      <c r="AJ6" s="28" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="31" t="str">
+      <c r="AK6" s="28" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="32" t="str">
+      <c r="AL6" s="29" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="32" t="str">
+      <c r="AM6" s="29" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="32" t="str">
+      <c r="AN6" s="29" t="str">
         <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="32" t="str">
+      <c r="AO6" s="29" t="str">
         <f>IF(_tag_month_all!AK3="","",_tag_month_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="27">
+    <row r="7" spans="1:41">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="str">
+      <c r="B7" s="25" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="26" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="30" t="str">
+      <c r="D7" s="27" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="31" t="str">
-        <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="32" t="str">
+      <c r="E7" s="28" t="str">
+        <f>IF(_tag_month_all!D4="","",_tag_month_all!D4*10000)</f>
+        <v/>
+      </c>
+      <c r="F7" s="29" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="31" t="str">
+      <c r="G7" s="28" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="32" t="str">
+      <c r="H7" s="29" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="32" t="str">
+      <c r="I7" s="29" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="43" t="str">
+      <c r="J7" s="40" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="43" t="str">
+      <c r="K7" s="40" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="32" t="str">
+      <c r="L7" s="29" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="29" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="43" t="str">
+      <c r="N7" s="40" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="32" t="str">
+      <c r="O7" s="29" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="32" t="str">
+      <c r="P7" s="29" t="str">
+        <f>IF(_tag_month_all!AN4="","",_tag_month_all!AN4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="29" t="str">
         <f>IF(_tag_month_all!AL4="","",_tag_month_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="31" t="str">
+      <c r="R7" s="28" t="str">
         <f>IF(_tag_month_all!AM4="","",_tag_month_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="31" t="str">
+      <c r="S7" s="28" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="31" t="str">
+      <c r="T7" s="28" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="31" t="str">
+      <c r="U7" s="28" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="31" t="str">
+      <c r="V7" s="28" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="31" t="str">
+      <c r="W7" s="28" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="31" t="str">
+      <c r="X7" s="28" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="32" t="str">
+      <c r="Y7" s="29" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="32" t="str">
+      <c r="Z7" s="29" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="32" t="str">
+      <c r="AA7" s="29" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="AA7" s="32" t="str">
+      <c r="AB7" s="29" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="43" t="str">
+      <c r="AC7" s="40" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="31" t="str">
+      <c r="AD7" s="28" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="31" t="str">
+      <c r="AE7" s="28" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="32" t="str">
+      <c r="AF7" s="29" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="31" t="str">
+      <c r="AG7" s="28" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="31" t="str">
+      <c r="AH7" s="28" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="31" t="str">
+      <c r="AI7" s="28" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="31" t="str">
+      <c r="AJ7" s="28" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="31" t="str">
+      <c r="AK7" s="28" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="32" t="str">
+      <c r="AL7" s="29" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="32" t="str">
+      <c r="AM7" s="29" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="32" t="str">
+      <c r="AN7" s="29" t="str">
         <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="32" t="str">
+      <c r="AO7" s="29" t="str">
         <f>IF(_tag_month_all!AK4="","",_tag_month_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="27">
+    <row r="8" spans="1:41">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="str">
+      <c r="B8" s="25" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="26" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="27" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="31" t="str">
-        <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
-        <v/>
-      </c>
-      <c r="F8" s="32" t="str">
+      <c r="E8" s="28" t="str">
+        <f>IF(_tag_month_all!D5="","",_tag_month_all!D5*10000)</f>
+        <v/>
+      </c>
+      <c r="F8" s="29" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="31" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="32" t="str">
+      <c r="H8" s="29" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="29" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="43" t="str">
+      <c r="J8" s="40" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="43" t="str">
+      <c r="K8" s="40" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="32" t="str">
+      <c r="L8" s="29" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="32" t="str">
+      <c r="M8" s="29" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="43" t="str">
+      <c r="N8" s="40" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="32" t="str">
+      <c r="O8" s="29" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="29" t="str">
+        <f>IF(_tag_month_all!AN5="","",_tag_month_all!AN5)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="29" t="str">
         <f>IF(_tag_month_all!AL5="","",_tag_month_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="31" t="str">
+      <c r="R8" s="28" t="str">
         <f>IF(_tag_month_all!AM5="","",_tag_month_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="31" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="31" t="str">
+      <c r="T8" s="28" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="31" t="str">
+      <c r="U8" s="28" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="31" t="str">
+      <c r="V8" s="28" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="31" t="str">
+      <c r="W8" s="28" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="31" t="str">
+      <c r="X8" s="28" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="32" t="str">
+      <c r="Y8" s="29" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="32" t="str">
+      <c r="Z8" s="29" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="32" t="str">
+      <c r="AA8" s="29" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="AA8" s="32" t="str">
+      <c r="AB8" s="29" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="43" t="str">
+      <c r="AC8" s="40" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="31" t="str">
+      <c r="AD8" s="28" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="31" t="str">
+      <c r="AE8" s="28" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="32" t="str">
+      <c r="AF8" s="29" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="31" t="str">
+      <c r="AG8" s="28" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="31" t="str">
+      <c r="AH8" s="28" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="31" t="str">
+      <c r="AI8" s="28" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="31" t="str">
+      <c r="AJ8" s="28" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="31" t="str">
+      <c r="AK8" s="28" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="32" t="str">
+      <c r="AL8" s="29" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="32" t="str">
+      <c r="AM8" s="29" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="32" t="str">
+      <c r="AN8" s="29" t="str">
         <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="32" t="str">
+      <c r="AO8" s="29" t="str">
         <f>IF(_tag_month_all!AK5="","",_tag_month_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="27">
+    <row r="9" spans="1:41">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="25" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="26" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="27" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="31" t="str">
-        <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
-        <v/>
-      </c>
-      <c r="F9" s="32" t="str">
+      <c r="E9" s="28" t="str">
+        <f>IF(_tag_month_all!D6="","",_tag_month_all!D6*10000)</f>
+        <v/>
+      </c>
+      <c r="F9" s="29" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="31" t="str">
+      <c r="G9" s="28" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="32" t="str">
+      <c r="H9" s="29" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="29" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="43" t="str">
+      <c r="J9" s="40" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="43" t="str">
+      <c r="K9" s="40" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="32" t="str">
+      <c r="L9" s="29" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="32" t="str">
+      <c r="M9" s="29" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="43" t="str">
+      <c r="N9" s="40" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="32" t="str">
+      <c r="O9" s="29" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="29" t="str">
+        <f>IF(_tag_month_all!AN6="","",_tag_month_all!AN6)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="29" t="str">
         <f>IF(_tag_month_all!AL6="","",_tag_month_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="31" t="str">
+      <c r="R9" s="28" t="str">
         <f>IF(_tag_month_all!AM6="","",_tag_month_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="31" t="str">
+      <c r="S9" s="28" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="31" t="str">
+      <c r="T9" s="28" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="31" t="str">
+      <c r="U9" s="28" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="31" t="str">
+      <c r="V9" s="28" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="31" t="str">
+      <c r="W9" s="28" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="31" t="str">
+      <c r="X9" s="28" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="32" t="str">
+      <c r="Y9" s="29" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="32" t="str">
+      <c r="Z9" s="29" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="32" t="str">
+      <c r="AA9" s="29" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="AA9" s="32" t="str">
+      <c r="AB9" s="29" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="43" t="str">
+      <c r="AC9" s="40" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="31" t="str">
+      <c r="AD9" s="28" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="31" t="str">
+      <c r="AE9" s="28" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="32" t="str">
+      <c r="AF9" s="29" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="31" t="str">
+      <c r="AG9" s="28" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="31" t="str">
+      <c r="AH9" s="28" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="31" t="str">
+      <c r="AI9" s="28" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="31" t="str">
+      <c r="AJ9" s="28" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="31" t="str">
+      <c r="AK9" s="28" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="32" t="str">
+      <c r="AL9" s="29" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="32" t="str">
+      <c r="AM9" s="29" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="32" t="str">
+      <c r="AN9" s="29" t="str">
         <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="32" t="str">
+      <c r="AO9" s="29" t="str">
         <f>IF(_tag_month_all!AK6="","",_tag_month_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="27">
+    <row r="10" spans="1:41">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="str">
+      <c r="B10" s="25" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="26" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="27" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="31" t="str">
-        <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
-        <v/>
-      </c>
-      <c r="F10" s="32" t="str">
+      <c r="E10" s="28" t="str">
+        <f>IF(_tag_month_all!D7="","",_tag_month_all!D7*10000)</f>
+        <v/>
+      </c>
+      <c r="F10" s="29" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="31" t="str">
+      <c r="G10" s="28" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="29" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="29" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J10" s="40" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="43" t="str">
+      <c r="K10" s="40" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="29" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="32" t="str">
+      <c r="M10" s="29" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="43" t="str">
+      <c r="N10" s="40" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="32" t="str">
+      <c r="O10" s="29" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="29" t="str">
+        <f>IF(_tag_month_all!AN7="","",_tag_month_all!AN7)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="29" t="str">
         <f>IF(_tag_month_all!AL7="","",_tag_month_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="31" t="str">
+      <c r="R10" s="28" t="str">
         <f>IF(_tag_month_all!AM7="","",_tag_month_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="31" t="str">
+      <c r="S10" s="28" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="31" t="str">
+      <c r="T10" s="28" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="31" t="str">
+      <c r="U10" s="28" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="31" t="str">
+      <c r="V10" s="28" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="31" t="str">
+      <c r="W10" s="28" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="31" t="str">
+      <c r="X10" s="28" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="32" t="str">
+      <c r="Y10" s="29" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="32" t="str">
+      <c r="Z10" s="29" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="32" t="str">
+      <c r="AA10" s="29" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="AA10" s="32" t="str">
+      <c r="AB10" s="29" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="43" t="str">
+      <c r="AC10" s="40" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="31" t="str">
+      <c r="AD10" s="28" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="31" t="str">
+      <c r="AE10" s="28" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="32" t="str">
+      <c r="AF10" s="29" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="31" t="str">
+      <c r="AG10" s="28" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="31" t="str">
+      <c r="AH10" s="28" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="31" t="str">
+      <c r="AI10" s="28" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="31" t="str">
+      <c r="AJ10" s="28" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="31" t="str">
+      <c r="AK10" s="28" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="32" t="str">
+      <c r="AL10" s="29" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="32" t="str">
+      <c r="AM10" s="29" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="32" t="str">
+      <c r="AN10" s="29" t="str">
         <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="32" t="str">
+      <c r="AO10" s="29" t="str">
         <f>IF(_tag_month_all!AK7="","",_tag_month_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="27">
+    <row r="11" spans="1:41">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="25" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="26" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="27" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="31" t="str">
-        <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
-        <v/>
-      </c>
-      <c r="F11" s="32" t="str">
+      <c r="E11" s="28" t="str">
+        <f>IF(_tag_month_all!D8="","",_tag_month_all!D8*10000)</f>
+        <v/>
+      </c>
+      <c r="F11" s="29" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="31" t="str">
+      <c r="G11" s="28" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="32" t="str">
+      <c r="H11" s="29" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="29" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="40" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="43" t="str">
+      <c r="K11" s="40" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="32" t="str">
+      <c r="L11" s="29" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="32" t="str">
+      <c r="M11" s="29" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="43" t="str">
+      <c r="N11" s="40" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O11" s="29" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="29" t="str">
+        <f>IF(_tag_month_all!AN8="","",_tag_month_all!AN8)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="29" t="str">
         <f>IF(_tag_month_all!AL8="","",_tag_month_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="31" t="str">
+      <c r="R11" s="28" t="str">
         <f>IF(_tag_month_all!AM8="","",_tag_month_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="31" t="str">
+      <c r="S11" s="28" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="31" t="str">
+      <c r="T11" s="28" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="31" t="str">
+      <c r="U11" s="28" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="31" t="str">
+      <c r="V11" s="28" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="31" t="str">
+      <c r="W11" s="28" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="31" t="str">
+      <c r="X11" s="28" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="32" t="str">
+      <c r="Y11" s="29" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="32" t="str">
+      <c r="Z11" s="29" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="32" t="str">
+      <c r="AA11" s="29" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="AA11" s="32" t="str">
+      <c r="AB11" s="29" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="43" t="str">
+      <c r="AC11" s="40" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="31" t="str">
+      <c r="AD11" s="28" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="31" t="str">
+      <c r="AE11" s="28" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="32" t="str">
+      <c r="AF11" s="29" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="31" t="str">
+      <c r="AG11" s="28" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="31" t="str">
+      <c r="AH11" s="28" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="31" t="str">
+      <c r="AI11" s="28" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="31" t="str">
+      <c r="AJ11" s="28" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="31" t="str">
+      <c r="AK11" s="28" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="32" t="str">
+      <c r="AL11" s="29" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="32" t="str">
+      <c r="AM11" s="29" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="32" t="str">
+      <c r="AN11" s="29" t="str">
         <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="32" t="str">
+      <c r="AO11" s="29" t="str">
         <f>IF(_tag_month_all!AK8="","",_tag_month_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="27">
+    <row r="12" spans="1:41">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="28" t="str">
+      <c r="B12" s="25" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="26" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="27" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="31" t="str">
-        <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
-        <v/>
-      </c>
-      <c r="F12" s="32" t="str">
+      <c r="E12" s="28" t="str">
+        <f>IF(_tag_month_all!D9="","",_tag_month_all!D9*10000)</f>
+        <v/>
+      </c>
+      <c r="F12" s="29" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="31" t="str">
+      <c r="G12" s="28" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="32" t="str">
+      <c r="H12" s="29" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="32" t="str">
+      <c r="I12" s="29" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="40" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="43" t="str">
+      <c r="K12" s="40" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="32" t="str">
+      <c r="L12" s="29" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="32" t="str">
+      <c r="M12" s="29" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="43" t="str">
+      <c r="N12" s="40" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="32" t="str">
+      <c r="O12" s="29" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="29" t="str">
+        <f>IF(_tag_month_all!AN9="","",_tag_month_all!AN9)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="29" t="str">
         <f>IF(_tag_month_all!AL9="","",_tag_month_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="31" t="str">
+      <c r="R12" s="28" t="str">
         <f>IF(_tag_month_all!AM9="","",_tag_month_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="31" t="str">
+      <c r="S12" s="28" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="31" t="str">
+      <c r="T12" s="28" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="31" t="str">
+      <c r="U12" s="28" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="31" t="str">
+      <c r="V12" s="28" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="31" t="str">
+      <c r="W12" s="28" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="31" t="str">
+      <c r="X12" s="28" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="32" t="str">
+      <c r="Y12" s="29" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="32" t="str">
+      <c r="Z12" s="29" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="32" t="str">
+      <c r="AA12" s="29" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="AA12" s="32" t="str">
+      <c r="AB12" s="29" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="43" t="str">
+      <c r="AC12" s="40" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="31" t="str">
+      <c r="AD12" s="28" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="31" t="str">
+      <c r="AE12" s="28" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="32" t="str">
+      <c r="AF12" s="29" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="31" t="str">
+      <c r="AG12" s="28" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="31" t="str">
+      <c r="AH12" s="28" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="31" t="str">
+      <c r="AI12" s="28" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="31" t="str">
+      <c r="AJ12" s="28" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="31" t="str">
+      <c r="AK12" s="28" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="32" t="str">
+      <c r="AL12" s="29" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="32" t="str">
+      <c r="AM12" s="29" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="32" t="str">
+      <c r="AN12" s="29" t="str">
         <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="32" t="str">
+      <c r="AO12" s="29" t="str">
         <f>IF(_tag_month_all!AK9="","",_tag_month_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="27">
+    <row r="13" spans="1:41">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
-      <c r="B13" s="28" t="str">
+      <c r="B13" s="25" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="26" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="31" t="str">
-        <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
-        <v/>
-      </c>
-      <c r="F13" s="32" t="str">
+      <c r="E13" s="28" t="str">
+        <f>IF(_tag_month_all!D10="","",_tag_month_all!D10*10000)</f>
+        <v/>
+      </c>
+      <c r="F13" s="29" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="31" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="32" t="str">
+      <c r="H13" s="29" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="29" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="43" t="str">
+      <c r="J13" s="40" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="43" t="str">
+      <c r="K13" s="40" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="32" t="str">
+      <c r="L13" s="29" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="32" t="str">
+      <c r="M13" s="29" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="43" t="str">
+      <c r="N13" s="40" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O13" s="29" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="32" t="str">
+      <c r="P13" s="29" t="str">
+        <f>IF(_tag_month_all!AN10="","",_tag_month_all!AN10)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="29" t="str">
         <f>IF(_tag_month_all!AL10="","",_tag_month_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="31" t="str">
+      <c r="R13" s="28" t="str">
         <f>IF(_tag_month_all!AM10="","",_tag_month_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="31" t="str">
+      <c r="S13" s="28" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="31" t="str">
+      <c r="T13" s="28" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="31" t="str">
+      <c r="U13" s="28" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="31" t="str">
+      <c r="V13" s="28" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="31" t="str">
+      <c r="W13" s="28" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="31" t="str">
+      <c r="X13" s="28" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="32" t="str">
+      <c r="Y13" s="29" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="32" t="str">
+      <c r="Z13" s="29" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="32" t="str">
+      <c r="AA13" s="29" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="AA13" s="32" t="str">
+      <c r="AB13" s="29" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="43" t="str">
+      <c r="AC13" s="40" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="31" t="str">
+      <c r="AD13" s="28" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="31" t="str">
+      <c r="AE13" s="28" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="32" t="str">
+      <c r="AF13" s="29" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="31" t="str">
+      <c r="AG13" s="28" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="31" t="str">
+      <c r="AH13" s="28" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="31" t="str">
+      <c r="AI13" s="28" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="31" t="str">
+      <c r="AJ13" s="28" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="31" t="str">
+      <c r="AK13" s="28" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="32" t="str">
+      <c r="AL13" s="29" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="32" t="str">
+      <c r="AM13" s="29" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="32" t="str">
+      <c r="AN13" s="29" t="str">
         <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="32" t="str">
+      <c r="AO13" s="29" t="str">
         <f>IF(_tag_month_all!AK10="","",_tag_month_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="27">
+    <row r="14" spans="1:41">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="str">
+      <c r="B14" s="25" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="27" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
-        <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
-        <v/>
-      </c>
-      <c r="F14" s="32" t="str">
+      <c r="E14" s="28" t="str">
+        <f>IF(_tag_month_all!D11="","",_tag_month_all!D11*10000)</f>
+        <v/>
+      </c>
+      <c r="F14" s="29" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="29" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="29" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="43" t="str">
+      <c r="J14" s="40" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="43" t="str">
+      <c r="K14" s="40" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="32" t="str">
+      <c r="L14" s="29" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="32" t="str">
+      <c r="M14" s="29" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="43" t="str">
+      <c r="N14" s="40" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="32" t="str">
+      <c r="O14" s="29" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="32" t="str">
+      <c r="P14" s="29" t="str">
+        <f>IF(_tag_month_all!AN11="","",_tag_month_all!AN11)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="29" t="str">
         <f>IF(_tag_month_all!AL11="","",_tag_month_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="31" t="str">
+      <c r="R14" s="28" t="str">
         <f>IF(_tag_month_all!AM11="","",_tag_month_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="31" t="str">
+      <c r="S14" s="28" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="31" t="str">
+      <c r="T14" s="28" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="31" t="str">
+      <c r="U14" s="28" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="31" t="str">
+      <c r="V14" s="28" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="31" t="str">
+      <c r="W14" s="28" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="31" t="str">
+      <c r="X14" s="28" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="32" t="str">
+      <c r="Y14" s="29" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="32" t="str">
+      <c r="Z14" s="29" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="32" t="str">
+      <c r="AA14" s="29" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="AA14" s="32" t="str">
+      <c r="AB14" s="29" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="43" t="str">
+      <c r="AC14" s="40" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="31" t="str">
+      <c r="AD14" s="28" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="31" t="str">
+      <c r="AE14" s="28" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="32" t="str">
+      <c r="AF14" s="29" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="31" t="str">
+      <c r="AG14" s="28" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="31" t="str">
+      <c r="AH14" s="28" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="31" t="str">
+      <c r="AI14" s="28" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="31" t="str">
+      <c r="AJ14" s="28" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="31" t="str">
+      <c r="AK14" s="28" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="32" t="str">
+      <c r="AL14" s="29" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="32" t="str">
+      <c r="AM14" s="29" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="32" t="str">
+      <c r="AN14" s="29" t="str">
         <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="32" t="str">
+      <c r="AO14" s="29" t="str">
         <f>IF(_tag_month_all!AK11="","",_tag_month_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="27">
+    <row r="15" spans="1:41">
+      <c r="A15" s="24">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="25" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="26" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="27" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="31" t="str">
-        <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="32" t="str">
+      <c r="E15" s="28" t="str">
+        <f>IF(_tag_month_all!D12="","",_tag_month_all!D12*10000)</f>
+        <v/>
+      </c>
+      <c r="F15" s="29" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="31" t="str">
+      <c r="G15" s="28" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="32" t="str">
+      <c r="H15" s="29" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="29" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="43" t="str">
+      <c r="J15" s="40" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="40" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="32" t="str">
+      <c r="L15" s="29" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="32" t="str">
+      <c r="M15" s="29" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="43" t="str">
+      <c r="N15" s="40" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="32" t="str">
+      <c r="O15" s="29" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="32" t="str">
+      <c r="P15" s="29" t="str">
+        <f>IF(_tag_month_all!AN12="","",_tag_month_all!AN12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="29" t="str">
         <f>IF(_tag_month_all!AL12="","",_tag_month_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="31" t="str">
+      <c r="R15" s="28" t="str">
         <f>IF(_tag_month_all!AM12="","",_tag_month_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="31" t="str">
+      <c r="S15" s="28" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="31" t="str">
+      <c r="T15" s="28" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="31" t="str">
+      <c r="U15" s="28" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="31" t="str">
+      <c r="V15" s="28" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="31" t="str">
+      <c r="W15" s="28" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="31" t="str">
+      <c r="X15" s="28" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="32" t="str">
+      <c r="Y15" s="29" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="32" t="str">
+      <c r="Z15" s="29" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="32" t="str">
+      <c r="AA15" s="29" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="AA15" s="32" t="str">
+      <c r="AB15" s="29" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="43" t="str">
+      <c r="AC15" s="40" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="31" t="str">
+      <c r="AD15" s="28" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="31" t="str">
+      <c r="AE15" s="28" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="32" t="str">
+      <c r="AF15" s="29" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="31" t="str">
+      <c r="AG15" s="28" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="31" t="str">
+      <c r="AH15" s="28" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="31" t="str">
+      <c r="AI15" s="28" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="31" t="str">
+      <c r="AJ15" s="28" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="31" t="str">
+      <c r="AK15" s="28" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="32" t="str">
+      <c r="AL15" s="29" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="32" t="str">
+      <c r="AM15" s="29" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="32" t="str">
+      <c r="AN15" s="29" t="str">
         <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="32" t="str">
+      <c r="AO15" s="29" t="str">
         <f>IF(_tag_month_all!AK12="","",_tag_month_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="27">
+    <row r="16" spans="1:41">
+      <c r="A16" s="24">
         <v>12</v>
       </c>
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="25" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="29" t="str">
+      <c r="C16" s="26" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="27" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="31" t="str">
-        <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
-        <v/>
-      </c>
-      <c r="F16" s="32" t="str">
+      <c r="E16" s="28" t="str">
+        <f>IF(_tag_month_all!D13="","",_tag_month_all!D13*10000)</f>
+        <v/>
+      </c>
+      <c r="F16" s="29" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="32" t="str">
+      <c r="H16" s="29" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="32" t="str">
+      <c r="I16" s="29" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="43" t="str">
+      <c r="J16" s="40" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="43" t="str">
+      <c r="K16" s="40" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="32" t="str">
+      <c r="L16" s="29" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="32" t="str">
+      <c r="M16" s="29" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="43" t="str">
+      <c r="N16" s="40" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="32" t="str">
+      <c r="O16" s="29" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="32" t="str">
+      <c r="P16" s="29" t="str">
+        <f>IF(_tag_month_all!AN13="","",_tag_month_all!AN13)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="29" t="str">
         <f>IF(_tag_month_all!AL13="","",_tag_month_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="31" t="str">
+      <c r="R16" s="28" t="str">
         <f>IF(_tag_month_all!AM13="","",_tag_month_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="31" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="31" t="str">
+      <c r="T16" s="28" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="31" t="str">
+      <c r="U16" s="28" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="31" t="str">
+      <c r="V16" s="28" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="31" t="str">
+      <c r="W16" s="28" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="31" t="str">
+      <c r="X16" s="28" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="32" t="str">
+      <c r="Y16" s="29" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="32" t="str">
+      <c r="Z16" s="29" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="32" t="str">
+      <c r="AA16" s="29" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="AA16" s="32" t="str">
+      <c r="AB16" s="29" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="43" t="str">
+      <c r="AC16" s="40" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="31" t="str">
+      <c r="AD16" s="28" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="31" t="str">
+      <c r="AE16" s="28" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="32" t="str">
+      <c r="AF16" s="29" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="31" t="str">
+      <c r="AG16" s="28" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="31" t="str">
+      <c r="AH16" s="28" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="31" t="str">
+      <c r="AI16" s="28" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="31" t="str">
+      <c r="AJ16" s="28" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="31" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="32" t="str">
+      <c r="AL16" s="29" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="32" t="str">
+      <c r="AM16" s="29" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="32" t="str">
+      <c r="AN16" s="29" t="str">
         <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="32" t="str">
+      <c r="AO16" s="29" t="str">
         <f>IF(_tag_month_all!AK13="","",_tag_month_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" s="27">
+    <row r="17" spans="1:41">
+      <c r="A17" s="24">
         <v>13</v>
       </c>
-      <c r="B17" s="28" t="str">
+      <c r="B17" s="25" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="27" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="31" t="str">
-        <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
-        <v/>
-      </c>
-      <c r="F17" s="32" t="str">
+      <c r="E17" s="28" t="str">
+        <f>IF(_tag_month_all!D14="","",_tag_month_all!D14*10000)</f>
+        <v/>
+      </c>
+      <c r="F17" s="29" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="31" t="str">
+      <c r="G17" s="28" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="32" t="str">
+      <c r="H17" s="29" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="29" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="43" t="str">
+      <c r="J17" s="40" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="43" t="str">
+      <c r="K17" s="40" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="32" t="str">
+      <c r="L17" s="29" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="32" t="str">
+      <c r="M17" s="29" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="43" t="str">
+      <c r="N17" s="40" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="32" t="str">
+      <c r="O17" s="29" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="32" t="str">
+      <c r="P17" s="29" t="str">
+        <f>IF(_tag_month_all!AN14="","",_tag_month_all!AN14)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="29" t="str">
         <f>IF(_tag_month_all!AL14="","",_tag_month_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="31" t="str">
+      <c r="R17" s="28" t="str">
         <f>IF(_tag_month_all!AM14="","",_tag_month_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="31" t="str">
+      <c r="S17" s="28" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="31" t="str">
+      <c r="T17" s="28" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="31" t="str">
+      <c r="U17" s="28" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="31" t="str">
+      <c r="V17" s="28" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="31" t="str">
+      <c r="W17" s="28" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="31" t="str">
+      <c r="X17" s="28" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="32" t="str">
+      <c r="Y17" s="29" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="32" t="str">
+      <c r="Z17" s="29" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="32" t="str">
+      <c r="AA17" s="29" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="AA17" s="32" t="str">
+      <c r="AB17" s="29" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="43" t="str">
+      <c r="AC17" s="40" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="31" t="str">
+      <c r="AD17" s="28" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="31" t="str">
+      <c r="AE17" s="28" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="32" t="str">
+      <c r="AF17" s="29" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="31" t="str">
+      <c r="AG17" s="28" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="31" t="str">
+      <c r="AH17" s="28" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="31" t="str">
+      <c r="AI17" s="28" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="31" t="str">
+      <c r="AJ17" s="28" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="31" t="str">
+      <c r="AK17" s="28" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="32" t="str">
+      <c r="AL17" s="29" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="32" t="str">
+      <c r="AM17" s="29" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="32" t="str">
+      <c r="AN17" s="29" t="str">
         <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="32" t="str">
+      <c r="AO17" s="29" t="str">
         <f>IF(_tag_month_all!AK14="","",_tag_month_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" s="27">
+    <row r="18" spans="1:41">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="28" t="str">
+      <c r="B18" s="25" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="29" t="str">
+      <c r="C18" s="26" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="27" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="31" t="str">
-        <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
-        <v/>
-      </c>
-      <c r="F18" s="32" t="str">
+      <c r="E18" s="28" t="str">
+        <f>IF(_tag_month_all!D15="","",_tag_month_all!D15*10000)</f>
+        <v/>
+      </c>
+      <c r="F18" s="29" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="31" t="str">
+      <c r="G18" s="28" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="32" t="str">
+      <c r="H18" s="29" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="29" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="43" t="str">
+      <c r="J18" s="40" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="43" t="str">
+      <c r="K18" s="40" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="32" t="str">
+      <c r="L18" s="29" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M18" s="29" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="43" t="str">
+      <c r="N18" s="40" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="29" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="32" t="str">
+      <c r="P18" s="29" t="str">
+        <f>IF(_tag_month_all!AN15="","",_tag_month_all!AN15)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="29" t="str">
         <f>IF(_tag_month_all!AL15="","",_tag_month_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="31" t="str">
+      <c r="R18" s="28" t="str">
         <f>IF(_tag_month_all!AM15="","",_tag_month_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="31" t="str">
+      <c r="S18" s="28" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="31" t="str">
+      <c r="T18" s="28" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="31" t="str">
+      <c r="U18" s="28" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="31" t="str">
+      <c r="V18" s="28" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="31" t="str">
+      <c r="W18" s="28" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="31" t="str">
+      <c r="X18" s="28" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="32" t="str">
+      <c r="Y18" s="29" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="32" t="str">
+      <c r="Z18" s="29" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="32" t="str">
+      <c r="AA18" s="29" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="AA18" s="32" t="str">
+      <c r="AB18" s="29" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="43" t="str">
+      <c r="AC18" s="40" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="31" t="str">
+      <c r="AD18" s="28" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="31" t="str">
+      <c r="AE18" s="28" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="32" t="str">
+      <c r="AF18" s="29" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="31" t="str">
+      <c r="AG18" s="28" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="31" t="str">
+      <c r="AH18" s="28" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="31" t="str">
+      <c r="AI18" s="28" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="31" t="str">
+      <c r="AJ18" s="28" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="31" t="str">
+      <c r="AK18" s="28" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="32" t="str">
+      <c r="AL18" s="29" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="32" t="str">
+      <c r="AM18" s="29" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="32" t="str">
+      <c r="AN18" s="29" t="str">
         <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="32" t="str">
+      <c r="AO18" s="29" t="str">
         <f>IF(_tag_month_all!AK15="","",_tag_month_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" s="27">
+    <row r="19" spans="1:41">
+      <c r="A19" s="24">
         <v>15</v>
       </c>
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="25" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="29" t="str">
+      <c r="C19" s="26" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="27" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="31" t="str">
-        <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
-        <v/>
-      </c>
-      <c r="F19" s="32" t="str">
+      <c r="E19" s="28" t="str">
+        <f>IF(_tag_month_all!D16="","",_tag_month_all!D16*10000)</f>
+        <v/>
+      </c>
+      <c r="F19" s="29" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="31" t="str">
+      <c r="G19" s="28" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="32" t="str">
+      <c r="H19" s="29" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="29" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="43" t="str">
+      <c r="J19" s="40" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="43" t="str">
+      <c r="K19" s="40" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="32" t="str">
+      <c r="L19" s="29" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="32" t="str">
+      <c r="M19" s="29" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="43" t="str">
+      <c r="N19" s="40" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="32" t="str">
+      <c r="O19" s="29" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="32" t="str">
+      <c r="P19" s="29" t="str">
+        <f>IF(_tag_month_all!AN16="","",_tag_month_all!AN16)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="29" t="str">
         <f>IF(_tag_month_all!AL16="","",_tag_month_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="31" t="str">
+      <c r="R19" s="28" t="str">
         <f>IF(_tag_month_all!AM16="","",_tag_month_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="31" t="str">
+      <c r="S19" s="28" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="31" t="str">
+      <c r="T19" s="28" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="31" t="str">
+      <c r="U19" s="28" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="31" t="str">
+      <c r="V19" s="28" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="31" t="str">
+      <c r="W19" s="28" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="31" t="str">
+      <c r="X19" s="28" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="32" t="str">
+      <c r="Y19" s="29" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="32" t="str">
+      <c r="Z19" s="29" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="32" t="str">
+      <c r="AA19" s="29" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="AA19" s="32" t="str">
+      <c r="AB19" s="29" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="43" t="str">
+      <c r="AC19" s="40" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="31" t="str">
+      <c r="AD19" s="28" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="31" t="str">
+      <c r="AE19" s="28" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="32" t="str">
+      <c r="AF19" s="29" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="31" t="str">
+      <c r="AG19" s="28" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="31" t="str">
+      <c r="AH19" s="28" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="31" t="str">
+      <c r="AI19" s="28" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="31" t="str">
+      <c r="AJ19" s="28" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="31" t="str">
+      <c r="AK19" s="28" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="32" t="str">
+      <c r="AL19" s="29" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="32" t="str">
+      <c r="AM19" s="29" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="32" t="str">
+      <c r="AN19" s="29" t="str">
         <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="32" t="str">
+      <c r="AO19" s="29" t="str">
         <f>IF(_tag_month_all!AK16="","",_tag_month_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" s="27">
+    <row r="20" spans="1:41">
+      <c r="A20" s="24">
         <v>16</v>
       </c>
-      <c r="B20" s="28" t="str">
+      <c r="B20" s="25" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="29" t="str">
+      <c r="C20" s="26" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D20" s="27" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="31" t="str">
-        <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
-        <v/>
-      </c>
-      <c r="F20" s="32" t="str">
+      <c r="E20" s="28" t="str">
+        <f>IF(_tag_month_all!D17="","",_tag_month_all!D17*10000)</f>
+        <v/>
+      </c>
+      <c r="F20" s="29" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="31" t="str">
+      <c r="G20" s="28" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="32" t="str">
+      <c r="H20" s="29" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="29" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="43" t="str">
+      <c r="J20" s="40" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="43" t="str">
+      <c r="K20" s="40" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="32" t="str">
+      <c r="L20" s="29" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="32" t="str">
+      <c r="M20" s="29" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="43" t="str">
+      <c r="N20" s="40" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="32" t="str">
+      <c r="O20" s="29" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="32" t="str">
+      <c r="P20" s="29" t="str">
+        <f>IF(_tag_month_all!AN17="","",_tag_month_all!AN17)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="29" t="str">
         <f>IF(_tag_month_all!AL17="","",_tag_month_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="31" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_tag_month_all!AM17="","",_tag_month_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="31" t="str">
+      <c r="S20" s="28" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="31" t="str">
+      <c r="T20" s="28" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="31" t="str">
+      <c r="U20" s="28" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="31" t="str">
+      <c r="V20" s="28" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="31" t="str">
+      <c r="W20" s="28" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="31" t="str">
+      <c r="X20" s="28" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="32" t="str">
+      <c r="Y20" s="29" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="32" t="str">
+      <c r="Z20" s="29" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="32" t="str">
+      <c r="AA20" s="29" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="AA20" s="32" t="str">
+      <c r="AB20" s="29" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="43" t="str">
+      <c r="AC20" s="40" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="31" t="str">
+      <c r="AD20" s="28" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="31" t="str">
+      <c r="AE20" s="28" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="32" t="str">
+      <c r="AF20" s="29" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="31" t="str">
+      <c r="AG20" s="28" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="31" t="str">
+      <c r="AH20" s="28" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="31" t="str">
+      <c r="AI20" s="28" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="31" t="str">
+      <c r="AJ20" s="28" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="31" t="str">
+      <c r="AK20" s="28" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="32" t="str">
+      <c r="AL20" s="29" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="32" t="str">
+      <c r="AM20" s="29" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="32" t="str">
+      <c r="AN20" s="29" t="str">
         <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="32" t="str">
+      <c r="AO20" s="29" t="str">
         <f>IF(_tag_month_all!AK17="","",_tag_month_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" s="27">
+    <row r="21" spans="1:41">
+      <c r="A21" s="24">
         <v>17</v>
       </c>
-      <c r="B21" s="28" t="str">
+      <c r="B21" s="25" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="29" t="str">
+      <c r="C21" s="26" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="27" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="31" t="str">
-        <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
-        <v/>
-      </c>
-      <c r="F21" s="32" t="str">
+      <c r="E21" s="28" t="str">
+        <f>IF(_tag_month_all!D18="","",_tag_month_all!D18*10000)</f>
+        <v/>
+      </c>
+      <c r="F21" s="29" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="31" t="str">
+      <c r="G21" s="28" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="32" t="str">
+      <c r="H21" s="29" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="29" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="43" t="str">
+      <c r="J21" s="40" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="43" t="str">
+      <c r="K21" s="40" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="32" t="str">
+      <c r="L21" s="29" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="32" t="str">
+      <c r="M21" s="29" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="43" t="str">
+      <c r="N21" s="40" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="32" t="str">
+      <c r="O21" s="29" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="32" t="str">
+      <c r="P21" s="29" t="str">
+        <f>IF(_tag_month_all!AN18="","",_tag_month_all!AN18)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="29" t="str">
         <f>IF(_tag_month_all!AL18="","",_tag_month_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="31" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_tag_month_all!AM18="","",_tag_month_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="31" t="str">
+      <c r="S21" s="28" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="31" t="str">
+      <c r="T21" s="28" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="31" t="str">
+      <c r="U21" s="28" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="31" t="str">
+      <c r="V21" s="28" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="31" t="str">
+      <c r="W21" s="28" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="31" t="str">
+      <c r="X21" s="28" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="32" t="str">
+      <c r="Y21" s="29" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="32" t="str">
+      <c r="Z21" s="29" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="32" t="str">
+      <c r="AA21" s="29" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="AA21" s="32" t="str">
+      <c r="AB21" s="29" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="43" t="str">
+      <c r="AC21" s="40" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="31" t="str">
+      <c r="AD21" s="28" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="31" t="str">
+      <c r="AE21" s="28" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="32" t="str">
+      <c r="AF21" s="29" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="31" t="str">
+      <c r="AG21" s="28" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="31" t="str">
+      <c r="AH21" s="28" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="31" t="str">
+      <c r="AI21" s="28" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="31" t="str">
+      <c r="AJ21" s="28" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="31" t="str">
+      <c r="AK21" s="28" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="32" t="str">
+      <c r="AL21" s="29" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="32" t="str">
+      <c r="AM21" s="29" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="32" t="str">
+      <c r="AN21" s="29" t="str">
         <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="32" t="str">
+      <c r="AO21" s="29" t="str">
         <f>IF(_tag_month_all!AK18="","",_tag_month_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" s="27">
+    <row r="22" spans="1:41">
+      <c r="A22" s="24">
         <v>18</v>
       </c>
-      <c r="B22" s="28" t="str">
+      <c r="B22" s="25" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="29" t="str">
+      <c r="C22" s="26" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="27" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="31" t="str">
-        <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
-        <v/>
-      </c>
-      <c r="F22" s="32" t="str">
+      <c r="E22" s="28" t="str">
+        <f>IF(_tag_month_all!D19="","",_tag_month_all!D19*10000)</f>
+        <v/>
+      </c>
+      <c r="F22" s="29" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="31" t="str">
+      <c r="G22" s="28" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="32" t="str">
+      <c r="H22" s="29" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="32" t="str">
+      <c r="I22" s="29" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="43" t="str">
+      <c r="J22" s="40" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="43" t="str">
+      <c r="K22" s="40" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="32" t="str">
+      <c r="L22" s="29" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="32" t="str">
+      <c r="M22" s="29" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="43" t="str">
+      <c r="N22" s="40" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="32" t="str">
+      <c r="O22" s="29" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="32" t="str">
+      <c r="P22" s="29" t="str">
+        <f>IF(_tag_month_all!AN19="","",_tag_month_all!AN19)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="29" t="str">
         <f>IF(_tag_month_all!AL19="","",_tag_month_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="31" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_tag_month_all!AM19="","",_tag_month_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="31" t="str">
+      <c r="S22" s="28" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="31" t="str">
+      <c r="T22" s="28" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="31" t="str">
+      <c r="U22" s="28" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="31" t="str">
+      <c r="V22" s="28" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="31" t="str">
+      <c r="W22" s="28" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="31" t="str">
+      <c r="X22" s="28" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="32" t="str">
+      <c r="Y22" s="29" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="32" t="str">
+      <c r="Z22" s="29" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="32" t="str">
+      <c r="AA22" s="29" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="AA22" s="32" t="str">
+      <c r="AB22" s="29" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="43" t="str">
+      <c r="AC22" s="40" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="31" t="str">
+      <c r="AD22" s="28" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="31" t="str">
+      <c r="AE22" s="28" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="32" t="str">
+      <c r="AF22" s="29" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="31" t="str">
+      <c r="AG22" s="28" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="31" t="str">
+      <c r="AH22" s="28" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="31" t="str">
+      <c r="AI22" s="28" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="31" t="str">
+      <c r="AJ22" s="28" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="31" t="str">
+      <c r="AK22" s="28" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="32" t="str">
+      <c r="AL22" s="29" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="32" t="str">
+      <c r="AM22" s="29" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="32" t="str">
+      <c r="AN22" s="29" t="str">
         <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="32" t="str">
+      <c r="AO22" s="29" t="str">
         <f>IF(_tag_month_all!AK19="","",_tag_month_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="27">
+    <row r="23" spans="1:41">
+      <c r="A23" s="24">
         <v>19</v>
       </c>
-      <c r="B23" s="28" t="str">
+      <c r="B23" s="25" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="29" t="str">
+      <c r="C23" s="26" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="27" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="31" t="str">
-        <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
-        <v/>
-      </c>
-      <c r="F23" s="32" t="str">
+      <c r="E23" s="28" t="str">
+        <f>IF(_tag_month_all!D20="","",_tag_month_all!D20*10000)</f>
+        <v/>
+      </c>
+      <c r="F23" s="29" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="31" t="str">
+      <c r="G23" s="28" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="32" t="str">
+      <c r="H23" s="29" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="32" t="str">
+      <c r="I23" s="29" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="43" t="str">
+      <c r="J23" s="40" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="43" t="str">
+      <c r="K23" s="40" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="32" t="str">
+      <c r="L23" s="29" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="32" t="str">
+      <c r="M23" s="29" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="43" t="str">
+      <c r="N23" s="40" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="32" t="str">
+      <c r="O23" s="29" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="29" t="str">
+        <f>IF(_tag_month_all!AN20="","",_tag_month_all!AN20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="29" t="str">
         <f>IF(_tag_month_all!AL20="","",_tag_month_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="31" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_tag_month_all!AM20="","",_tag_month_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="31" t="str">
+      <c r="S23" s="28" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="31" t="str">
+      <c r="T23" s="28" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="31" t="str">
+      <c r="U23" s="28" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="31" t="str">
+      <c r="V23" s="28" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="31" t="str">
+      <c r="W23" s="28" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="31" t="str">
+      <c r="X23" s="28" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="32" t="str">
+      <c r="Y23" s="29" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="32" t="str">
+      <c r="Z23" s="29" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="32" t="str">
+      <c r="AA23" s="29" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="AA23" s="32" t="str">
+      <c r="AB23" s="29" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="43" t="str">
+      <c r="AC23" s="40" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="31" t="str">
+      <c r="AD23" s="28" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="31" t="str">
+      <c r="AE23" s="28" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="32" t="str">
+      <c r="AF23" s="29" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="31" t="str">
+      <c r="AG23" s="28" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="31" t="str">
+      <c r="AH23" s="28" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="31" t="str">
+      <c r="AI23" s="28" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="31" t="str">
+      <c r="AJ23" s="28" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="31" t="str">
+      <c r="AK23" s="28" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="32" t="str">
+      <c r="AL23" s="29" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="32" t="str">
+      <c r="AM23" s="29" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="32" t="str">
+      <c r="AN23" s="29" t="str">
         <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="32" t="str">
+      <c r="AO23" s="29" t="str">
         <f>IF(_tag_month_all!AK20="","",_tag_month_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="27">
+    <row r="24" spans="1:41">
+      <c r="A24" s="24">
         <v>20</v>
       </c>
-      <c r="B24" s="28" t="str">
+      <c r="B24" s="25" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="C24" s="26" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="30" t="str">
+      <c r="D24" s="27" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="31" t="str">
-        <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
-        <v/>
-      </c>
-      <c r="F24" s="32" t="str">
+      <c r="E24" s="28" t="str">
+        <f>IF(_tag_month_all!D21="","",_tag_month_all!D21*10000)</f>
+        <v/>
+      </c>
+      <c r="F24" s="29" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="31" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="32" t="str">
+      <c r="H24" s="29" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="32" t="str">
+      <c r="I24" s="29" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="43" t="str">
+      <c r="J24" s="40" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="43" t="str">
+      <c r="K24" s="40" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="32" t="str">
+      <c r="L24" s="29" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="str">
+      <c r="M24" s="29" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="43" t="str">
+      <c r="N24" s="40" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="32" t="str">
+      <c r="O24" s="29" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="32" t="str">
+      <c r="P24" s="29" t="str">
+        <f>IF(_tag_month_all!AN21="","",_tag_month_all!AN21)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="29" t="str">
         <f>IF(_tag_month_all!AL21="","",_tag_month_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="31" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_tag_month_all!AM21="","",_tag_month_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="31" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="31" t="str">
+      <c r="T24" s="28" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="31" t="str">
+      <c r="U24" s="28" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="31" t="str">
+      <c r="V24" s="28" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="31" t="str">
+      <c r="W24" s="28" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="31" t="str">
+      <c r="X24" s="28" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="32" t="str">
+      <c r="Y24" s="29" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="32" t="str">
+      <c r="Z24" s="29" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="32" t="str">
+      <c r="AA24" s="29" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="AA24" s="32" t="str">
+      <c r="AB24" s="29" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="43" t="str">
+      <c r="AC24" s="40" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="31" t="str">
+      <c r="AD24" s="28" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="31" t="str">
+      <c r="AE24" s="28" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="32" t="str">
+      <c r="AF24" s="29" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="31" t="str">
+      <c r="AG24" s="28" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="31" t="str">
+      <c r="AH24" s="28" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="31" t="str">
+      <c r="AI24" s="28" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="31" t="str">
+      <c r="AJ24" s="28" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="31" t="str">
+      <c r="AK24" s="28" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="32" t="str">
+      <c r="AL24" s="29" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="32" t="str">
+      <c r="AM24" s="29" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="32" t="str">
+      <c r="AN24" s="29" t="str">
         <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="32" t="str">
+      <c r="AO24" s="29" t="str">
         <f>IF(_tag_month_all!AK21="","",_tag_month_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" s="27">
+    <row r="25" spans="1:41">
+      <c r="A25" s="24">
         <v>21</v>
       </c>
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="25" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="29" t="str">
+      <c r="C25" s="26" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="30" t="str">
+      <c r="D25" s="27" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="31" t="str">
-        <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
-        <v/>
-      </c>
-      <c r="F25" s="32" t="str">
+      <c r="E25" s="28" t="str">
+        <f>IF(_tag_month_all!D22="","",_tag_month_all!D22*10000)</f>
+        <v/>
+      </c>
+      <c r="F25" s="29" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="31" t="str">
+      <c r="G25" s="28" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="32" t="str">
+      <c r="H25" s="29" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="32" t="str">
+      <c r="I25" s="29" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="43" t="str">
+      <c r="J25" s="40" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="43" t="str">
+      <c r="K25" s="40" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="32" t="str">
+      <c r="L25" s="29" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="32" t="str">
+      <c r="M25" s="29" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="43" t="str">
+      <c r="N25" s="40" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="32" t="str">
+      <c r="O25" s="29" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="32" t="str">
+      <c r="P25" s="29" t="str">
+        <f>IF(_tag_month_all!AN22="","",_tag_month_all!AN22)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="29" t="str">
         <f>IF(_tag_month_all!AL22="","",_tag_month_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="31" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_tag_month_all!AM22="","",_tag_month_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="31" t="str">
+      <c r="S25" s="28" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="31" t="str">
+      <c r="T25" s="28" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="31" t="str">
+      <c r="U25" s="28" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="31" t="str">
+      <c r="V25" s="28" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="31" t="str">
+      <c r="W25" s="28" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="31" t="str">
+      <c r="X25" s="28" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="32" t="str">
+      <c r="Y25" s="29" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="32" t="str">
+      <c r="Z25" s="29" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="32" t="str">
+      <c r="AA25" s="29" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="AA25" s="32" t="str">
+      <c r="AB25" s="29" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="43" t="str">
+      <c r="AC25" s="40" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="31" t="str">
+      <c r="AD25" s="28" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="31" t="str">
+      <c r="AE25" s="28" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="32" t="str">
+      <c r="AF25" s="29" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="31" t="str">
+      <c r="AG25" s="28" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="31" t="str">
+      <c r="AH25" s="28" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="31" t="str">
+      <c r="AI25" s="28" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="31" t="str">
+      <c r="AJ25" s="28" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="31" t="str">
+      <c r="AK25" s="28" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="32" t="str">
+      <c r="AL25" s="29" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="32" t="str">
+      <c r="AM25" s="29" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="32" t="str">
+      <c r="AN25" s="29" t="str">
         <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="32" t="str">
+      <c r="AO25" s="29" t="str">
         <f>IF(_tag_month_all!AK22="","",_tag_month_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" s="27">
+    <row r="26" spans="1:41">
+      <c r="A26" s="24">
         <v>22</v>
       </c>
-      <c r="B26" s="28" t="str">
+      <c r="B26" s="25" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="29" t="str">
+      <c r="C26" s="26" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="27" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="31" t="str">
-        <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
-        <v/>
-      </c>
-      <c r="F26" s="32" t="str">
+      <c r="E26" s="28" t="str">
+        <f>IF(_tag_month_all!D23="","",_tag_month_all!D23*10000)</f>
+        <v/>
+      </c>
+      <c r="F26" s="29" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="31" t="str">
+      <c r="G26" s="28" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="32" t="str">
+      <c r="H26" s="29" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="32" t="str">
+      <c r="I26" s="29" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="43" t="str">
+      <c r="J26" s="40" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="43" t="str">
+      <c r="K26" s="40" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="32" t="str">
+      <c r="L26" s="29" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="32" t="str">
+      <c r="M26" s="29" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="43" t="str">
+      <c r="N26" s="40" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="32" t="str">
+      <c r="O26" s="29" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="32" t="str">
+      <c r="P26" s="29" t="str">
+        <f>IF(_tag_month_all!AN23="","",_tag_month_all!AN23)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="29" t="str">
         <f>IF(_tag_month_all!AL23="","",_tag_month_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="31" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_tag_month_all!AM23="","",_tag_month_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="31" t="str">
+      <c r="S26" s="28" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="31" t="str">
+      <c r="T26" s="28" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="31" t="str">
+      <c r="U26" s="28" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="31" t="str">
+      <c r="V26" s="28" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="31" t="str">
+      <c r="W26" s="28" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="31" t="str">
+      <c r="X26" s="28" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="32" t="str">
+      <c r="Y26" s="29" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="32" t="str">
+      <c r="Z26" s="29" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="32" t="str">
+      <c r="AA26" s="29" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="AA26" s="32" t="str">
+      <c r="AB26" s="29" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="31" t="str">
+      <c r="AD26" s="28" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="31" t="str">
+      <c r="AE26" s="28" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="32" t="str">
+      <c r="AF26" s="29" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="31" t="str">
+      <c r="AG26" s="28" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="31" t="str">
+      <c r="AH26" s="28" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="31" t="str">
+      <c r="AI26" s="28" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="31" t="str">
+      <c r="AJ26" s="28" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="31" t="str">
+      <c r="AK26" s="28" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="32" t="str">
+      <c r="AL26" s="29" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="32" t="str">
+      <c r="AM26" s="29" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="32" t="str">
+      <c r="AN26" s="29" t="str">
         <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="32" t="str">
+      <c r="AO26" s="29" t="str">
         <f>IF(_tag_month_all!AK23="","",_tag_month_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" s="27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="24">
         <v>23</v>
       </c>
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="25" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="29" t="str">
+      <c r="C27" s="26" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="30" t="str">
+      <c r="D27" s="27" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="31" t="str">
-        <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
-        <v/>
-      </c>
-      <c r="F27" s="32" t="str">
+      <c r="E27" s="28" t="str">
+        <f>IF(_tag_month_all!D24="","",_tag_month_all!D24*10000)</f>
+        <v/>
+      </c>
+      <c r="F27" s="29" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="31" t="str">
+      <c r="G27" s="28" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="32" t="str">
+      <c r="H27" s="29" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="32" t="str">
+      <c r="I27" s="29" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="43" t="str">
+      <c r="J27" s="40" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="43" t="str">
+      <c r="K27" s="40" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="32" t="str">
+      <c r="L27" s="29" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="32" t="str">
+      <c r="M27" s="29" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="43" t="str">
+      <c r="N27" s="40" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="32" t="str">
+      <c r="O27" s="29" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="32" t="str">
+      <c r="P27" s="29" t="str">
+        <f>IF(_tag_month_all!AN24="","",_tag_month_all!AN24)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="29" t="str">
         <f>IF(_tag_month_all!AL24="","",_tag_month_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="31" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_tag_month_all!AM24="","",_tag_month_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="31" t="str">
+      <c r="S27" s="28" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="31" t="str">
+      <c r="T27" s="28" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="31" t="str">
+      <c r="U27" s="28" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="31" t="str">
+      <c r="V27" s="28" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="31" t="str">
+      <c r="W27" s="28" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="31" t="str">
+      <c r="X27" s="28" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="32" t="str">
+      <c r="Y27" s="29" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="32" t="str">
+      <c r="Z27" s="29" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="32" t="str">
+      <c r="AA27" s="29" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="AA27" s="32" t="str">
+      <c r="AB27" s="29" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="43" t="str">
+      <c r="AC27" s="40" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="31" t="str">
+      <c r="AD27" s="28" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="31" t="str">
+      <c r="AE27" s="28" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="32" t="str">
+      <c r="AF27" s="29" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="31" t="str">
+      <c r="AG27" s="28" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="31" t="str">
+      <c r="AH27" s="28" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="31" t="str">
+      <c r="AI27" s="28" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="31" t="str">
+      <c r="AJ27" s="28" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="31" t="str">
+      <c r="AK27" s="28" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="32" t="str">
+      <c r="AL27" s="29" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="32" t="str">
+      <c r="AM27" s="29" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="32" t="str">
+      <c r="AN27" s="29" t="str">
         <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="32" t="str">
+      <c r="AO27" s="29" t="str">
         <f>IF(_tag_month_all!AK24="","",_tag_month_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" s="27">
+    <row r="28" spans="1:41">
+      <c r="A28" s="24">
         <v>24</v>
       </c>
-      <c r="B28" s="28" t="str">
+      <c r="B28" s="25" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="29" t="str">
+      <c r="C28" s="26" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="30" t="str">
+      <c r="D28" s="27" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="31" t="str">
-        <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
-        <v/>
-      </c>
-      <c r="F28" s="32" t="str">
+      <c r="E28" s="28" t="str">
+        <f>IF(_tag_month_all!D25="","",_tag_month_all!D25*10000)</f>
+        <v/>
+      </c>
+      <c r="F28" s="29" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="31" t="str">
+      <c r="G28" s="28" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="32" t="str">
+      <c r="H28" s="29" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="32" t="str">
+      <c r="I28" s="29" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="43" t="str">
+      <c r="J28" s="40" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="43" t="str">
+      <c r="K28" s="40" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="32" t="str">
+      <c r="L28" s="29" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="32" t="str">
+      <c r="M28" s="29" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="43" t="str">
+      <c r="N28" s="40" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="32" t="str">
+      <c r="O28" s="29" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="32" t="str">
+      <c r="P28" s="29" t="str">
+        <f>IF(_tag_month_all!AN25="","",_tag_month_all!AN25)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="29" t="str">
         <f>IF(_tag_month_all!AL25="","",_tag_month_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="31" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_tag_month_all!AM25="","",_tag_month_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="31" t="str">
+      <c r="S28" s="28" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="31" t="str">
+      <c r="T28" s="28" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="31" t="str">
+      <c r="U28" s="28" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="31" t="str">
+      <c r="V28" s="28" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="31" t="str">
+      <c r="W28" s="28" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="31" t="str">
+      <c r="X28" s="28" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="32" t="str">
+      <c r="Y28" s="29" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="32" t="str">
+      <c r="Z28" s="29" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="32" t="str">
+      <c r="AA28" s="29" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="AA28" s="32" t="str">
+      <c r="AB28" s="29" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="43" t="str">
+      <c r="AC28" s="40" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="31" t="str">
+      <c r="AD28" s="28" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="31" t="str">
+      <c r="AE28" s="28" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="32" t="str">
+      <c r="AF28" s="29" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="31" t="str">
+      <c r="AG28" s="28" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="31" t="str">
+      <c r="AH28" s="28" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="31" t="str">
+      <c r="AI28" s="28" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="31" t="str">
+      <c r="AJ28" s="28" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="31" t="str">
+      <c r="AK28" s="28" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="32" t="str">
+      <c r="AL28" s="29" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="32" t="str">
+      <c r="AM28" s="29" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="32" t="str">
+      <c r="AN28" s="29" t="str">
         <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="32" t="str">
+      <c r="AO28" s="29" t="str">
         <f>IF(_tag_month_all!AK25="","",_tag_month_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:40">
-      <c r="A29" s="27">
+    <row r="29" s="1" customFormat="1" spans="1:41">
+      <c r="A29" s="24">
         <v>25</v>
       </c>
-      <c r="B29" s="28" t="str">
+      <c r="B29" s="25" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="29" t="str">
+      <c r="C29" s="26" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="30" t="str">
+      <c r="D29" s="27" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="31" t="str">
-        <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
-        <v/>
-      </c>
-      <c r="F29" s="32" t="str">
+      <c r="E29" s="28" t="str">
+        <f>IF(_tag_month_all!D26="","",_tag_month_all!D26*10000)</f>
+        <v/>
+      </c>
+      <c r="F29" s="29" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="31" t="str">
+      <c r="G29" s="28" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="32" t="str">
+      <c r="H29" s="29" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="32" t="str">
+      <c r="I29" s="29" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="43" t="str">
+      <c r="J29" s="40" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="43" t="str">
+      <c r="K29" s="40" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="32" t="str">
+      <c r="L29" s="29" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="32" t="str">
+      <c r="M29" s="29" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="43" t="str">
+      <c r="N29" s="40" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="32" t="str">
+      <c r="O29" s="29" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26*100)</f>
         <v/>
       </c>
-      <c r="P29" s="32" t="str">
+      <c r="P29" s="29" t="str">
+        <f>IF(_tag_month_all!AN26="","",_tag_month_all!AN26)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="29" t="str">
         <f>IF(_tag_month_all!AL26="","",_tag_month_all!AL26)</f>
         <v/>
       </c>
-      <c r="Q29" s="31" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_tag_month_all!AM26="","",_tag_month_all!AM26)</f>
         <v/>
       </c>
-      <c r="R29" s="31" t="str">
+      <c r="S29" s="28" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="S29" s="31" t="str">
+      <c r="T29" s="28" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="T29" s="31" t="str">
+      <c r="U29" s="28" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="U29" s="31" t="str">
+      <c r="V29" s="28" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="V29" s="31" t="str">
+      <c r="W29" s="28" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="W29" s="31" t="str">
+      <c r="X29" s="28" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="X29" s="32" t="str">
+      <c r="Y29" s="29" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="Y29" s="32" t="str">
+      <c r="Z29" s="29" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="Z29" s="32" t="str">
+      <c r="AA29" s="29" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="AA29" s="32" t="str">
+      <c r="AB29" s="29" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="AB29" s="43" t="str">
+      <c r="AC29" s="40" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AC29" s="31" t="str">
+      <c r="AD29" s="28" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AD29" s="31" t="str">
+      <c r="AE29" s="28" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AE29" s="32" t="str">
+      <c r="AF29" s="29" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AF29" s="31" t="str">
+      <c r="AG29" s="28" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AG29" s="31" t="str">
+      <c r="AH29" s="28" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AH29" s="31" t="str">
+      <c r="AI29" s="28" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AI29" s="31" t="str">
+      <c r="AJ29" s="28" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="31" t="str">
+      <c r="AK29" s="28" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AK29" s="32" t="str">
+      <c r="AL29" s="29" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AL29" s="32" t="str">
+      <c r="AM29" s="29" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AM29" s="32" t="str">
+      <c r="AN29" s="29" t="str">
         <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
         <v/>
       </c>
-      <c r="AN29" s="32" t="str">
+      <c r="AO29" s="29" t="str">
         <f>IF(_tag_month_all!AK26="","",_tag_month_all!AK26)</f>
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:40">
-      <c r="A30" s="27">
+    <row r="30" s="1" customFormat="1" spans="1:41">
+      <c r="A30" s="24">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="str">
+      <c r="B30" s="25" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="29" t="str">
+      <c r="C30" s="26" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="30" t="str">
+      <c r="D30" s="27" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="31" t="str">
-        <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
-        <v/>
-      </c>
-      <c r="F30" s="32" t="str">
+      <c r="E30" s="28" t="str">
+        <f>IF(_tag_month_all!D27="","",_tag_month_all!D27*10000)</f>
+        <v/>
+      </c>
+      <c r="F30" s="29" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="31" t="str">
+      <c r="G30" s="28" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="32" t="str">
+      <c r="H30" s="29" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="32" t="str">
+      <c r="I30" s="29" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="43" t="str">
+      <c r="J30" s="40" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="43" t="str">
+      <c r="K30" s="40" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="32" t="str">
+      <c r="L30" s="29" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="32" t="str">
+      <c r="M30" s="29" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="43" t="str">
+      <c r="N30" s="40" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="O30" s="29" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27*100)</f>
         <v/>
       </c>
-      <c r="P30" s="32" t="str">
+      <c r="P30" s="29" t="str">
+        <f>IF(_tag_month_all!AN27="","",_tag_month_all!AN27)</f>
+        <v/>
+      </c>
+      <c r="Q30" s="29" t="str">
         <f>IF(_tag_month_all!AL27="","",_tag_month_all!AL27)</f>
         <v/>
       </c>
-      <c r="Q30" s="31" t="str">
+      <c r="R30" s="28" t="str">
         <f>IF(_tag_month_all!AM27="","",_tag_month_all!AM27)</f>
         <v/>
       </c>
-      <c r="R30" s="31" t="str">
+      <c r="S30" s="28" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="S30" s="31" t="str">
+      <c r="T30" s="28" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="T30" s="31" t="str">
+      <c r="U30" s="28" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="U30" s="31" t="str">
+      <c r="V30" s="28" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="V30" s="31" t="str">
+      <c r="W30" s="28" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="W30" s="31" t="str">
+      <c r="X30" s="28" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="X30" s="32" t="str">
+      <c r="Y30" s="29" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="Y30" s="32" t="str">
+      <c r="Z30" s="29" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="Z30" s="32" t="str">
+      <c r="AA30" s="29" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="AA30" s="32" t="str">
+      <c r="AB30" s="29" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="AB30" s="43" t="str">
+      <c r="AC30" s="40" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AC30" s="31" t="str">
+      <c r="AD30" s="28" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AD30" s="31" t="str">
+      <c r="AE30" s="28" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AE30" s="32" t="str">
+      <c r="AF30" s="29" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AF30" s="31" t="str">
+      <c r="AG30" s="28" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AG30" s="31" t="str">
+      <c r="AH30" s="28" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AH30" s="31" t="str">
+      <c r="AI30" s="28" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AI30" s="31" t="str">
+      <c r="AJ30" s="28" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="31" t="str">
+      <c r="AK30" s="28" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AK30" s="32" t="str">
+      <c r="AL30" s="29" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AL30" s="32" t="str">
+      <c r="AM30" s="29" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AM30" s="32" t="str">
+      <c r="AN30" s="29" t="str">
         <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
         <v/>
       </c>
-      <c r="AN30" s="32" t="str">
+      <c r="AO30" s="29" t="str">
         <f>IF(_tag_month_all!AK27="","",_tag_month_all!AK27)</f>
         <v/>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:40">
-      <c r="A31" s="27">
+    <row r="31" s="1" customFormat="1" spans="1:41">
+      <c r="A31" s="24">
         <v>27</v>
       </c>
-      <c r="B31" s="28" t="str">
+      <c r="B31" s="25" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="29" t="str">
+      <c r="C31" s="26" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="30" t="str">
+      <c r="D31" s="27" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="31" t="str">
-        <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
-        <v/>
-      </c>
-      <c r="F31" s="32" t="str">
+      <c r="E31" s="28" t="str">
+        <f>IF(_tag_month_all!D28="","",_tag_month_all!D28*10000)</f>
+        <v/>
+      </c>
+      <c r="F31" s="29" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="31" t="str">
+      <c r="G31" s="28" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="32" t="str">
+      <c r="H31" s="29" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="32" t="str">
+      <c r="I31" s="29" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="43" t="str">
+      <c r="J31" s="40" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="43" t="str">
+      <c r="K31" s="40" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="32" t="str">
+      <c r="L31" s="29" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="32" t="str">
+      <c r="M31" s="29" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="43" t="str">
+      <c r="N31" s="40" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="32" t="str">
+      <c r="O31" s="29" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28*100)</f>
         <v/>
       </c>
-      <c r="P31" s="32" t="str">
+      <c r="P31" s="29" t="str">
+        <f>IF(_tag_month_all!AN28="","",_tag_month_all!AN28)</f>
+        <v/>
+      </c>
+      <c r="Q31" s="29" t="str">
         <f>IF(_tag_month_all!AL28="","",_tag_month_all!AL28)</f>
         <v/>
       </c>
-      <c r="Q31" s="31" t="str">
+      <c r="R31" s="28" t="str">
         <f>IF(_tag_month_all!AM28="","",_tag_month_all!AM28)</f>
         <v/>
       </c>
-      <c r="R31" s="31" t="str">
+      <c r="S31" s="28" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="S31" s="31" t="str">
+      <c r="T31" s="28" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="T31" s="31" t="str">
+      <c r="U31" s="28" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="U31" s="31" t="str">
+      <c r="V31" s="28" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="V31" s="31" t="str">
+      <c r="W31" s="28" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="W31" s="31" t="str">
+      <c r="X31" s="28" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="X31" s="32" t="str">
+      <c r="Y31" s="29" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="Y31" s="32" t="str">
+      <c r="Z31" s="29" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="Z31" s="32" t="str">
+      <c r="AA31" s="29" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="AA31" s="32" t="str">
+      <c r="AB31" s="29" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="AB31" s="43" t="str">
+      <c r="AC31" s="40" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AC31" s="31" t="str">
+      <c r="AD31" s="28" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AD31" s="31" t="str">
+      <c r="AE31" s="28" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AE31" s="32" t="str">
+      <c r="AF31" s="29" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AF31" s="31" t="str">
+      <c r="AG31" s="28" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AG31" s="31" t="str">
+      <c r="AH31" s="28" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AH31" s="31" t="str">
+      <c r="AI31" s="28" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AI31" s="31" t="str">
+      <c r="AJ31" s="28" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="31" t="str">
+      <c r="AK31" s="28" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AK31" s="32" t="str">
+      <c r="AL31" s="29" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AL31" s="32" t="str">
+      <c r="AM31" s="29" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AM31" s="32" t="str">
+      <c r="AN31" s="29" t="str">
         <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
         <v/>
       </c>
-      <c r="AN31" s="32" t="str">
+      <c r="AO31" s="29" t="str">
         <f>IF(_tag_month_all!AK28="","",_tag_month_all!AK28)</f>
         <v/>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:40">
-      <c r="A32" s="27">
+    <row r="32" s="1" customFormat="1" spans="1:41">
+      <c r="A32" s="24">
         <v>28</v>
       </c>
-      <c r="B32" s="28" t="str">
+      <c r="B32" s="25" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="29" t="str">
+      <c r="C32" s="26" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="30" t="str">
+      <c r="D32" s="27" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="31" t="str">
-        <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
-        <v/>
-      </c>
-      <c r="F32" s="32" t="str">
+      <c r="E32" s="28" t="str">
+        <f>IF(_tag_month_all!D29="","",_tag_month_all!D29*10000)</f>
+        <v/>
+      </c>
+      <c r="F32" s="29" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="31" t="str">
+      <c r="G32" s="28" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="32" t="str">
+      <c r="H32" s="29" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="32" t="str">
+      <c r="I32" s="29" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="43" t="str">
+      <c r="J32" s="40" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="43" t="str">
+      <c r="K32" s="40" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="32" t="str">
+      <c r="L32" s="29" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="32" t="str">
+      <c r="M32" s="29" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="43" t="str">
+      <c r="N32" s="40" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="32" t="str">
+      <c r="O32" s="29" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29*100)</f>
         <v/>
       </c>
-      <c r="P32" s="32" t="str">
+      <c r="P32" s="29" t="str">
+        <f>IF(_tag_month_all!AN29="","",_tag_month_all!AN29)</f>
+        <v/>
+      </c>
+      <c r="Q32" s="29" t="str">
         <f>IF(_tag_month_all!AL29="","",_tag_month_all!AL29)</f>
         <v/>
       </c>
-      <c r="Q32" s="31" t="str">
+      <c r="R32" s="28" t="str">
         <f>IF(_tag_month_all!AM29="","",_tag_month_all!AM29)</f>
         <v/>
       </c>
-      <c r="R32" s="31" t="str">
+      <c r="S32" s="28" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="S32" s="31" t="str">
+      <c r="T32" s="28" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="T32" s="31" t="str">
+      <c r="U32" s="28" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="U32" s="31" t="str">
+      <c r="V32" s="28" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="V32" s="31" t="str">
+      <c r="W32" s="28" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="W32" s="31" t="str">
+      <c r="X32" s="28" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="X32" s="32" t="str">
+      <c r="Y32" s="29" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="Y32" s="32" t="str">
+      <c r="Z32" s="29" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="Z32" s="32" t="str">
+      <c r="AA32" s="29" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="AA32" s="32" t="str">
+      <c r="AB32" s="29" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="AB32" s="43" t="str">
+      <c r="AC32" s="40" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AC32" s="31" t="str">
+      <c r="AD32" s="28" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AD32" s="31" t="str">
+      <c r="AE32" s="28" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AE32" s="32" t="str">
+      <c r="AF32" s="29" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AF32" s="31" t="str">
+      <c r="AG32" s="28" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AG32" s="31" t="str">
+      <c r="AH32" s="28" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AH32" s="31" t="str">
+      <c r="AI32" s="28" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AI32" s="31" t="str">
+      <c r="AJ32" s="28" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="31" t="str">
+      <c r="AK32" s="28" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AK32" s="32" t="str">
+      <c r="AL32" s="29" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AL32" s="32" t="str">
+      <c r="AM32" s="29" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AM32" s="32" t="str">
+      <c r="AN32" s="29" t="str">
         <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
         <v/>
       </c>
-      <c r="AN32" s="32" t="str">
+      <c r="AO32" s="29" t="str">
         <f>IF(_tag_month_all!AK29="","",_tag_month_all!AK29)</f>
         <v/>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:40">
-      <c r="A33" s="27">
+    <row r="33" s="1" customFormat="1" spans="1:41">
+      <c r="A33" s="24">
         <v>29</v>
       </c>
-      <c r="B33" s="28" t="str">
+      <c r="B33" s="25" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="29" t="str">
+      <c r="C33" s="26" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="30" t="str">
+      <c r="D33" s="27" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="31" t="str">
-        <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
-        <v/>
-      </c>
-      <c r="F33" s="32" t="str">
+      <c r="E33" s="28" t="str">
+        <f>IF(_tag_month_all!D30="","",_tag_month_all!D30*10000)</f>
+        <v/>
+      </c>
+      <c r="F33" s="29" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="31" t="str">
+      <c r="G33" s="28" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="32" t="str">
+      <c r="H33" s="29" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="32" t="str">
+      <c r="I33" s="29" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="43" t="str">
+      <c r="J33" s="40" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="43" t="str">
+      <c r="K33" s="40" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="32" t="str">
+      <c r="L33" s="29" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="32" t="str">
+      <c r="M33" s="29" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="43" t="str">
+      <c r="N33" s="40" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="32" t="str">
+      <c r="O33" s="29" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30*100)</f>
         <v/>
       </c>
-      <c r="P33" s="32" t="str">
+      <c r="P33" s="29" t="str">
+        <f>IF(_tag_month_all!AN30="","",_tag_month_all!AN30)</f>
+        <v/>
+      </c>
+      <c r="Q33" s="29" t="str">
         <f>IF(_tag_month_all!AL30="","",_tag_month_all!AL30)</f>
         <v/>
       </c>
-      <c r="Q33" s="31" t="str">
+      <c r="R33" s="28" t="str">
         <f>IF(_tag_month_all!AM30="","",_tag_month_all!AM30)</f>
         <v/>
       </c>
-      <c r="R33" s="31" t="str">
+      <c r="S33" s="28" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="S33" s="31" t="str">
+      <c r="T33" s="28" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="T33" s="31" t="str">
+      <c r="U33" s="28" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="U33" s="31" t="str">
+      <c r="V33" s="28" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="V33" s="31" t="str">
+      <c r="W33" s="28" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="W33" s="31" t="str">
+      <c r="X33" s="28" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="X33" s="32" t="str">
+      <c r="Y33" s="29" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="Y33" s="32" t="str">
+      <c r="Z33" s="29" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="Z33" s="32" t="str">
+      <c r="AA33" s="29" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="AA33" s="32" t="str">
+      <c r="AB33" s="29" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="AB33" s="43" t="str">
+      <c r="AC33" s="40" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AC33" s="31" t="str">
+      <c r="AD33" s="28" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AD33" s="31" t="str">
+      <c r="AE33" s="28" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AE33" s="32" t="str">
+      <c r="AF33" s="29" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AF33" s="31" t="str">
+      <c r="AG33" s="28" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AG33" s="31" t="str">
+      <c r="AH33" s="28" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AH33" s="31" t="str">
+      <c r="AI33" s="28" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AI33" s="31" t="str">
+      <c r="AJ33" s="28" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="31" t="str">
+      <c r="AK33" s="28" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AK33" s="32" t="str">
+      <c r="AL33" s="29" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AL33" s="32" t="str">
+      <c r="AM33" s="29" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AM33" s="32" t="str">
+      <c r="AN33" s="29" t="str">
         <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
         <v/>
       </c>
-      <c r="AN33" s="32" t="str">
+      <c r="AO33" s="29" t="str">
         <f>IF(_tag_month_all!AK30="","",_tag_month_all!AK30)</f>
         <v/>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:40">
-      <c r="A34" s="27">
+    <row r="34" s="1" customFormat="1" spans="1:41">
+      <c r="A34" s="24">
         <v>30</v>
       </c>
-      <c r="B34" s="28" t="str">
+      <c r="B34" s="25" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="29" t="str">
+      <c r="C34" s="26" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="30" t="str">
+      <c r="D34" s="27" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="31" t="str">
-        <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
-        <v/>
-      </c>
-      <c r="F34" s="32" t="str">
+      <c r="E34" s="28" t="str">
+        <f>IF(_tag_month_all!D31="","",_tag_month_all!D31*10000)</f>
+        <v/>
+      </c>
+      <c r="F34" s="29" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="31" t="str">
+      <c r="G34" s="28" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="32" t="str">
+      <c r="H34" s="29" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="32" t="str">
+      <c r="I34" s="29" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="43" t="str">
+      <c r="J34" s="40" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="43" t="str">
+      <c r="K34" s="40" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="32" t="str">
+      <c r="L34" s="29" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="32" t="str">
+      <c r="M34" s="29" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="43" t="str">
+      <c r="N34" s="40" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="32" t="str">
+      <c r="O34" s="29" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31*100)</f>
         <v/>
       </c>
-      <c r="P34" s="32" t="str">
+      <c r="P34" s="29" t="str">
+        <f>IF(_tag_month_all!AN31="","",_tag_month_all!AN31)</f>
+        <v/>
+      </c>
+      <c r="Q34" s="29" t="str">
         <f>IF(_tag_month_all!AL31="","",_tag_month_all!AL31)</f>
         <v/>
       </c>
-      <c r="Q34" s="31" t="str">
+      <c r="R34" s="28" t="str">
         <f>IF(_tag_month_all!AM31="","",_tag_month_all!AM31)</f>
         <v/>
       </c>
-      <c r="R34" s="31" t="str">
+      <c r="S34" s="28" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="S34" s="31" t="str">
+      <c r="T34" s="28" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="T34" s="31" t="str">
+      <c r="U34" s="28" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="U34" s="31" t="str">
+      <c r="V34" s="28" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="V34" s="31" t="str">
+      <c r="W34" s="28" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="W34" s="31" t="str">
+      <c r="X34" s="28" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="X34" s="32" t="str">
+      <c r="Y34" s="29" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="Y34" s="32" t="str">
+      <c r="Z34" s="29" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="Z34" s="32" t="str">
+      <c r="AA34" s="29" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="AA34" s="32" t="str">
+      <c r="AB34" s="29" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="AB34" s="43" t="str">
+      <c r="AC34" s="40" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AC34" s="31" t="str">
+      <c r="AD34" s="28" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AD34" s="31" t="str">
+      <c r="AE34" s="28" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AE34" s="32" t="str">
+      <c r="AF34" s="29" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AF34" s="31" t="str">
+      <c r="AG34" s="28" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AG34" s="31" t="str">
+      <c r="AH34" s="28" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AH34" s="31" t="str">
+      <c r="AI34" s="28" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AI34" s="31" t="str">
+      <c r="AJ34" s="28" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="31" t="str">
+      <c r="AK34" s="28" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AK34" s="32" t="str">
+      <c r="AL34" s="29" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AL34" s="32" t="str">
+      <c r="AM34" s="29" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AM34" s="32" t="str">
+      <c r="AN34" s="29" t="str">
         <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
         <v/>
       </c>
-      <c r="AN34" s="32" t="str">
+      <c r="AO34" s="29" t="str">
         <f>IF(_tag_month_all!AK31="","",_tag_month_all!AK31)</f>
         <v/>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" spans="1:40">
-      <c r="A35" s="27">
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:41">
+      <c r="A35" s="24">
         <v>31</v>
       </c>
-      <c r="B35" s="28" t="str">
+      <c r="B35" s="25" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="29" t="str">
+      <c r="C35" s="26" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="30" t="str">
+      <c r="D35" s="27" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="31" t="str">
-        <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
-        <v/>
-      </c>
-      <c r="F35" s="32" t="str">
+      <c r="E35" s="28" t="str">
+        <f>IF(_tag_month_all!D32="","",_tag_month_all!D32*10000)</f>
+        <v/>
+      </c>
+      <c r="F35" s="29" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="31" t="str">
+      <c r="G35" s="28" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="32" t="str">
+      <c r="H35" s="29" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="32" t="str">
+      <c r="I35" s="29" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="43" t="str">
+      <c r="J35" s="40" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="43" t="str">
+      <c r="K35" s="40" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="32" t="str">
+      <c r="L35" s="29" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="32" t="str">
+      <c r="M35" s="29" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="43" t="str">
+      <c r="N35" s="40" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="32" t="str">
+      <c r="O35" s="29" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32*100)</f>
         <v/>
       </c>
-      <c r="P35" s="32" t="str">
+      <c r="P35" s="29" t="str">
+        <f>IF(_tag_month_all!AN32="","",_tag_month_all!AN32)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="29" t="str">
         <f>IF(_tag_month_all!AL32="","",_tag_month_all!AL32)</f>
         <v/>
       </c>
-      <c r="Q35" s="31" t="str">
+      <c r="R35" s="28" t="str">
         <f>IF(_tag_month_all!AM32="","",_tag_month_all!AM32)</f>
         <v/>
       </c>
-      <c r="R35" s="31" t="str">
+      <c r="S35" s="28" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="S35" s="31" t="str">
+      <c r="T35" s="28" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="T35" s="31" t="str">
+      <c r="U35" s="28" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="U35" s="31" t="str">
+      <c r="V35" s="28" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="V35" s="31" t="str">
+      <c r="W35" s="28" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="W35" s="31" t="str">
+      <c r="X35" s="28" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="X35" s="32" t="str">
+      <c r="Y35" s="29" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="Y35" s="32" t="str">
+      <c r="Z35" s="29" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="Z35" s="32" t="str">
+      <c r="AA35" s="29" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="AA35" s="32" t="str">
+      <c r="AB35" s="29" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="AB35" s="43" t="str">
+      <c r="AC35" s="40" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AC35" s="31" t="str">
+      <c r="AD35" s="28" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AD35" s="31" t="str">
+      <c r="AE35" s="28" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AE35" s="32" t="str">
+      <c r="AF35" s="29" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AF35" s="31" t="str">
+      <c r="AG35" s="28" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AG35" s="31" t="str">
+      <c r="AH35" s="28" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AH35" s="31" t="str">
+      <c r="AI35" s="28" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AI35" s="31" t="str">
+      <c r="AJ35" s="28" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="31" t="str">
+      <c r="AK35" s="28" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AK35" s="32" t="str">
+      <c r="AL35" s="29" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AL35" s="32" t="str">
+      <c r="AM35" s="29" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AM35" s="32" t="str">
+      <c r="AN35" s="29" t="str">
         <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
         <v/>
       </c>
-      <c r="AN35" s="32" t="str">
+      <c r="AO35" s="29" t="str">
         <f>IF(_tag_month_all!AK32="","",_tag_month_all!AK32)</f>
         <v/>
       </c>
     </row>
-    <row r="36" s="14" customFormat="1" spans="1:40">
-      <c r="A36" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="34" t="str">
-        <f t="shared" ref="B36:Q36" si="0">IFERROR(AVERAGE(B5:B35),"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="35" t="str">
+    <row r="36" customFormat="1" ht="15" spans="1:41">
+      <c r="A36" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="31" t="str">
+        <f t="shared" ref="B36:P36" si="0">IFERROR(AVERAGE(B5:B35),"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="35" t="str">
+      <c r="D36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="36" t="str">
+      <c r="E36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="35" t="str">
+      <c r="F36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="37" t="str">
+      <c r="G36" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="37" t="str">
+      <c r="H36" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="35" t="str">
+      <c r="I36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="35" t="str">
+      <c r="J36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="36" t="str">
+      <c r="K36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="34" t="str">
+      <c r="L36" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="35" t="str">
+      <c r="M36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="35" t="str">
+      <c r="N36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="35" t="str">
+      <c r="O36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="35" t="str">
+      <c r="P36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R36" s="36" t="str">
-        <f t="shared" ref="R36:AN36" si="1">IFERROR(AVERAGE(R5:R35),"")</f>
-        <v/>
-      </c>
-      <c r="S36" s="35" t="str">
+      <c r="Q36" s="32" t="str">
+        <f t="shared" ref="Q36:AO36" si="1">IFERROR(AVERAGE(Q5:Q35),"")</f>
+        <v/>
+      </c>
+      <c r="R36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="36" t="str">
+      <c r="S36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="36" t="str">
+      <c r="T36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="34" t="str">
+      <c r="U36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="35" t="str">
+      <c r="V36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="35" t="str">
+      <c r="W36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="36" t="str">
+      <c r="X36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="35" t="str">
+      <c r="Y36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="35" t="str">
+      <c r="Z36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="35" t="str">
+      <c r="AA36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="35" t="str">
+      <c r="AB36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="35" t="str">
+      <c r="AC36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="35" t="str">
+      <c r="AD36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="35" t="str">
+      <c r="AE36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="36" t="str">
+      <c r="AF36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="36" t="str">
+      <c r="AG36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="35" t="str">
+      <c r="AH36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="35" t="str">
+      <c r="AI36" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK36" s="35" t="str">
+      <c r="AJ36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL36" s="35" t="str">
+      <c r="AK36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM36" s="35" t="str">
+      <c r="AL36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN36" s="35" t="str">
+      <c r="AM36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AN36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO36" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7261,14 +7310,14 @@
     <row r="44" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="B2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -7280,12 +7329,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7299,18 +7349,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>81</v>
+      <c r="A1" t="s">
+        <v>82</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7320,138 +7371,140 @@
   <sheetPr/>
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="$A2:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="16" max="16" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="77.4" customHeight="1" spans="1:41">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="N1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="X1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AG1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AL1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="12"/>
+      <c r="AK1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/7高炉/7高炉参数月报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数月报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="_tag_month_all" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -166,6 +166,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -175,6 +176,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -186,6 +188,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -195,6 +198,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -206,6 +210,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -215,6 +220,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -368,16 +374,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,198 +390,76 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="2"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,198 +480,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
-        <bgColor theme="0" tint="-0.149876400036622"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <bgColor theme="0" tint="-0.1498458815271462"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -936,36 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
@@ -991,260 +655,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,7 +675,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,25 +694,13 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,13 +712,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,120 +727,70 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1646,21 +1006,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.775" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="9" style="12"/>
     <col min="3" max="4" width="9" style="13"/>
     <col min="5" max="5" width="9" style="12"/>
@@ -1680,229 +1040,229 @@
     <col min="32" max="32" width="9" style="14"/>
     <col min="33" max="35" width="9" style="12"/>
     <col min="36" max="37" width="9" style="12" customWidth="1"/>
-    <col min="38" max="38" width="9.88333333333333" style="14" customWidth="1"/>
+    <col min="38" max="38" width="9.875" style="14" customWidth="1"/>
     <col min="39" max="40" width="9" style="14"/>
-    <col min="41" max="41" width="8.66666666666667" style="14" customWidth="1"/>
+    <col min="41" max="41" width="8.625" style="14" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:39">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:41" ht="25.5">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:41">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:41" ht="19.5" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="48" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="51" t="s">
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="54"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="47"/>
     </row>
-    <row r="3" ht="36.75" spans="1:41">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:41" ht="36">
+      <c r="A3" s="49"/>
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AC3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AF3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="53" t="s">
+      <c r="AH3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AJ3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="53" t="s">
+      <c r="AK3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="22" t="s">
+      <c r="AN3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="77.4" hidden="1" customHeight="1" spans="1:41">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:41" ht="77.45" hidden="1" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1949,7 +1309,7 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="43"/>
+      <c r="R4" s="28"/>
       <c r="S4" s="6" t="s">
         <v>59</v>
       </c>
@@ -2020,5294 +1380,5294 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="24">
+    <row r="5" spans="1:41" ht="14.25">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="21" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="22" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="23" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="24" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2*10000)</f>
         <v/>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="25" t="str">
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="28" t="str">
+      <c r="G5" s="24" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="29" t="str">
+      <c r="H5" s="25" t="str">
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="29" t="str">
+      <c r="I5" s="25" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="27" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="40" t="str">
+      <c r="K5" s="27" t="str">
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="29" t="str">
+      <c r="L5" s="25" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="29" t="str">
+      <c r="M5" s="25" t="str">
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="40" t="str">
+      <c r="N5" s="27" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="29" t="str">
+      <c r="O5" s="25" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="29" t="str">
+      <c r="P5" s="25" t="str">
         <f>IF(_tag_month_all!AN2="","",_tag_month_all!AN2)</f>
         <v/>
       </c>
-      <c r="Q5" s="29" t="str">
+      <c r="Q5" s="25" t="str">
         <f>IF(_tag_month_all!AL2="","",_tag_month_all!AL2)</f>
         <v/>
       </c>
-      <c r="R5" s="28" t="str">
+      <c r="R5" s="24" t="str">
         <f>IF(_tag_month_all!AM2="","",_tag_month_all!AM2)</f>
         <v/>
       </c>
-      <c r="S5" s="28" t="str">
+      <c r="S5" s="24" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="T5" s="28" t="str">
+      <c r="T5" s="24" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="U5" s="28" t="str">
+      <c r="U5" s="24" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="V5" s="28" t="str">
+      <c r="V5" s="24" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="W5" s="28" t="str">
+      <c r="W5" s="24" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="X5" s="28" t="str">
+      <c r="X5" s="24" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="Y5" s="29" t="str">
+      <c r="Y5" s="25" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="Z5" s="29" t="str">
+      <c r="Z5" s="25" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="AA5" s="29" t="str">
+      <c r="AA5" s="25" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="AB5" s="29" t="str">
+      <c r="AB5" s="25" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="AC5" s="40" t="str">
+      <c r="AC5" s="27" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AD5" s="28" t="str">
+      <c r="AD5" s="24" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AE5" s="28" t="str">
+      <c r="AE5" s="24" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AF5" s="29" t="str">
+      <c r="AF5" s="25" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AG5" s="28" t="str">
+      <c r="AG5" s="24" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AH5" s="28" t="str">
+      <c r="AH5" s="24" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AI5" s="28" t="str">
+      <c r="AI5" s="24" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="28" t="str">
+      <c r="AJ5" s="24" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AK5" s="28" t="str">
+      <c r="AK5" s="24" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AL5" s="29" t="str">
+      <c r="AL5" s="25" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AM5" s="29" t="str">
+      <c r="AM5" s="25" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-      <c r="AN5" s="29" t="str">
+      <c r="AN5" s="25" t="str">
         <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AO5" s="29" t="str">
+      <c r="AO5" s="25" t="str">
         <f>IF(_tag_month_all!AK2="","",_tag_month_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="24">
+    <row r="6" spans="1:41" ht="14.25">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="21" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="22" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="23" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="24" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3*10000)</f>
         <v/>
       </c>
-      <c r="F6" s="29" t="str">
+      <c r="F6" s="25" t="str">
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="28" t="str">
+      <c r="G6" s="24" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="29" t="str">
+      <c r="H6" s="25" t="str">
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="29" t="str">
+      <c r="I6" s="25" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="27" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="40" t="str">
+      <c r="K6" s="27" t="str">
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="29" t="str">
+      <c r="L6" s="25" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="29" t="str">
+      <c r="M6" s="25" t="str">
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="40" t="str">
+      <c r="N6" s="27" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="29" t="str">
+      <c r="O6" s="25" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="29" t="str">
+      <c r="P6" s="25" t="str">
         <f>IF(_tag_month_all!AN3="","",_tag_month_all!AN3)</f>
         <v/>
       </c>
-      <c r="Q6" s="29" t="str">
+      <c r="Q6" s="25" t="str">
         <f>IF(_tag_month_all!AL3="","",_tag_month_all!AL3)</f>
         <v/>
       </c>
-      <c r="R6" s="28" t="str">
+      <c r="R6" s="24" t="str">
         <f>IF(_tag_month_all!AM3="","",_tag_month_all!AM3)</f>
         <v/>
       </c>
-      <c r="S6" s="28" t="str">
+      <c r="S6" s="24" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="T6" s="28" t="str">
+      <c r="T6" s="24" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="U6" s="28" t="str">
+      <c r="U6" s="24" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="V6" s="28" t="str">
+      <c r="V6" s="24" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="W6" s="28" t="str">
+      <c r="W6" s="24" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="X6" s="28" t="str">
+      <c r="X6" s="24" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="Y6" s="29" t="str">
+      <c r="Y6" s="25" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="Z6" s="29" t="str">
+      <c r="Z6" s="25" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="AA6" s="29" t="str">
+      <c r="AA6" s="25" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="AB6" s="29" t="str">
+      <c r="AB6" s="25" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="AC6" s="40" t="str">
+      <c r="AC6" s="27" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AD6" s="28" t="str">
+      <c r="AD6" s="24" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AE6" s="28" t="str">
+      <c r="AE6" s="24" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AF6" s="29" t="str">
+      <c r="AF6" s="25" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AG6" s="28" t="str">
+      <c r="AG6" s="24" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AH6" s="28" t="str">
+      <c r="AH6" s="24" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AI6" s="28" t="str">
+      <c r="AI6" s="24" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="28" t="str">
+      <c r="AJ6" s="24" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AK6" s="28" t="str">
+      <c r="AK6" s="24" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AL6" s="29" t="str">
+      <c r="AL6" s="25" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AM6" s="29" t="str">
+      <c r="AM6" s="25" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-      <c r="AN6" s="29" t="str">
+      <c r="AN6" s="25" t="str">
         <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AO6" s="29" t="str">
+      <c r="AO6" s="25" t="str">
         <f>IF(_tag_month_all!AK3="","",_tag_month_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="24">
+    <row r="7" spans="1:41" ht="14.25">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="21" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="22" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="23" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="24" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4*10000)</f>
         <v/>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="25" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="24" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="25" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="29" t="str">
+      <c r="I7" s="25" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="27" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="40" t="str">
+      <c r="K7" s="27" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="29" t="str">
+      <c r="L7" s="25" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="29" t="str">
+      <c r="M7" s="25" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="40" t="str">
+      <c r="N7" s="27" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="29" t="str">
+      <c r="O7" s="25" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="29" t="str">
+      <c r="P7" s="25" t="str">
         <f>IF(_tag_month_all!AN4="","",_tag_month_all!AN4)</f>
         <v/>
       </c>
-      <c r="Q7" s="29" t="str">
+      <c r="Q7" s="25" t="str">
         <f>IF(_tag_month_all!AL4="","",_tag_month_all!AL4)</f>
         <v/>
       </c>
-      <c r="R7" s="28" t="str">
+      <c r="R7" s="24" t="str">
         <f>IF(_tag_month_all!AM4="","",_tag_month_all!AM4)</f>
         <v/>
       </c>
-      <c r="S7" s="28" t="str">
+      <c r="S7" s="24" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="T7" s="28" t="str">
+      <c r="T7" s="24" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="U7" s="28" t="str">
+      <c r="U7" s="24" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="V7" s="28" t="str">
+      <c r="V7" s="24" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="W7" s="28" t="str">
+      <c r="W7" s="24" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="X7" s="28" t="str">
+      <c r="X7" s="24" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="Y7" s="29" t="str">
+      <c r="Y7" s="25" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="Z7" s="29" t="str">
+      <c r="Z7" s="25" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="AA7" s="29" t="str">
+      <c r="AA7" s="25" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="AB7" s="29" t="str">
+      <c r="AB7" s="25" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="AC7" s="40" t="str">
+      <c r="AC7" s="27" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AD7" s="28" t="str">
+      <c r="AD7" s="24" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AE7" s="28" t="str">
+      <c r="AE7" s="24" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AF7" s="29" t="str">
+      <c r="AF7" s="25" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AG7" s="28" t="str">
+      <c r="AG7" s="24" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AH7" s="28" t="str">
+      <c r="AH7" s="24" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AI7" s="28" t="str">
+      <c r="AI7" s="24" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="28" t="str">
+      <c r="AJ7" s="24" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AK7" s="28" t="str">
+      <c r="AK7" s="24" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AL7" s="29" t="str">
+      <c r="AL7" s="25" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AM7" s="29" t="str">
+      <c r="AM7" s="25" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AN7" s="29" t="str">
+      <c r="AN7" s="25" t="str">
         <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AO7" s="29" t="str">
+      <c r="AO7" s="25" t="str">
         <f>IF(_tag_month_all!AK4="","",_tag_month_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="24">
+    <row r="8" spans="1:41" ht="14.25">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="21" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="22" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="23" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="24" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5*10000)</f>
         <v/>
       </c>
-      <c r="F8" s="29" t="str">
+      <c r="F8" s="25" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="24" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="29" t="str">
+      <c r="H8" s="25" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="29" t="str">
+      <c r="I8" s="25" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="27" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="40" t="str">
+      <c r="K8" s="27" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="29" t="str">
+      <c r="L8" s="25" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="29" t="str">
+      <c r="M8" s="25" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="40" t="str">
+      <c r="N8" s="27" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="25" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="29" t="str">
+      <c r="P8" s="25" t="str">
         <f>IF(_tag_month_all!AN5="","",_tag_month_all!AN5)</f>
         <v/>
       </c>
-      <c r="Q8" s="29" t="str">
+      <c r="Q8" s="25" t="str">
         <f>IF(_tag_month_all!AL5="","",_tag_month_all!AL5)</f>
         <v/>
       </c>
-      <c r="R8" s="28" t="str">
+      <c r="R8" s="24" t="str">
         <f>IF(_tag_month_all!AM5="","",_tag_month_all!AM5)</f>
         <v/>
       </c>
-      <c r="S8" s="28" t="str">
+      <c r="S8" s="24" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="T8" s="28" t="str">
+      <c r="T8" s="24" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="U8" s="28" t="str">
+      <c r="U8" s="24" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="V8" s="28" t="str">
+      <c r="V8" s="24" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="W8" s="28" t="str">
+      <c r="W8" s="24" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="X8" s="28" t="str">
+      <c r="X8" s="24" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="Y8" s="29" t="str">
+      <c r="Y8" s="25" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="Z8" s="29" t="str">
+      <c r="Z8" s="25" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="AA8" s="29" t="str">
+      <c r="AA8" s="25" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="AB8" s="29" t="str">
+      <c r="AB8" s="25" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="AC8" s="40" t="str">
+      <c r="AC8" s="27" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AD8" s="28" t="str">
+      <c r="AD8" s="24" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AE8" s="28" t="str">
+      <c r="AE8" s="24" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AF8" s="29" t="str">
+      <c r="AF8" s="25" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AG8" s="28" t="str">
+      <c r="AG8" s="24" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AH8" s="28" t="str">
+      <c r="AH8" s="24" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AI8" s="28" t="str">
+      <c r="AI8" s="24" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="28" t="str">
+      <c r="AJ8" s="24" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AK8" s="28" t="str">
+      <c r="AK8" s="24" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AL8" s="29" t="str">
+      <c r="AL8" s="25" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AM8" s="29" t="str">
+      <c r="AM8" s="25" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AN8" s="29" t="str">
+      <c r="AN8" s="25" t="str">
         <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AO8" s="29" t="str">
+      <c r="AO8" s="25" t="str">
         <f>IF(_tag_month_all!AK5="","",_tag_month_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41">
-      <c r="A9" s="24">
+    <row r="9" spans="1:41" ht="14.25">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="21" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="22" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="23" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="24" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6*10000)</f>
         <v/>
       </c>
-      <c r="F9" s="29" t="str">
+      <c r="F9" s="25" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="24" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="25" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="29" t="str">
+      <c r="I9" s="25" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="27" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="40" t="str">
+      <c r="K9" s="27" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="29" t="str">
+      <c r="L9" s="25" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="29" t="str">
+      <c r="M9" s="25" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="40" t="str">
+      <c r="N9" s="27" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="29" t="str">
+      <c r="O9" s="25" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="29" t="str">
+      <c r="P9" s="25" t="str">
         <f>IF(_tag_month_all!AN6="","",_tag_month_all!AN6)</f>
         <v/>
       </c>
-      <c r="Q9" s="29" t="str">
+      <c r="Q9" s="25" t="str">
         <f>IF(_tag_month_all!AL6="","",_tag_month_all!AL6)</f>
         <v/>
       </c>
-      <c r="R9" s="28" t="str">
+      <c r="R9" s="24" t="str">
         <f>IF(_tag_month_all!AM6="","",_tag_month_all!AM6)</f>
         <v/>
       </c>
-      <c r="S9" s="28" t="str">
+      <c r="S9" s="24" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="T9" s="28" t="str">
+      <c r="T9" s="24" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="U9" s="28" t="str">
+      <c r="U9" s="24" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="V9" s="28" t="str">
+      <c r="V9" s="24" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="W9" s="28" t="str">
+      <c r="W9" s="24" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="X9" s="28" t="str">
+      <c r="X9" s="24" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="Y9" s="29" t="str">
+      <c r="Y9" s="25" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="Z9" s="29" t="str">
+      <c r="Z9" s="25" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="AA9" s="29" t="str">
+      <c r="AA9" s="25" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="AB9" s="29" t="str">
+      <c r="AB9" s="25" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="AC9" s="40" t="str">
+      <c r="AC9" s="27" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AD9" s="28" t="str">
+      <c r="AD9" s="24" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AE9" s="28" t="str">
+      <c r="AE9" s="24" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AF9" s="29" t="str">
+      <c r="AF9" s="25" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AG9" s="28" t="str">
+      <c r="AG9" s="24" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AH9" s="28" t="str">
+      <c r="AH9" s="24" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AI9" s="28" t="str">
+      <c r="AI9" s="24" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="28" t="str">
+      <c r="AJ9" s="24" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AK9" s="28" t="str">
+      <c r="AK9" s="24" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AL9" s="29" t="str">
+      <c r="AL9" s="25" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AM9" s="29" t="str">
+      <c r="AM9" s="25" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AN9" s="29" t="str">
+      <c r="AN9" s="25" t="str">
         <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AO9" s="29" t="str">
+      <c r="AO9" s="25" t="str">
         <f>IF(_tag_month_all!AK6="","",_tag_month_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="24">
+    <row r="10" spans="1:41" ht="14.25">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="str">
+      <c r="B10" s="21" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="22" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="23" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="24" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7*10000)</f>
         <v/>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="25" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="24" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="25" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="25" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="27" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="40" t="str">
+      <c r="K10" s="27" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="L10" s="25" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="M10" s="25" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="40" t="str">
+      <c r="N10" s="27" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="O10" s="25" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="29" t="str">
+      <c r="P10" s="25" t="str">
         <f>IF(_tag_month_all!AN7="","",_tag_month_all!AN7)</f>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="Q10" s="25" t="str">
         <f>IF(_tag_month_all!AL7="","",_tag_month_all!AL7)</f>
         <v/>
       </c>
-      <c r="R10" s="28" t="str">
+      <c r="R10" s="24" t="str">
         <f>IF(_tag_month_all!AM7="","",_tag_month_all!AM7)</f>
         <v/>
       </c>
-      <c r="S10" s="28" t="str">
+      <c r="S10" s="24" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="T10" s="28" t="str">
+      <c r="T10" s="24" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="U10" s="28" t="str">
+      <c r="U10" s="24" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="V10" s="28" t="str">
+      <c r="V10" s="24" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="W10" s="28" t="str">
+      <c r="W10" s="24" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="X10" s="28" t="str">
+      <c r="X10" s="24" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="Y10" s="29" t="str">
+      <c r="Y10" s="25" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="Z10" s="29" t="str">
+      <c r="Z10" s="25" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="AA10" s="29" t="str">
+      <c r="AA10" s="25" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="AB10" s="29" t="str">
+      <c r="AB10" s="25" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="AC10" s="40" t="str">
+      <c r="AC10" s="27" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AD10" s="28" t="str">
+      <c r="AD10" s="24" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AE10" s="28" t="str">
+      <c r="AE10" s="24" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AF10" s="29" t="str">
+      <c r="AF10" s="25" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AG10" s="28" t="str">
+      <c r="AG10" s="24" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AH10" s="28" t="str">
+      <c r="AH10" s="24" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AI10" s="28" t="str">
+      <c r="AI10" s="24" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="28" t="str">
+      <c r="AJ10" s="24" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AK10" s="28" t="str">
+      <c r="AK10" s="24" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AL10" s="29" t="str">
+      <c r="AL10" s="25" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AM10" s="29" t="str">
+      <c r="AM10" s="25" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AN10" s="29" t="str">
+      <c r="AN10" s="25" t="str">
         <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AO10" s="29" t="str">
+      <c r="AO10" s="25" t="str">
         <f>IF(_tag_month_all!AK7="","",_tag_month_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41">
-      <c r="A11" s="24">
+    <row r="11" spans="1:41" ht="14.25">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="str">
+      <c r="B11" s="21" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="22" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="23" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="24" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8*10000)</f>
         <v/>
       </c>
-      <c r="F11" s="29" t="str">
+      <c r="F11" s="25" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="24" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="25" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="29" t="str">
+      <c r="I11" s="25" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="27" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="40" t="str">
+      <c r="K11" s="27" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="29" t="str">
+      <c r="L11" s="25" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="29" t="str">
+      <c r="M11" s="25" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="40" t="str">
+      <c r="N11" s="27" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="29" t="str">
+      <c r="O11" s="25" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="29" t="str">
+      <c r="P11" s="25" t="str">
         <f>IF(_tag_month_all!AN8="","",_tag_month_all!AN8)</f>
         <v/>
       </c>
-      <c r="Q11" s="29" t="str">
+      <c r="Q11" s="25" t="str">
         <f>IF(_tag_month_all!AL8="","",_tag_month_all!AL8)</f>
         <v/>
       </c>
-      <c r="R11" s="28" t="str">
+      <c r="R11" s="24" t="str">
         <f>IF(_tag_month_all!AM8="","",_tag_month_all!AM8)</f>
         <v/>
       </c>
-      <c r="S11" s="28" t="str">
+      <c r="S11" s="24" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="T11" s="28" t="str">
+      <c r="T11" s="24" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="U11" s="28" t="str">
+      <c r="U11" s="24" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="V11" s="28" t="str">
+      <c r="V11" s="24" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="W11" s="28" t="str">
+      <c r="W11" s="24" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="X11" s="28" t="str">
+      <c r="X11" s="24" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="Y11" s="29" t="str">
+      <c r="Y11" s="25" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="Z11" s="29" t="str">
+      <c r="Z11" s="25" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="25" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="AB11" s="29" t="str">
+      <c r="AB11" s="25" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="AC11" s="40" t="str">
+      <c r="AC11" s="27" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AD11" s="28" t="str">
+      <c r="AD11" s="24" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AE11" s="28" t="str">
+      <c r="AE11" s="24" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AF11" s="29" t="str">
+      <c r="AF11" s="25" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AG11" s="28" t="str">
+      <c r="AG11" s="24" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AH11" s="28" t="str">
+      <c r="AH11" s="24" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AI11" s="28" t="str">
+      <c r="AI11" s="24" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="28" t="str">
+      <c r="AJ11" s="24" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AK11" s="28" t="str">
+      <c r="AK11" s="24" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AL11" s="29" t="str">
+      <c r="AL11" s="25" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AM11" s="29" t="str">
+      <c r="AM11" s="25" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AN11" s="29" t="str">
+      <c r="AN11" s="25" t="str">
         <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AO11" s="29" t="str">
+      <c r="AO11" s="25" t="str">
         <f>IF(_tag_month_all!AK8="","",_tag_month_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41">
-      <c r="A12" s="24">
+    <row r="12" spans="1:41" ht="14.25">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="21" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="22" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="23" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="24" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9*10000)</f>
         <v/>
       </c>
-      <c r="F12" s="29" t="str">
+      <c r="F12" s="25" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="24" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="25" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="29" t="str">
+      <c r="I12" s="25" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="27" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="40" t="str">
+      <c r="K12" s="27" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="29" t="str">
+      <c r="L12" s="25" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="29" t="str">
+      <c r="M12" s="25" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="40" t="str">
+      <c r="N12" s="27" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="25" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="29" t="str">
+      <c r="P12" s="25" t="str">
         <f>IF(_tag_month_all!AN9="","",_tag_month_all!AN9)</f>
         <v/>
       </c>
-      <c r="Q12" s="29" t="str">
+      <c r="Q12" s="25" t="str">
         <f>IF(_tag_month_all!AL9="","",_tag_month_all!AL9)</f>
         <v/>
       </c>
-      <c r="R12" s="28" t="str">
+      <c r="R12" s="24" t="str">
         <f>IF(_tag_month_all!AM9="","",_tag_month_all!AM9)</f>
         <v/>
       </c>
-      <c r="S12" s="28" t="str">
+      <c r="S12" s="24" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="T12" s="28" t="str">
+      <c r="T12" s="24" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="U12" s="28" t="str">
+      <c r="U12" s="24" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="V12" s="28" t="str">
+      <c r="V12" s="24" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="W12" s="28" t="str">
+      <c r="W12" s="24" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="X12" s="28" t="str">
+      <c r="X12" s="24" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="Y12" s="29" t="str">
+      <c r="Y12" s="25" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="Z12" s="29" t="str">
+      <c r="Z12" s="25" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="AA12" s="29" t="str">
+      <c r="AA12" s="25" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="AB12" s="29" t="str">
+      <c r="AB12" s="25" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="AC12" s="40" t="str">
+      <c r="AC12" s="27" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AD12" s="28" t="str">
+      <c r="AD12" s="24" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AE12" s="28" t="str">
+      <c r="AE12" s="24" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AF12" s="29" t="str">
+      <c r="AF12" s="25" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AG12" s="28" t="str">
+      <c r="AG12" s="24" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AH12" s="28" t="str">
+      <c r="AH12" s="24" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AI12" s="28" t="str">
+      <c r="AI12" s="24" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="28" t="str">
+      <c r="AJ12" s="24" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AK12" s="28" t="str">
+      <c r="AK12" s="24" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AL12" s="29" t="str">
+      <c r="AL12" s="25" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AM12" s="29" t="str">
+      <c r="AM12" s="25" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AN12" s="29" t="str">
+      <c r="AN12" s="25" t="str">
         <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AO12" s="29" t="str">
+      <c r="AO12" s="25" t="str">
         <f>IF(_tag_month_all!AK9="","",_tag_month_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41">
-      <c r="A13" s="24">
+    <row r="13" spans="1:41" ht="14.25">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="21" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="22" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="23" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10*10000)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="25" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="25" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="25" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="27" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="40" t="str">
+      <c r="K13" s="27" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="29" t="str">
+      <c r="L13" s="25" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="29" t="str">
+      <c r="M13" s="25" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="40" t="str">
+      <c r="N13" s="27" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="25" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="29" t="str">
+      <c r="P13" s="25" t="str">
         <f>IF(_tag_month_all!AN10="","",_tag_month_all!AN10)</f>
         <v/>
       </c>
-      <c r="Q13" s="29" t="str">
+      <c r="Q13" s="25" t="str">
         <f>IF(_tag_month_all!AL10="","",_tag_month_all!AL10)</f>
         <v/>
       </c>
-      <c r="R13" s="28" t="str">
+      <c r="R13" s="24" t="str">
         <f>IF(_tag_month_all!AM10="","",_tag_month_all!AM10)</f>
         <v/>
       </c>
-      <c r="S13" s="28" t="str">
+      <c r="S13" s="24" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="T13" s="28" t="str">
+      <c r="T13" s="24" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="U13" s="28" t="str">
+      <c r="U13" s="24" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="V13" s="28" t="str">
+      <c r="V13" s="24" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="W13" s="28" t="str">
+      <c r="W13" s="24" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="X13" s="28" t="str">
+      <c r="X13" s="24" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
+      <c r="Y13" s="25" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Z13" s="25" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="25" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="AB13" s="29" t="str">
+      <c r="AB13" s="25" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="AC13" s="40" t="str">
+      <c r="AC13" s="27" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AD13" s="28" t="str">
+      <c r="AD13" s="24" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AE13" s="28" t="str">
+      <c r="AE13" s="24" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AF13" s="29" t="str">
+      <c r="AF13" s="25" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AG13" s="28" t="str">
+      <c r="AG13" s="24" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AH13" s="28" t="str">
+      <c r="AH13" s="24" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AI13" s="28" t="str">
+      <c r="AI13" s="24" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="28" t="str">
+      <c r="AJ13" s="24" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AK13" s="28" t="str">
+      <c r="AK13" s="24" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AL13" s="29" t="str">
+      <c r="AL13" s="25" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AM13" s="29" t="str">
+      <c r="AM13" s="25" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AN13" s="29" t="str">
+      <c r="AN13" s="25" t="str">
         <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AO13" s="29" t="str">
+      <c r="AO13" s="25" t="str">
         <f>IF(_tag_month_all!AK10="","",_tag_month_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:41">
-      <c r="A14" s="24">
+    <row r="14" spans="1:41" ht="14.25">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="21" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="22" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="23" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="24" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11*10000)</f>
         <v/>
       </c>
-      <c r="F14" s="29" t="str">
+      <c r="F14" s="25" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="24" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="29" t="str">
+      <c r="H14" s="25" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="29" t="str">
+      <c r="I14" s="25" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="27" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="40" t="str">
+      <c r="K14" s="27" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="29" t="str">
+      <c r="L14" s="25" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="29" t="str">
+      <c r="M14" s="25" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="40" t="str">
+      <c r="N14" s="27" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="29" t="str">
+      <c r="O14" s="25" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="29" t="str">
+      <c r="P14" s="25" t="str">
         <f>IF(_tag_month_all!AN11="","",_tag_month_all!AN11)</f>
         <v/>
       </c>
-      <c r="Q14" s="29" t="str">
+      <c r="Q14" s="25" t="str">
         <f>IF(_tag_month_all!AL11="","",_tag_month_all!AL11)</f>
         <v/>
       </c>
-      <c r="R14" s="28" t="str">
+      <c r="R14" s="24" t="str">
         <f>IF(_tag_month_all!AM11="","",_tag_month_all!AM11)</f>
         <v/>
       </c>
-      <c r="S14" s="28" t="str">
+      <c r="S14" s="24" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="T14" s="28" t="str">
+      <c r="T14" s="24" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="U14" s="28" t="str">
+      <c r="U14" s="24" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="V14" s="28" t="str">
+      <c r="V14" s="24" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="W14" s="28" t="str">
+      <c r="W14" s="24" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="X14" s="28" t="str">
+      <c r="X14" s="24" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="Y14" s="29" t="str">
+      <c r="Y14" s="25" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="Z14" s="29" t="str">
+      <c r="Z14" s="25" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="AA14" s="29" t="str">
+      <c r="AA14" s="25" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="AB14" s="29" t="str">
+      <c r="AB14" s="25" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="AC14" s="40" t="str">
+      <c r="AC14" s="27" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AD14" s="28" t="str">
+      <c r="AD14" s="24" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AE14" s="28" t="str">
+      <c r="AE14" s="24" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AF14" s="29" t="str">
+      <c r="AF14" s="25" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AG14" s="28" t="str">
+      <c r="AG14" s="24" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AH14" s="28" t="str">
+      <c r="AH14" s="24" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AI14" s="28" t="str">
+      <c r="AI14" s="24" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="28" t="str">
+      <c r="AJ14" s="24" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AK14" s="28" t="str">
+      <c r="AK14" s="24" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AL14" s="29" t="str">
+      <c r="AL14" s="25" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AM14" s="29" t="str">
+      <c r="AM14" s="25" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AN14" s="29" t="str">
+      <c r="AN14" s="25" t="str">
         <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AO14" s="29" t="str">
+      <c r="AO14" s="25" t="str">
         <f>IF(_tag_month_all!AK11="","",_tag_month_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41">
-      <c r="A15" s="24">
+    <row r="15" spans="1:41" ht="14.25">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="21" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="22" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="23" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="24" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12*10000)</f>
         <v/>
       </c>
-      <c r="F15" s="29" t="str">
+      <c r="F15" s="25" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="24" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="25" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
+      <c r="I15" s="25" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="27" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="40" t="str">
+      <c r="K15" s="27" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="29" t="str">
+      <c r="L15" s="25" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="29" t="str">
+      <c r="M15" s="25" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="40" t="str">
+      <c r="N15" s="27" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="29" t="str">
+      <c r="O15" s="25" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="29" t="str">
+      <c r="P15" s="25" t="str">
         <f>IF(_tag_month_all!AN12="","",_tag_month_all!AN12)</f>
         <v/>
       </c>
-      <c r="Q15" s="29" t="str">
+      <c r="Q15" s="25" t="str">
         <f>IF(_tag_month_all!AL12="","",_tag_month_all!AL12)</f>
         <v/>
       </c>
-      <c r="R15" s="28" t="str">
+      <c r="R15" s="24" t="str">
         <f>IF(_tag_month_all!AM12="","",_tag_month_all!AM12)</f>
         <v/>
       </c>
-      <c r="S15" s="28" t="str">
+      <c r="S15" s="24" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="T15" s="28" t="str">
+      <c r="T15" s="24" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="U15" s="28" t="str">
+      <c r="U15" s="24" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="V15" s="28" t="str">
+      <c r="V15" s="24" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="W15" s="28" t="str">
+      <c r="W15" s="24" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="X15" s="28" t="str">
+      <c r="X15" s="24" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="Y15" s="29" t="str">
+      <c r="Y15" s="25" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="Z15" s="29" t="str">
+      <c r="Z15" s="25" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="AA15" s="29" t="str">
+      <c r="AA15" s="25" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="AB15" s="29" t="str">
+      <c r="AB15" s="25" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="AC15" s="40" t="str">
+      <c r="AC15" s="27" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AD15" s="28" t="str">
+      <c r="AD15" s="24" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AE15" s="28" t="str">
+      <c r="AE15" s="24" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AF15" s="29" t="str">
+      <c r="AF15" s="25" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AG15" s="28" t="str">
+      <c r="AG15" s="24" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AH15" s="28" t="str">
+      <c r="AH15" s="24" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AI15" s="28" t="str">
+      <c r="AI15" s="24" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="28" t="str">
+      <c r="AJ15" s="24" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AK15" s="28" t="str">
+      <c r="AK15" s="24" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AL15" s="29" t="str">
+      <c r="AL15" s="25" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AM15" s="29" t="str">
+      <c r="AM15" s="25" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AN15" s="29" t="str">
+      <c r="AN15" s="25" t="str">
         <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AO15" s="29" t="str">
+      <c r="AO15" s="25" t="str">
         <f>IF(_tag_month_all!AK12="","",_tag_month_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="24">
+    <row r="16" spans="1:41" ht="14.25">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="21" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="22" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="24" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13*10000)</f>
         <v/>
       </c>
-      <c r="F16" s="29" t="str">
+      <c r="F16" s="25" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="24" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="29" t="str">
+      <c r="H16" s="25" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="29" t="str">
+      <c r="I16" s="25" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="27" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="40" t="str">
+      <c r="K16" s="27" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="29" t="str">
+      <c r="L16" s="25" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="29" t="str">
+      <c r="M16" s="25" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="40" t="str">
+      <c r="N16" s="27" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="29" t="str">
+      <c r="O16" s="25" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="29" t="str">
+      <c r="P16" s="25" t="str">
         <f>IF(_tag_month_all!AN13="","",_tag_month_all!AN13)</f>
         <v/>
       </c>
-      <c r="Q16" s="29" t="str">
+      <c r="Q16" s="25" t="str">
         <f>IF(_tag_month_all!AL13="","",_tag_month_all!AL13)</f>
         <v/>
       </c>
-      <c r="R16" s="28" t="str">
+      <c r="R16" s="24" t="str">
         <f>IF(_tag_month_all!AM13="","",_tag_month_all!AM13)</f>
         <v/>
       </c>
-      <c r="S16" s="28" t="str">
+      <c r="S16" s="24" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="T16" s="28" t="str">
+      <c r="T16" s="24" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="U16" s="28" t="str">
+      <c r="U16" s="24" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="V16" s="28" t="str">
+      <c r="V16" s="24" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="W16" s="28" t="str">
+      <c r="W16" s="24" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="X16" s="28" t="str">
+      <c r="X16" s="24" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="Y16" s="29" t="str">
+      <c r="Y16" s="25" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="Z16" s="29" t="str">
+      <c r="Z16" s="25" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="AA16" s="29" t="str">
+      <c r="AA16" s="25" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="AB16" s="29" t="str">
+      <c r="AB16" s="25" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="AC16" s="40" t="str">
+      <c r="AC16" s="27" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AD16" s="28" t="str">
+      <c r="AD16" s="24" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AE16" s="28" t="str">
+      <c r="AE16" s="24" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AF16" s="29" t="str">
+      <c r="AF16" s="25" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AG16" s="28" t="str">
+      <c r="AG16" s="24" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AH16" s="28" t="str">
+      <c r="AH16" s="24" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AI16" s="28" t="str">
+      <c r="AI16" s="24" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="28" t="str">
+      <c r="AJ16" s="24" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AK16" s="28" t="str">
+      <c r="AK16" s="24" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AL16" s="29" t="str">
+      <c r="AL16" s="25" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AM16" s="29" t="str">
+      <c r="AM16" s="25" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AN16" s="29" t="str">
+      <c r="AN16" s="25" t="str">
         <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AO16" s="29" t="str">
+      <c r="AO16" s="25" t="str">
         <f>IF(_tag_month_all!AK13="","",_tag_month_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="24">
+    <row r="17" spans="1:41" ht="14.25">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="21" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="22" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="24" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14*10000)</f>
         <v/>
       </c>
-      <c r="F17" s="29" t="str">
+      <c r="F17" s="25" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="24" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="29" t="str">
+      <c r="H17" s="25" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="29" t="str">
+      <c r="I17" s="25" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="27" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="40" t="str">
+      <c r="K17" s="27" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="29" t="str">
+      <c r="L17" s="25" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="29" t="str">
+      <c r="M17" s="25" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="40" t="str">
+      <c r="N17" s="27" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="29" t="str">
+      <c r="O17" s="25" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
+      <c r="P17" s="25" t="str">
         <f>IF(_tag_month_all!AN14="","",_tag_month_all!AN14)</f>
         <v/>
       </c>
-      <c r="Q17" s="29" t="str">
+      <c r="Q17" s="25" t="str">
         <f>IF(_tag_month_all!AL14="","",_tag_month_all!AL14)</f>
         <v/>
       </c>
-      <c r="R17" s="28" t="str">
+      <c r="R17" s="24" t="str">
         <f>IF(_tag_month_all!AM14="","",_tag_month_all!AM14)</f>
         <v/>
       </c>
-      <c r="S17" s="28" t="str">
+      <c r="S17" s="24" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="T17" s="28" t="str">
+      <c r="T17" s="24" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="U17" s="28" t="str">
+      <c r="U17" s="24" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="V17" s="28" t="str">
+      <c r="V17" s="24" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="W17" s="28" t="str">
+      <c r="W17" s="24" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="X17" s="28" t="str">
+      <c r="X17" s="24" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="Y17" s="29" t="str">
+      <c r="Y17" s="25" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="Z17" s="29" t="str">
+      <c r="Z17" s="25" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="25" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="AB17" s="29" t="str">
+      <c r="AB17" s="25" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="AC17" s="40" t="str">
+      <c r="AC17" s="27" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AD17" s="28" t="str">
+      <c r="AD17" s="24" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AE17" s="28" t="str">
+      <c r="AE17" s="24" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AF17" s="29" t="str">
+      <c r="AF17" s="25" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AG17" s="28" t="str">
+      <c r="AG17" s="24" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AH17" s="28" t="str">
+      <c r="AH17" s="24" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AI17" s="28" t="str">
+      <c r="AI17" s="24" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="28" t="str">
+      <c r="AJ17" s="24" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AK17" s="28" t="str">
+      <c r="AK17" s="24" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AL17" s="29" t="str">
+      <c r="AL17" s="25" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AM17" s="29" t="str">
+      <c r="AM17" s="25" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AN17" s="29" t="str">
+      <c r="AN17" s="25" t="str">
         <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AO17" s="29" t="str">
+      <c r="AO17" s="25" t="str">
         <f>IF(_tag_month_all!AK14="","",_tag_month_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="24">
+    <row r="18" spans="1:41" ht="14.25">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="21" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="22" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="23" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="24" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15*10000)</f>
         <v/>
       </c>
-      <c r="F18" s="29" t="str">
+      <c r="F18" s="25" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="24" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="29" t="str">
+      <c r="H18" s="25" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="29" t="str">
+      <c r="I18" s="25" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="27" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="40" t="str">
+      <c r="K18" s="27" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="29" t="str">
+      <c r="L18" s="25" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="29" t="str">
+      <c r="M18" s="25" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="40" t="str">
+      <c r="N18" s="27" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="29" t="str">
+      <c r="O18" s="25" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="25" t="str">
         <f>IF(_tag_month_all!AN15="","",_tag_month_all!AN15)</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="25" t="str">
         <f>IF(_tag_month_all!AL15="","",_tag_month_all!AL15)</f>
         <v/>
       </c>
-      <c r="R18" s="28" t="str">
+      <c r="R18" s="24" t="str">
         <f>IF(_tag_month_all!AM15="","",_tag_month_all!AM15)</f>
         <v/>
       </c>
-      <c r="S18" s="28" t="str">
+      <c r="S18" s="24" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="T18" s="28" t="str">
+      <c r="T18" s="24" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="U18" s="28" t="str">
+      <c r="U18" s="24" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="V18" s="28" t="str">
+      <c r="V18" s="24" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="W18" s="28" t="str">
+      <c r="W18" s="24" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="X18" s="28" t="str">
+      <c r="X18" s="24" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="Y18" s="29" t="str">
+      <c r="Y18" s="25" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="Z18" s="29" t="str">
+      <c r="Z18" s="25" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="25" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="AB18" s="29" t="str">
+      <c r="AB18" s="25" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="AC18" s="40" t="str">
+      <c r="AC18" s="27" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AD18" s="28" t="str">
+      <c r="AD18" s="24" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AE18" s="28" t="str">
+      <c r="AE18" s="24" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AF18" s="29" t="str">
+      <c r="AF18" s="25" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AG18" s="28" t="str">
+      <c r="AG18" s="24" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AH18" s="28" t="str">
+      <c r="AH18" s="24" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AI18" s="28" t="str">
+      <c r="AI18" s="24" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="28" t="str">
+      <c r="AJ18" s="24" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AK18" s="28" t="str">
+      <c r="AK18" s="24" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AL18" s="29" t="str">
+      <c r="AL18" s="25" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AM18" s="29" t="str">
+      <c r="AM18" s="25" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AN18" s="29" t="str">
+      <c r="AN18" s="25" t="str">
         <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AO18" s="29" t="str">
+      <c r="AO18" s="25" t="str">
         <f>IF(_tag_month_all!AK15="","",_tag_month_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="24">
+    <row r="19" spans="1:41" ht="14.25">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="21" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="22" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="23" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="24" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16*10000)</f>
         <v/>
       </c>
-      <c r="F19" s="29" t="str">
+      <c r="F19" s="25" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="24" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="29" t="str">
+      <c r="H19" s="25" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="29" t="str">
+      <c r="I19" s="25" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="40" t="str">
+      <c r="J19" s="27" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="40" t="str">
+      <c r="K19" s="27" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="29" t="str">
+      <c r="L19" s="25" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="29" t="str">
+      <c r="M19" s="25" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="40" t="str">
+      <c r="N19" s="27" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="29" t="str">
+      <c r="O19" s="25" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="25" t="str">
         <f>IF(_tag_month_all!AN16="","",_tag_month_all!AN16)</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="25" t="str">
         <f>IF(_tag_month_all!AL16="","",_tag_month_all!AL16)</f>
         <v/>
       </c>
-      <c r="R19" s="28" t="str">
+      <c r="R19" s="24" t="str">
         <f>IF(_tag_month_all!AM16="","",_tag_month_all!AM16)</f>
         <v/>
       </c>
-      <c r="S19" s="28" t="str">
+      <c r="S19" s="24" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="T19" s="28" t="str">
+      <c r="T19" s="24" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="U19" s="28" t="str">
+      <c r="U19" s="24" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="V19" s="28" t="str">
+      <c r="V19" s="24" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="W19" s="28" t="str">
+      <c r="W19" s="24" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="X19" s="28" t="str">
+      <c r="X19" s="24" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="Y19" s="29" t="str">
+      <c r="Y19" s="25" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="Z19" s="29" t="str">
+      <c r="Z19" s="25" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="25" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="AB19" s="29" t="str">
+      <c r="AB19" s="25" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="AC19" s="40" t="str">
+      <c r="AC19" s="27" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AD19" s="28" t="str">
+      <c r="AD19" s="24" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AE19" s="28" t="str">
+      <c r="AE19" s="24" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AF19" s="29" t="str">
+      <c r="AF19" s="25" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AG19" s="28" t="str">
+      <c r="AG19" s="24" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AH19" s="28" t="str">
+      <c r="AH19" s="24" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AI19" s="28" t="str">
+      <c r="AI19" s="24" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="28" t="str">
+      <c r="AJ19" s="24" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AK19" s="28" t="str">
+      <c r="AK19" s="24" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AL19" s="29" t="str">
+      <c r="AL19" s="25" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AM19" s="29" t="str">
+      <c r="AM19" s="25" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AN19" s="29" t="str">
+      <c r="AN19" s="25" t="str">
         <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AO19" s="29" t="str">
+      <c r="AO19" s="25" t="str">
         <f>IF(_tag_month_all!AK16="","",_tag_month_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="24">
+    <row r="20" spans="1:41" ht="14.25">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="21" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="22" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="23" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="24" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17*10000)</f>
         <v/>
       </c>
-      <c r="F20" s="29" t="str">
+      <c r="F20" s="25" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="24" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="29" t="str">
+      <c r="H20" s="25" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="29" t="str">
+      <c r="I20" s="25" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="40" t="str">
+      <c r="J20" s="27" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="40" t="str">
+      <c r="K20" s="27" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="29" t="str">
+      <c r="L20" s="25" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="29" t="str">
+      <c r="M20" s="25" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="40" t="str">
+      <c r="N20" s="27" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="29" t="str">
+      <c r="O20" s="25" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="25" t="str">
         <f>IF(_tag_month_all!AN17="","",_tag_month_all!AN17)</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="25" t="str">
         <f>IF(_tag_month_all!AL17="","",_tag_month_all!AL17)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="24" t="str">
         <f>IF(_tag_month_all!AM17="","",_tag_month_all!AM17)</f>
         <v/>
       </c>
-      <c r="S20" s="28" t="str">
+      <c r="S20" s="24" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="T20" s="28" t="str">
+      <c r="T20" s="24" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="U20" s="28" t="str">
+      <c r="U20" s="24" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="V20" s="28" t="str">
+      <c r="V20" s="24" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="W20" s="28" t="str">
+      <c r="W20" s="24" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="X20" s="28" t="str">
+      <c r="X20" s="24" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="Y20" s="29" t="str">
+      <c r="Y20" s="25" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="Z20" s="29" t="str">
+      <c r="Z20" s="25" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="AA20" s="29" t="str">
+      <c r="AA20" s="25" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="AB20" s="29" t="str">
+      <c r="AB20" s="25" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="AC20" s="40" t="str">
+      <c r="AC20" s="27" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AD20" s="28" t="str">
+      <c r="AD20" s="24" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AE20" s="28" t="str">
+      <c r="AE20" s="24" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AF20" s="29" t="str">
+      <c r="AF20" s="25" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AG20" s="28" t="str">
+      <c r="AG20" s="24" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AH20" s="28" t="str">
+      <c r="AH20" s="24" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AI20" s="28" t="str">
+      <c r="AI20" s="24" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="28" t="str">
+      <c r="AJ20" s="24" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AK20" s="28" t="str">
+      <c r="AK20" s="24" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AL20" s="29" t="str">
+      <c r="AL20" s="25" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AM20" s="29" t="str">
+      <c r="AM20" s="25" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AN20" s="29" t="str">
+      <c r="AN20" s="25" t="str">
         <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AO20" s="29" t="str">
+      <c r="AO20" s="25" t="str">
         <f>IF(_tag_month_all!AK17="","",_tag_month_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="24">
+    <row r="21" spans="1:41" ht="14.25">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="21" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="22" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="23" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="24" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18*10000)</f>
         <v/>
       </c>
-      <c r="F21" s="29" t="str">
+      <c r="F21" s="25" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="24" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="29" t="str">
+      <c r="H21" s="25" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="29" t="str">
+      <c r="I21" s="25" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="40" t="str">
+      <c r="J21" s="27" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="40" t="str">
+      <c r="K21" s="27" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="29" t="str">
+      <c r="L21" s="25" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="29" t="str">
+      <c r="M21" s="25" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="40" t="str">
+      <c r="N21" s="27" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="29" t="str">
+      <c r="O21" s="25" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="25" t="str">
         <f>IF(_tag_month_all!AN18="","",_tag_month_all!AN18)</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="25" t="str">
         <f>IF(_tag_month_all!AL18="","",_tag_month_all!AL18)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="24" t="str">
         <f>IF(_tag_month_all!AM18="","",_tag_month_all!AM18)</f>
         <v/>
       </c>
-      <c r="S21" s="28" t="str">
+      <c r="S21" s="24" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="T21" s="28" t="str">
+      <c r="T21" s="24" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="U21" s="28" t="str">
+      <c r="U21" s="24" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="V21" s="28" t="str">
+      <c r="V21" s="24" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="W21" s="28" t="str">
+      <c r="W21" s="24" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="X21" s="28" t="str">
+      <c r="X21" s="24" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="Y21" s="29" t="str">
+      <c r="Y21" s="25" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="Z21" s="29" t="str">
+      <c r="Z21" s="25" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="AA21" s="29" t="str">
+      <c r="AA21" s="25" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="AB21" s="29" t="str">
+      <c r="AB21" s="25" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="AC21" s="40" t="str">
+      <c r="AC21" s="27" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AD21" s="28" t="str">
+      <c r="AD21" s="24" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AE21" s="28" t="str">
+      <c r="AE21" s="24" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AF21" s="29" t="str">
+      <c r="AF21" s="25" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AG21" s="28" t="str">
+      <c r="AG21" s="24" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AH21" s="28" t="str">
+      <c r="AH21" s="24" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AI21" s="28" t="str">
+      <c r="AI21" s="24" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="28" t="str">
+      <c r="AJ21" s="24" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AK21" s="28" t="str">
+      <c r="AK21" s="24" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AL21" s="29" t="str">
+      <c r="AL21" s="25" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AM21" s="29" t="str">
+      <c r="AM21" s="25" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AN21" s="29" t="str">
+      <c r="AN21" s="25" t="str">
         <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AO21" s="29" t="str">
+      <c r="AO21" s="25" t="str">
         <f>IF(_tag_month_all!AK18="","",_tag_month_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="24">
+    <row r="22" spans="1:41" ht="14.25">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="21" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="22" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="23" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="24" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19*10000)</f>
         <v/>
       </c>
-      <c r="F22" s="29" t="str">
+      <c r="F22" s="25" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="24" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="29" t="str">
+      <c r="H22" s="25" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="29" t="str">
+      <c r="I22" s="25" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="40" t="str">
+      <c r="J22" s="27" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="40" t="str">
+      <c r="K22" s="27" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="29" t="str">
+      <c r="L22" s="25" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="29" t="str">
+      <c r="M22" s="25" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="40" t="str">
+      <c r="N22" s="27" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="29" t="str">
+      <c r="O22" s="25" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="29" t="str">
+      <c r="P22" s="25" t="str">
         <f>IF(_tag_month_all!AN19="","",_tag_month_all!AN19)</f>
         <v/>
       </c>
-      <c r="Q22" s="29" t="str">
+      <c r="Q22" s="25" t="str">
         <f>IF(_tag_month_all!AL19="","",_tag_month_all!AL19)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="24" t="str">
         <f>IF(_tag_month_all!AM19="","",_tag_month_all!AM19)</f>
         <v/>
       </c>
-      <c r="S22" s="28" t="str">
+      <c r="S22" s="24" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="T22" s="28" t="str">
+      <c r="T22" s="24" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="U22" s="28" t="str">
+      <c r="U22" s="24" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="V22" s="28" t="str">
+      <c r="V22" s="24" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="W22" s="28" t="str">
+      <c r="W22" s="24" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="X22" s="28" t="str">
+      <c r="X22" s="24" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="Y22" s="29" t="str">
+      <c r="Y22" s="25" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="Z22" s="29" t="str">
+      <c r="Z22" s="25" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="AA22" s="29" t="str">
+      <c r="AA22" s="25" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="AB22" s="29" t="str">
+      <c r="AB22" s="25" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="AC22" s="40" t="str">
+      <c r="AC22" s="27" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AD22" s="28" t="str">
+      <c r="AD22" s="24" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AE22" s="28" t="str">
+      <c r="AE22" s="24" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AF22" s="29" t="str">
+      <c r="AF22" s="25" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AG22" s="28" t="str">
+      <c r="AG22" s="24" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AH22" s="28" t="str">
+      <c r="AH22" s="24" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AI22" s="28" t="str">
+      <c r="AI22" s="24" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="28" t="str">
+      <c r="AJ22" s="24" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AK22" s="28" t="str">
+      <c r="AK22" s="24" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AL22" s="29" t="str">
+      <c r="AL22" s="25" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AM22" s="29" t="str">
+      <c r="AM22" s="25" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AN22" s="29" t="str">
+      <c r="AN22" s="25" t="str">
         <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AO22" s="29" t="str">
+      <c r="AO22" s="25" t="str">
         <f>IF(_tag_month_all!AK19="","",_tag_month_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="24">
+    <row r="23" spans="1:41" ht="14.25">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="21" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="22" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="27" t="str">
+      <c r="D23" s="23" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="24" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20*10000)</f>
         <v/>
       </c>
-      <c r="F23" s="29" t="str">
+      <c r="F23" s="25" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="24" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="29" t="str">
+      <c r="H23" s="25" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="29" t="str">
+      <c r="I23" s="25" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="40" t="str">
+      <c r="J23" s="27" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="40" t="str">
+      <c r="K23" s="27" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="29" t="str">
+      <c r="L23" s="25" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="29" t="str">
+      <c r="M23" s="25" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="40" t="str">
+      <c r="N23" s="27" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="29" t="str">
+      <c r="O23" s="25" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="29" t="str">
+      <c r="P23" s="25" t="str">
         <f>IF(_tag_month_all!AN20="","",_tag_month_all!AN20)</f>
         <v/>
       </c>
-      <c r="Q23" s="29" t="str">
+      <c r="Q23" s="25" t="str">
         <f>IF(_tag_month_all!AL20="","",_tag_month_all!AL20)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="24" t="str">
         <f>IF(_tag_month_all!AM20="","",_tag_month_all!AM20)</f>
         <v/>
       </c>
-      <c r="S23" s="28" t="str">
+      <c r="S23" s="24" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="T23" s="28" t="str">
+      <c r="T23" s="24" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="U23" s="28" t="str">
+      <c r="U23" s="24" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="V23" s="28" t="str">
+      <c r="V23" s="24" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="W23" s="28" t="str">
+      <c r="W23" s="24" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="X23" s="28" t="str">
+      <c r="X23" s="24" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="Y23" s="29" t="str">
+      <c r="Y23" s="25" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="Z23" s="29" t="str">
+      <c r="Z23" s="25" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="AA23" s="29" t="str">
+      <c r="AA23" s="25" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="AB23" s="29" t="str">
+      <c r="AB23" s="25" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="AC23" s="40" t="str">
+      <c r="AC23" s="27" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AD23" s="28" t="str">
+      <c r="AD23" s="24" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AE23" s="28" t="str">
+      <c r="AE23" s="24" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AF23" s="29" t="str">
+      <c r="AF23" s="25" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AG23" s="28" t="str">
+      <c r="AG23" s="24" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AH23" s="28" t="str">
+      <c r="AH23" s="24" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AI23" s="28" t="str">
+      <c r="AI23" s="24" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="28" t="str">
+      <c r="AJ23" s="24" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AK23" s="28" t="str">
+      <c r="AK23" s="24" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AL23" s="29" t="str">
+      <c r="AL23" s="25" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AM23" s="29" t="str">
+      <c r="AM23" s="25" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AN23" s="29" t="str">
+      <c r="AN23" s="25" t="str">
         <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AO23" s="29" t="str">
+      <c r="AO23" s="25" t="str">
         <f>IF(_tag_month_all!AK20="","",_tag_month_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="24">
+    <row r="24" spans="1:41" ht="14.25">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="21" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="26" t="str">
+      <c r="C24" s="22" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="23" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="24" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21*10000)</f>
         <v/>
       </c>
-      <c r="F24" s="29" t="str">
+      <c r="F24" s="25" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="24" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="29" t="str">
+      <c r="H24" s="25" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="29" t="str">
+      <c r="I24" s="25" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="40" t="str">
+      <c r="J24" s="27" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="40" t="str">
+      <c r="K24" s="27" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="29" t="str">
+      <c r="L24" s="25" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="29" t="str">
+      <c r="M24" s="25" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="40" t="str">
+      <c r="N24" s="27" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="29" t="str">
+      <c r="O24" s="25" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="P24" s="25" t="str">
         <f>IF(_tag_month_all!AN21="","",_tag_month_all!AN21)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="Q24" s="25" t="str">
         <f>IF(_tag_month_all!AL21="","",_tag_month_all!AL21)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="24" t="str">
         <f>IF(_tag_month_all!AM21="","",_tag_month_all!AM21)</f>
         <v/>
       </c>
-      <c r="S24" s="28" t="str">
+      <c r="S24" s="24" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="T24" s="28" t="str">
+      <c r="T24" s="24" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="U24" s="28" t="str">
+      <c r="U24" s="24" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="V24" s="28" t="str">
+      <c r="V24" s="24" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="W24" s="28" t="str">
+      <c r="W24" s="24" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="X24" s="28" t="str">
+      <c r="X24" s="24" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="Y24" s="29" t="str">
+      <c r="Y24" s="25" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="Z24" s="29" t="str">
+      <c r="Z24" s="25" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="AA24" s="29" t="str">
+      <c r="AA24" s="25" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="AB24" s="29" t="str">
+      <c r="AB24" s="25" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="AC24" s="40" t="str">
+      <c r="AC24" s="27" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AD24" s="28" t="str">
+      <c r="AD24" s="24" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AE24" s="28" t="str">
+      <c r="AE24" s="24" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AF24" s="29" t="str">
+      <c r="AF24" s="25" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AG24" s="28" t="str">
+      <c r="AG24" s="24" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AH24" s="28" t="str">
+      <c r="AH24" s="24" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AI24" s="28" t="str">
+      <c r="AI24" s="24" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="28" t="str">
+      <c r="AJ24" s="24" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AK24" s="28" t="str">
+      <c r="AK24" s="24" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AL24" s="29" t="str">
+      <c r="AL24" s="25" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AM24" s="29" t="str">
+      <c r="AM24" s="25" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AN24" s="29" t="str">
+      <c r="AN24" s="25" t="str">
         <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AO24" s="29" t="str">
+      <c r="AO24" s="25" t="str">
         <f>IF(_tag_month_all!AK21="","",_tag_month_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="24">
+    <row r="25" spans="1:41" ht="14.25">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="str">
+      <c r="B25" s="21" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="22" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="24" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22*10000)</f>
         <v/>
       </c>
-      <c r="F25" s="29" t="str">
+      <c r="F25" s="25" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="24" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="29" t="str">
+      <c r="H25" s="25" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="29" t="str">
+      <c r="I25" s="25" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="40" t="str">
+      <c r="J25" s="27" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="40" t="str">
+      <c r="K25" s="27" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="29" t="str">
+      <c r="L25" s="25" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="29" t="str">
+      <c r="M25" s="25" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="40" t="str">
+      <c r="N25" s="27" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="29" t="str">
+      <c r="O25" s="25" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="29" t="str">
+      <c r="P25" s="25" t="str">
         <f>IF(_tag_month_all!AN22="","",_tag_month_all!AN22)</f>
         <v/>
       </c>
-      <c r="Q25" s="29" t="str">
+      <c r="Q25" s="25" t="str">
         <f>IF(_tag_month_all!AL22="","",_tag_month_all!AL22)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="24" t="str">
         <f>IF(_tag_month_all!AM22="","",_tag_month_all!AM22)</f>
         <v/>
       </c>
-      <c r="S25" s="28" t="str">
+      <c r="S25" s="24" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="T25" s="28" t="str">
+      <c r="T25" s="24" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="U25" s="28" t="str">
+      <c r="U25" s="24" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="V25" s="28" t="str">
+      <c r="V25" s="24" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="W25" s="28" t="str">
+      <c r="W25" s="24" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="X25" s="28" t="str">
+      <c r="X25" s="24" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="Y25" s="29" t="str">
+      <c r="Y25" s="25" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="Z25" s="29" t="str">
+      <c r="Z25" s="25" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="AA25" s="29" t="str">
+      <c r="AA25" s="25" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="AB25" s="29" t="str">
+      <c r="AB25" s="25" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="AC25" s="40" t="str">
+      <c r="AC25" s="27" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AD25" s="28" t="str">
+      <c r="AD25" s="24" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AE25" s="28" t="str">
+      <c r="AE25" s="24" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AF25" s="29" t="str">
+      <c r="AF25" s="25" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AG25" s="28" t="str">
+      <c r="AG25" s="24" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AH25" s="28" t="str">
+      <c r="AH25" s="24" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AI25" s="28" t="str">
+      <c r="AI25" s="24" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="28" t="str">
+      <c r="AJ25" s="24" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AK25" s="28" t="str">
+      <c r="AK25" s="24" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AL25" s="29" t="str">
+      <c r="AL25" s="25" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AM25" s="29" t="str">
+      <c r="AM25" s="25" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AN25" s="29" t="str">
+      <c r="AN25" s="25" t="str">
         <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AO25" s="29" t="str">
+      <c r="AO25" s="25" t="str">
         <f>IF(_tag_month_all!AK22="","",_tag_month_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="24">
+    <row r="26" spans="1:41" ht="14.25">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="25" t="str">
+      <c r="B26" s="21" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="22" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="27" t="str">
+      <c r="D26" s="23" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="24" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23*10000)</f>
         <v/>
       </c>
-      <c r="F26" s="29" t="str">
+      <c r="F26" s="25" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="24" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="29" t="str">
+      <c r="H26" s="25" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="29" t="str">
+      <c r="I26" s="25" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="40" t="str">
+      <c r="J26" s="27" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="40" t="str">
+      <c r="K26" s="27" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="29" t="str">
+      <c r="L26" s="25" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="29" t="str">
+      <c r="M26" s="25" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="40" t="str">
+      <c r="N26" s="27" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="29" t="str">
+      <c r="O26" s="25" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="29" t="str">
+      <c r="P26" s="25" t="str">
         <f>IF(_tag_month_all!AN23="","",_tag_month_all!AN23)</f>
         <v/>
       </c>
-      <c r="Q26" s="29" t="str">
+      <c r="Q26" s="25" t="str">
         <f>IF(_tag_month_all!AL23="","",_tag_month_all!AL23)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="24" t="str">
         <f>IF(_tag_month_all!AM23="","",_tag_month_all!AM23)</f>
         <v/>
       </c>
-      <c r="S26" s="28" t="str">
+      <c r="S26" s="24" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="T26" s="28" t="str">
+      <c r="T26" s="24" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="U26" s="28" t="str">
+      <c r="U26" s="24" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="V26" s="28" t="str">
+      <c r="V26" s="24" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="W26" s="28" t="str">
+      <c r="W26" s="24" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="X26" s="28" t="str">
+      <c r="X26" s="24" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="Y26" s="29" t="str">
+      <c r="Y26" s="25" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="Z26" s="29" t="str">
+      <c r="Z26" s="25" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="AA26" s="29" t="str">
+      <c r="AA26" s="25" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="AB26" s="29" t="str">
+      <c r="AB26" s="25" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="AC26" s="40" t="str">
+      <c r="AC26" s="27" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AD26" s="28" t="str">
+      <c r="AD26" s="24" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AE26" s="28" t="str">
+      <c r="AE26" s="24" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AF26" s="29" t="str">
+      <c r="AF26" s="25" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AG26" s="28" t="str">
+      <c r="AG26" s="24" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AH26" s="28" t="str">
+      <c r="AH26" s="24" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AI26" s="28" t="str">
+      <c r="AI26" s="24" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="28" t="str">
+      <c r="AJ26" s="24" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AK26" s="28" t="str">
+      <c r="AK26" s="24" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AL26" s="29" t="str">
+      <c r="AL26" s="25" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AM26" s="29" t="str">
+      <c r="AM26" s="25" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AN26" s="29" t="str">
+      <c r="AN26" s="25" t="str">
         <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AO26" s="29" t="str">
+      <c r="AO26" s="25" t="str">
         <f>IF(_tag_month_all!AK23="","",_tag_month_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="24">
+    <row r="27" spans="1:41" ht="14.25">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="25" t="str">
+      <c r="B27" s="21" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="22" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="D27" s="23" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="24" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24*10000)</f>
         <v/>
       </c>
-      <c r="F27" s="29" t="str">
+      <c r="F27" s="25" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="24" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="29" t="str">
+      <c r="H27" s="25" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="29" t="str">
+      <c r="I27" s="25" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="40" t="str">
+      <c r="J27" s="27" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="40" t="str">
+      <c r="K27" s="27" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="29" t="str">
+      <c r="L27" s="25" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="29" t="str">
+      <c r="M27" s="25" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="40" t="str">
+      <c r="N27" s="27" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="29" t="str">
+      <c r="O27" s="25" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="29" t="str">
+      <c r="P27" s="25" t="str">
         <f>IF(_tag_month_all!AN24="","",_tag_month_all!AN24)</f>
         <v/>
       </c>
-      <c r="Q27" s="29" t="str">
+      <c r="Q27" s="25" t="str">
         <f>IF(_tag_month_all!AL24="","",_tag_month_all!AL24)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="24" t="str">
         <f>IF(_tag_month_all!AM24="","",_tag_month_all!AM24)</f>
         <v/>
       </c>
-      <c r="S27" s="28" t="str">
+      <c r="S27" s="24" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="T27" s="28" t="str">
+      <c r="T27" s="24" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="U27" s="28" t="str">
+      <c r="U27" s="24" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="V27" s="28" t="str">
+      <c r="V27" s="24" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="W27" s="28" t="str">
+      <c r="W27" s="24" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="X27" s="28" t="str">
+      <c r="X27" s="24" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="Y27" s="29" t="str">
+      <c r="Y27" s="25" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="Z27" s="29" t="str">
+      <c r="Z27" s="25" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="AA27" s="29" t="str">
+      <c r="AA27" s="25" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="AB27" s="29" t="str">
+      <c r="AB27" s="25" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="AC27" s="40" t="str">
+      <c r="AC27" s="27" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AD27" s="28" t="str">
+      <c r="AD27" s="24" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AE27" s="28" t="str">
+      <c r="AE27" s="24" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AF27" s="29" t="str">
+      <c r="AF27" s="25" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AG27" s="28" t="str">
+      <c r="AG27" s="24" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AH27" s="28" t="str">
+      <c r="AH27" s="24" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AI27" s="28" t="str">
+      <c r="AI27" s="24" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="28" t="str">
+      <c r="AJ27" s="24" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AK27" s="28" t="str">
+      <c r="AK27" s="24" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AL27" s="29" t="str">
+      <c r="AL27" s="25" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AM27" s="29" t="str">
+      <c r="AM27" s="25" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AN27" s="29" t="str">
+      <c r="AN27" s="25" t="str">
         <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AO27" s="29" t="str">
+      <c r="AO27" s="25" t="str">
         <f>IF(_tag_month_all!AK24="","",_tag_month_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41">
-      <c r="A28" s="24">
+    <row r="28" spans="1:41" ht="14.25">
+      <c r="A28" s="20">
         <v>24</v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B28" s="21" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="26" t="str">
+      <c r="C28" s="22" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D28" s="23" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="24" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25*10000)</f>
         <v/>
       </c>
-      <c r="F28" s="29" t="str">
+      <c r="F28" s="25" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="24" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="29" t="str">
+      <c r="H28" s="25" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="29" t="str">
+      <c r="I28" s="25" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="40" t="str">
+      <c r="J28" s="27" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="40" t="str">
+      <c r="K28" s="27" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="29" t="str">
+      <c r="L28" s="25" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="29" t="str">
+      <c r="M28" s="25" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="40" t="str">
+      <c r="N28" s="27" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="29" t="str">
+      <c r="O28" s="25" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="25" t="str">
         <f>IF(_tag_month_all!AN25="","",_tag_month_all!AN25)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="25" t="str">
         <f>IF(_tag_month_all!AL25="","",_tag_month_all!AL25)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="24" t="str">
         <f>IF(_tag_month_all!AM25="","",_tag_month_all!AM25)</f>
         <v/>
       </c>
-      <c r="S28" s="28" t="str">
+      <c r="S28" s="24" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="T28" s="28" t="str">
+      <c r="T28" s="24" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="U28" s="28" t="str">
+      <c r="U28" s="24" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="V28" s="28" t="str">
+      <c r="V28" s="24" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="W28" s="28" t="str">
+      <c r="W28" s="24" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="X28" s="28" t="str">
+      <c r="X28" s="24" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="Y28" s="29" t="str">
+      <c r="Y28" s="25" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="Z28" s="29" t="str">
+      <c r="Z28" s="25" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="AA28" s="29" t="str">
+      <c r="AA28" s="25" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="AB28" s="29" t="str">
+      <c r="AB28" s="25" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="AC28" s="40" t="str">
+      <c r="AC28" s="27" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AD28" s="28" t="str">
+      <c r="AD28" s="24" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AE28" s="28" t="str">
+      <c r="AE28" s="24" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AF28" s="29" t="str">
+      <c r="AF28" s="25" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AG28" s="28" t="str">
+      <c r="AG28" s="24" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AH28" s="28" t="str">
+      <c r="AH28" s="24" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AI28" s="28" t="str">
+      <c r="AI28" s="24" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="28" t="str">
+      <c r="AJ28" s="24" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AK28" s="28" t="str">
+      <c r="AK28" s="24" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AL28" s="29" t="str">
+      <c r="AL28" s="25" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AM28" s="29" t="str">
+      <c r="AM28" s="25" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AN28" s="29" t="str">
+      <c r="AN28" s="25" t="str">
         <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AO28" s="29" t="str">
+      <c r="AO28" s="25" t="str">
         <f>IF(_tag_month_all!AK25="","",_tag_month_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:41">
-      <c r="A29" s="24">
+    <row r="29" spans="1:41" ht="14.25">
+      <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B29" s="21" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="22" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="D29" s="23" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="24" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26*10000)</f>
         <v/>
       </c>
-      <c r="F29" s="29" t="str">
+      <c r="F29" s="25" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="24" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="29" t="str">
+      <c r="H29" s="25" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="29" t="str">
+      <c r="I29" s="25" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="40" t="str">
+      <c r="J29" s="27" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="40" t="str">
+      <c r="K29" s="27" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="29" t="str">
+      <c r="L29" s="25" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="29" t="str">
+      <c r="M29" s="25" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="40" t="str">
+      <c r="N29" s="27" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="29" t="str">
+      <c r="O29" s="25" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26*100)</f>
         <v/>
       </c>
-      <c r="P29" s="29" t="str">
+      <c r="P29" s="25" t="str">
         <f>IF(_tag_month_all!AN26="","",_tag_month_all!AN26)</f>
         <v/>
       </c>
-      <c r="Q29" s="29" t="str">
+      <c r="Q29" s="25" t="str">
         <f>IF(_tag_month_all!AL26="","",_tag_month_all!AL26)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="24" t="str">
         <f>IF(_tag_month_all!AM26="","",_tag_month_all!AM26)</f>
         <v/>
       </c>
-      <c r="S29" s="28" t="str">
+      <c r="S29" s="24" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="T29" s="28" t="str">
+      <c r="T29" s="24" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="U29" s="28" t="str">
+      <c r="U29" s="24" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="V29" s="28" t="str">
+      <c r="V29" s="24" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="W29" s="28" t="str">
+      <c r="W29" s="24" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="X29" s="28" t="str">
+      <c r="X29" s="24" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="Y29" s="29" t="str">
+      <c r="Y29" s="25" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="Z29" s="29" t="str">
+      <c r="Z29" s="25" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="AA29" s="29" t="str">
+      <c r="AA29" s="25" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="AB29" s="29" t="str">
+      <c r="AB29" s="25" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="AC29" s="40" t="str">
+      <c r="AC29" s="27" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AD29" s="28" t="str">
+      <c r="AD29" s="24" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AE29" s="28" t="str">
+      <c r="AE29" s="24" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AF29" s="29" t="str">
+      <c r="AF29" s="25" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AG29" s="28" t="str">
+      <c r="AG29" s="24" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AH29" s="28" t="str">
+      <c r="AH29" s="24" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AI29" s="28" t="str">
+      <c r="AI29" s="24" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="28" t="str">
+      <c r="AJ29" s="24" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AK29" s="28" t="str">
+      <c r="AK29" s="24" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AL29" s="29" t="str">
+      <c r="AL29" s="25" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AM29" s="29" t="str">
+      <c r="AM29" s="25" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AN29" s="29" t="str">
+      <c r="AN29" s="25" t="str">
         <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
         <v/>
       </c>
-      <c r="AO29" s="29" t="str">
+      <c r="AO29" s="25" t="str">
         <f>IF(_tag_month_all!AK26="","",_tag_month_all!AK26)</f>
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:41">
-      <c r="A30" s="24">
+    <row r="30" spans="1:41" ht="14.25">
+      <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="21" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="26" t="str">
+      <c r="C30" s="22" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="23" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="24" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27*10000)</f>
         <v/>
       </c>
-      <c r="F30" s="29" t="str">
+      <c r="F30" s="25" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="24" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="29" t="str">
+      <c r="H30" s="25" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="29" t="str">
+      <c r="I30" s="25" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="40" t="str">
+      <c r="J30" s="27" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="40" t="str">
+      <c r="K30" s="27" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="29" t="str">
+      <c r="L30" s="25" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="29" t="str">
+      <c r="M30" s="25" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="40" t="str">
+      <c r="N30" s="27" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="29" t="str">
+      <c r="O30" s="25" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27*100)</f>
         <v/>
       </c>
-      <c r="P30" s="29" t="str">
+      <c r="P30" s="25" t="str">
         <f>IF(_tag_month_all!AN27="","",_tag_month_all!AN27)</f>
         <v/>
       </c>
-      <c r="Q30" s="29" t="str">
+      <c r="Q30" s="25" t="str">
         <f>IF(_tag_month_all!AL27="","",_tag_month_all!AL27)</f>
         <v/>
       </c>
-      <c r="R30" s="28" t="str">
+      <c r="R30" s="24" t="str">
         <f>IF(_tag_month_all!AM27="","",_tag_month_all!AM27)</f>
         <v/>
       </c>
-      <c r="S30" s="28" t="str">
+      <c r="S30" s="24" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="T30" s="28" t="str">
+      <c r="T30" s="24" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="U30" s="28" t="str">
+      <c r="U30" s="24" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="V30" s="28" t="str">
+      <c r="V30" s="24" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="W30" s="28" t="str">
+      <c r="W30" s="24" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="X30" s="28" t="str">
+      <c r="X30" s="24" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="Y30" s="29" t="str">
+      <c r="Y30" s="25" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="Z30" s="29" t="str">
+      <c r="Z30" s="25" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="AA30" s="29" t="str">
+      <c r="AA30" s="25" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="AB30" s="29" t="str">
+      <c r="AB30" s="25" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="AC30" s="40" t="str">
+      <c r="AC30" s="27" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AD30" s="28" t="str">
+      <c r="AD30" s="24" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AE30" s="28" t="str">
+      <c r="AE30" s="24" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AF30" s="29" t="str">
+      <c r="AF30" s="25" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AG30" s="28" t="str">
+      <c r="AG30" s="24" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AH30" s="28" t="str">
+      <c r="AH30" s="24" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AI30" s="28" t="str">
+      <c r="AI30" s="24" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="28" t="str">
+      <c r="AJ30" s="24" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AK30" s="28" t="str">
+      <c r="AK30" s="24" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AL30" s="29" t="str">
+      <c r="AL30" s="25" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AM30" s="29" t="str">
+      <c r="AM30" s="25" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AN30" s="29" t="str">
+      <c r="AN30" s="25" t="str">
         <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
         <v/>
       </c>
-      <c r="AO30" s="29" t="str">
+      <c r="AO30" s="25" t="str">
         <f>IF(_tag_month_all!AK27="","",_tag_month_all!AK27)</f>
         <v/>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:41">
-      <c r="A31" s="24">
+    <row r="31" spans="1:41" ht="14.25">
+      <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="25" t="str">
+      <c r="B31" s="21" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="26" t="str">
+      <c r="C31" s="22" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="D31" s="23" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="24" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28*10000)</f>
         <v/>
       </c>
-      <c r="F31" s="29" t="str">
+      <c r="F31" s="25" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="28" t="str">
+      <c r="G31" s="24" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="29" t="str">
+      <c r="H31" s="25" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="29" t="str">
+      <c r="I31" s="25" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="40" t="str">
+      <c r="J31" s="27" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="40" t="str">
+      <c r="K31" s="27" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="29" t="str">
+      <c r="L31" s="25" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="29" t="str">
+      <c r="M31" s="25" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="40" t="str">
+      <c r="N31" s="27" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="29" t="str">
+      <c r="O31" s="25" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28*100)</f>
         <v/>
       </c>
-      <c r="P31" s="29" t="str">
+      <c r="P31" s="25" t="str">
         <f>IF(_tag_month_all!AN28="","",_tag_month_all!AN28)</f>
         <v/>
       </c>
-      <c r="Q31" s="29" t="str">
+      <c r="Q31" s="25" t="str">
         <f>IF(_tag_month_all!AL28="","",_tag_month_all!AL28)</f>
         <v/>
       </c>
-      <c r="R31" s="28" t="str">
+      <c r="R31" s="24" t="str">
         <f>IF(_tag_month_all!AM28="","",_tag_month_all!AM28)</f>
         <v/>
       </c>
-      <c r="S31" s="28" t="str">
+      <c r="S31" s="24" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="T31" s="28" t="str">
+      <c r="T31" s="24" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="U31" s="28" t="str">
+      <c r="U31" s="24" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="V31" s="28" t="str">
+      <c r="V31" s="24" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="W31" s="28" t="str">
+      <c r="W31" s="24" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="X31" s="28" t="str">
+      <c r="X31" s="24" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="Y31" s="29" t="str">
+      <c r="Y31" s="25" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="Z31" s="29" t="str">
+      <c r="Z31" s="25" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="AA31" s="29" t="str">
+      <c r="AA31" s="25" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="AB31" s="29" t="str">
+      <c r="AB31" s="25" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="AC31" s="40" t="str">
+      <c r="AC31" s="27" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AD31" s="28" t="str">
+      <c r="AD31" s="24" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AE31" s="28" t="str">
+      <c r="AE31" s="24" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AF31" s="29" t="str">
+      <c r="AF31" s="25" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AG31" s="28" t="str">
+      <c r="AG31" s="24" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AH31" s="28" t="str">
+      <c r="AH31" s="24" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AI31" s="28" t="str">
+      <c r="AI31" s="24" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="28" t="str">
+      <c r="AJ31" s="24" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AK31" s="28" t="str">
+      <c r="AK31" s="24" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AL31" s="29" t="str">
+      <c r="AL31" s="25" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AM31" s="29" t="str">
+      <c r="AM31" s="25" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AN31" s="29" t="str">
+      <c r="AN31" s="25" t="str">
         <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
         <v/>
       </c>
-      <c r="AO31" s="29" t="str">
+      <c r="AO31" s="25" t="str">
         <f>IF(_tag_month_all!AK28="","",_tag_month_all!AK28)</f>
         <v/>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:41">
-      <c r="A32" s="24">
+    <row r="32" spans="1:41" ht="14.25">
+      <c r="A32" s="20">
         <v>28</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B32" s="21" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="26" t="str">
+      <c r="C32" s="22" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="27" t="str">
+      <c r="D32" s="23" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="24" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29*10000)</f>
         <v/>
       </c>
-      <c r="F32" s="29" t="str">
+      <c r="F32" s="25" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="24" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="29" t="str">
+      <c r="H32" s="25" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="29" t="str">
+      <c r="I32" s="25" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="40" t="str">
+      <c r="J32" s="27" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="40" t="str">
+      <c r="K32" s="27" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="29" t="str">
+      <c r="L32" s="25" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="29" t="str">
+      <c r="M32" s="25" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="40" t="str">
+      <c r="N32" s="27" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="29" t="str">
+      <c r="O32" s="25" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29*100)</f>
         <v/>
       </c>
-      <c r="P32" s="29" t="str">
+      <c r="P32" s="25" t="str">
         <f>IF(_tag_month_all!AN29="","",_tag_month_all!AN29)</f>
         <v/>
       </c>
-      <c r="Q32" s="29" t="str">
+      <c r="Q32" s="25" t="str">
         <f>IF(_tag_month_all!AL29="","",_tag_month_all!AL29)</f>
         <v/>
       </c>
-      <c r="R32" s="28" t="str">
+      <c r="R32" s="24" t="str">
         <f>IF(_tag_month_all!AM29="","",_tag_month_all!AM29)</f>
         <v/>
       </c>
-      <c r="S32" s="28" t="str">
+      <c r="S32" s="24" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="T32" s="28" t="str">
+      <c r="T32" s="24" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="U32" s="28" t="str">
+      <c r="U32" s="24" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="V32" s="28" t="str">
+      <c r="V32" s="24" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="W32" s="28" t="str">
+      <c r="W32" s="24" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="X32" s="28" t="str">
+      <c r="X32" s="24" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="Y32" s="29" t="str">
+      <c r="Y32" s="25" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="Z32" s="29" t="str">
+      <c r="Z32" s="25" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="AA32" s="29" t="str">
+      <c r="AA32" s="25" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="AB32" s="29" t="str">
+      <c r="AB32" s="25" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="AC32" s="40" t="str">
+      <c r="AC32" s="27" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AD32" s="28" t="str">
+      <c r="AD32" s="24" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AE32" s="28" t="str">
+      <c r="AE32" s="24" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AF32" s="29" t="str">
+      <c r="AF32" s="25" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AG32" s="28" t="str">
+      <c r="AG32" s="24" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AH32" s="28" t="str">
+      <c r="AH32" s="24" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AI32" s="28" t="str">
+      <c r="AI32" s="24" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="28" t="str">
+      <c r="AJ32" s="24" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AK32" s="28" t="str">
+      <c r="AK32" s="24" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AL32" s="29" t="str">
+      <c r="AL32" s="25" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AM32" s="29" t="str">
+      <c r="AM32" s="25" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AN32" s="29" t="str">
+      <c r="AN32" s="25" t="str">
         <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
         <v/>
       </c>
-      <c r="AO32" s="29" t="str">
+      <c r="AO32" s="25" t="str">
         <f>IF(_tag_month_all!AK29="","",_tag_month_all!AK29)</f>
         <v/>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:41">
-      <c r="A33" s="24">
+    <row r="33" spans="1:41" ht="14.25">
+      <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="25" t="str">
+      <c r="B33" s="21" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="22" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="27" t="str">
+      <c r="D33" s="23" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="28" t="str">
+      <c r="E33" s="24" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30*10000)</f>
         <v/>
       </c>
-      <c r="F33" s="29" t="str">
+      <c r="F33" s="25" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="28" t="str">
+      <c r="G33" s="24" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="29" t="str">
+      <c r="H33" s="25" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="29" t="str">
+      <c r="I33" s="25" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="40" t="str">
+      <c r="J33" s="27" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="40" t="str">
+      <c r="K33" s="27" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="29" t="str">
+      <c r="L33" s="25" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="29" t="str">
+      <c r="M33" s="25" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="40" t="str">
+      <c r="N33" s="27" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="29" t="str">
+      <c r="O33" s="25" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30*100)</f>
         <v/>
       </c>
-      <c r="P33" s="29" t="str">
+      <c r="P33" s="25" t="str">
         <f>IF(_tag_month_all!AN30="","",_tag_month_all!AN30)</f>
         <v/>
       </c>
-      <c r="Q33" s="29" t="str">
+      <c r="Q33" s="25" t="str">
         <f>IF(_tag_month_all!AL30="","",_tag_month_all!AL30)</f>
         <v/>
       </c>
-      <c r="R33" s="28" t="str">
+      <c r="R33" s="24" t="str">
         <f>IF(_tag_month_all!AM30="","",_tag_month_all!AM30)</f>
         <v/>
       </c>
-      <c r="S33" s="28" t="str">
+      <c r="S33" s="24" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="T33" s="28" t="str">
+      <c r="T33" s="24" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="U33" s="28" t="str">
+      <c r="U33" s="24" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="V33" s="28" t="str">
+      <c r="V33" s="24" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="W33" s="28" t="str">
+      <c r="W33" s="24" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="X33" s="28" t="str">
+      <c r="X33" s="24" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="Y33" s="29" t="str">
+      <c r="Y33" s="25" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="Z33" s="29" t="str">
+      <c r="Z33" s="25" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="AA33" s="29" t="str">
+      <c r="AA33" s="25" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="AB33" s="29" t="str">
+      <c r="AB33" s="25" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="AC33" s="40" t="str">
+      <c r="AC33" s="27" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AD33" s="28" t="str">
+      <c r="AD33" s="24" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AE33" s="28" t="str">
+      <c r="AE33" s="24" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AF33" s="29" t="str">
+      <c r="AF33" s="25" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AG33" s="28" t="str">
+      <c r="AG33" s="24" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AH33" s="28" t="str">
+      <c r="AH33" s="24" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AI33" s="28" t="str">
+      <c r="AI33" s="24" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="28" t="str">
+      <c r="AJ33" s="24" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AK33" s="28" t="str">
+      <c r="AK33" s="24" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AL33" s="29" t="str">
+      <c r="AL33" s="25" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AM33" s="29" t="str">
+      <c r="AM33" s="25" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AN33" s="29" t="str">
+      <c r="AN33" s="25" t="str">
         <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
         <v/>
       </c>
-      <c r="AO33" s="29" t="str">
+      <c r="AO33" s="25" t="str">
         <f>IF(_tag_month_all!AK30="","",_tag_month_all!AK30)</f>
         <v/>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:41">
-      <c r="A34" s="24">
+    <row r="34" spans="1:41" ht="14.25">
+      <c r="A34" s="20">
         <v>30</v>
       </c>
-      <c r="B34" s="25" t="str">
+      <c r="B34" s="21" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="22" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="27" t="str">
+      <c r="D34" s="23" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="28" t="str">
+      <c r="E34" s="24" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31*10000)</f>
         <v/>
       </c>
-      <c r="F34" s="29" t="str">
+      <c r="F34" s="25" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="28" t="str">
+      <c r="G34" s="24" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="29" t="str">
+      <c r="H34" s="25" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="29" t="str">
+      <c r="I34" s="25" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="40" t="str">
+      <c r="J34" s="27" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="40" t="str">
+      <c r="K34" s="27" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="29" t="str">
+      <c r="L34" s="25" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="29" t="str">
+      <c r="M34" s="25" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="40" t="str">
+      <c r="N34" s="27" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="29" t="str">
+      <c r="O34" s="25" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31*100)</f>
         <v/>
       </c>
-      <c r="P34" s="29" t="str">
+      <c r="P34" s="25" t="str">
         <f>IF(_tag_month_all!AN31="","",_tag_month_all!AN31)</f>
         <v/>
       </c>
-      <c r="Q34" s="29" t="str">
+      <c r="Q34" s="25" t="str">
         <f>IF(_tag_month_all!AL31="","",_tag_month_all!AL31)</f>
         <v/>
       </c>
-      <c r="R34" s="28" t="str">
+      <c r="R34" s="24" t="str">
         <f>IF(_tag_month_all!AM31="","",_tag_month_all!AM31)</f>
         <v/>
       </c>
-      <c r="S34" s="28" t="str">
+      <c r="S34" s="24" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="T34" s="28" t="str">
+      <c r="T34" s="24" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="U34" s="28" t="str">
+      <c r="U34" s="24" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="V34" s="28" t="str">
+      <c r="V34" s="24" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="W34" s="28" t="str">
+      <c r="W34" s="24" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="X34" s="28" t="str">
+      <c r="X34" s="24" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="Y34" s="29" t="str">
+      <c r="Y34" s="25" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="Z34" s="29" t="str">
+      <c r="Z34" s="25" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="AA34" s="29" t="str">
+      <c r="AA34" s="25" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="AB34" s="29" t="str">
+      <c r="AB34" s="25" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="AC34" s="40" t="str">
+      <c r="AC34" s="27" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AD34" s="28" t="str">
+      <c r="AD34" s="24" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AE34" s="28" t="str">
+      <c r="AE34" s="24" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AF34" s="29" t="str">
+      <c r="AF34" s="25" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AG34" s="28" t="str">
+      <c r="AG34" s="24" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AH34" s="28" t="str">
+      <c r="AH34" s="24" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AI34" s="28" t="str">
+      <c r="AI34" s="24" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="28" t="str">
+      <c r="AJ34" s="24" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AK34" s="28" t="str">
+      <c r="AK34" s="24" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AL34" s="29" t="str">
+      <c r="AL34" s="25" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AM34" s="29" t="str">
+      <c r="AM34" s="25" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AN34" s="29" t="str">
+      <c r="AN34" s="25" t="str">
         <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
         <v/>
       </c>
-      <c r="AO34" s="29" t="str">
+      <c r="AO34" s="25" t="str">
         <f>IF(_tag_month_all!AK31="","",_tag_month_all!AK31)</f>
         <v/>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" spans="1:41">
-      <c r="A35" s="24">
+    <row r="35" spans="1:41" ht="14.25">
+      <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="25" t="str">
+      <c r="B35" s="21" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="22" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="27" t="str">
+      <c r="D35" s="23" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="28" t="str">
+      <c r="E35" s="24" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32*10000)</f>
         <v/>
       </c>
-      <c r="F35" s="29" t="str">
+      <c r="F35" s="25" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="24" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="29" t="str">
+      <c r="H35" s="25" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="29" t="str">
+      <c r="I35" s="25" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="40" t="str">
+      <c r="J35" s="27" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="40" t="str">
+      <c r="K35" s="27" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="29" t="str">
+      <c r="L35" s="25" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="29" t="str">
+      <c r="M35" s="25" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="40" t="str">
+      <c r="N35" s="27" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="29" t="str">
+      <c r="O35" s="25" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32*100)</f>
         <v/>
       </c>
-      <c r="P35" s="29" t="str">
+      <c r="P35" s="25" t="str">
         <f>IF(_tag_month_all!AN32="","",_tag_month_all!AN32)</f>
         <v/>
       </c>
-      <c r="Q35" s="29" t="str">
+      <c r="Q35" s="25" t="str">
         <f>IF(_tag_month_all!AL32="","",_tag_month_all!AL32)</f>
         <v/>
       </c>
-      <c r="R35" s="28" t="str">
+      <c r="R35" s="24" t="str">
         <f>IF(_tag_month_all!AM32="","",_tag_month_all!AM32)</f>
         <v/>
       </c>
-      <c r="S35" s="28" t="str">
+      <c r="S35" s="24" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="T35" s="28" t="str">
+      <c r="T35" s="24" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="U35" s="28" t="str">
+      <c r="U35" s="24" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="V35" s="28" t="str">
+      <c r="V35" s="24" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="W35" s="28" t="str">
+      <c r="W35" s="24" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="X35" s="28" t="str">
+      <c r="X35" s="24" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="Y35" s="29" t="str">
+      <c r="Y35" s="25" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="Z35" s="29" t="str">
+      <c r="Z35" s="25" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="AA35" s="29" t="str">
+      <c r="AA35" s="25" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="AB35" s="29" t="str">
+      <c r="AB35" s="25" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="AC35" s="40" t="str">
+      <c r="AC35" s="27" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AD35" s="28" t="str">
+      <c r="AD35" s="24" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AE35" s="28" t="str">
+      <c r="AE35" s="24" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AF35" s="29" t="str">
+      <c r="AF35" s="25" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AG35" s="28" t="str">
+      <c r="AG35" s="24" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AH35" s="28" t="str">
+      <c r="AH35" s="24" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AI35" s="28" t="str">
+      <c r="AI35" s="24" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="28" t="str">
+      <c r="AJ35" s="24" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AK35" s="28" t="str">
+      <c r="AK35" s="24" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AL35" s="29" t="str">
+      <c r="AL35" s="25" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AM35" s="29" t="str">
+      <c r="AM35" s="25" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AN35" s="29" t="str">
+      <c r="AN35" s="25" t="str">
         <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
         <v/>
       </c>
-      <c r="AO35" s="29" t="str">
+      <c r="AO35" s="25" t="str">
         <f>IF(_tag_month_all!AK32="","",_tag_month_all!AK32)</f>
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:41">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:41" ht="14.25">
+      <c r="A36" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="31" t="str">
+      <c r="B36" s="21" t="str">
         <f t="shared" ref="B36:P36" si="0">IFERROR(AVERAGE(B5:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="32" t="str">
+      <c r="C36" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="32" t="str">
+      <c r="D36" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="33" t="str">
+      <c r="E36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="32" t="str">
+      <c r="F36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="34" t="str">
+      <c r="G36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="34" t="str">
+      <c r="H36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="32" t="str">
+      <c r="I36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="32" t="str">
+      <c r="J36" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="33" t="str">
+      <c r="K36" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="31" t="str">
+      <c r="L36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="32" t="str">
+      <c r="M36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="32" t="str">
+      <c r="N36" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="32" t="str">
+      <c r="O36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="32" t="str">
+      <c r="P36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="32" t="str">
+      <c r="Q36" s="25" t="str">
         <f t="shared" ref="Q36:AO36" si="1">IFERROR(AVERAGE(Q5:Q35),"")</f>
         <v/>
       </c>
-      <c r="R36" s="32" t="str">
+      <c r="R36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S36" s="33" t="str">
+      <c r="S36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="32" t="str">
+      <c r="T36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="33" t="str">
+      <c r="U36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="33" t="str">
+      <c r="V36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="31" t="str">
+      <c r="W36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="32" t="str">
+      <c r="X36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="32" t="str">
+      <c r="Y36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="33" t="str">
+      <c r="Z36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="32" t="str">
+      <c r="AA36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="32" t="str">
+      <c r="AB36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="32" t="str">
+      <c r="AC36" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="32" t="str">
+      <c r="AD36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="32" t="str">
+      <c r="AE36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="32" t="str">
+      <c r="AF36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="32" t="str">
+      <c r="AG36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="33" t="str">
+      <c r="AH36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="33" t="str">
+      <c r="AI36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="32" t="str">
+      <c r="AJ36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK36" s="32" t="str">
+      <c r="AK36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL36" s="32" t="str">
+      <c r="AL36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM36" s="32" t="str">
+      <c r="AM36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN36" s="32" t="str">
+      <c r="AN36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO36" s="32" t="str">
+      <c r="AO36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" customHeight="1"/>
-    <row r="38" customHeight="1"/>
-    <row r="39" customHeight="1"/>
-    <row r="40" customHeight="1"/>
-    <row r="41" customHeight="1"/>
-    <row r="42" customHeight="1"/>
-    <row r="43" customHeight="1"/>
-    <row r="44" customHeight="1"/>
+    <row r="37" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:41" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:41" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:U1"/>
@@ -7317,39 +6677,37 @@
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7360,24 +6718,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="$A2:$XFD36"/>
+      <selection activeCell="R2" sqref="A2:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77.4" customHeight="1" spans="1:41">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="77.45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7503,8 +6860,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>